--- a/premise/data/additional_inventories/lci-batteries-LiO2.xlsx
+++ b/premise/data/additional_inventories/lci-batteries-LiO2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahnme_a\PycharmProjects\premise\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1E2BA8-5E9C-486B-85AE-A96EEC993C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65574126-AA3A-C043-936D-67FAD7597FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Battery - LiO2" sheetId="1" r:id="rId1"/>
@@ -92,9 +92,6 @@
     <t>battery cell production, Li-O2</t>
   </si>
   <si>
-    <t>battery cell, Li-O2</t>
-  </si>
-  <si>
     <t>production</t>
   </si>
   <si>
@@ -852,6 +849,9 @@
   </si>
   <si>
     <t>System: 63.5kWh Li-O2 || Mass: 267 kg || Battery energy density: 238 Wh/kg || System energy density: 198 Wh/kg || Battery lifetime: 305 kWh/kg (1.76 MJ/km x 2e5 km / 321 kg). Source: Originally from Wang, F., Deng, Y., &amp; Yuan, C. (2020). Life cycle assessment of lithium oxygen battery for electric vehicles. Journal of Cleaner Production, 264, 121339. https://doi.org/10.1016/j.jclepro.2020.121339</t>
+  </si>
+  <si>
+    <t>battery cell</t>
   </si>
 </sst>
 </file>
@@ -863,7 +863,7 @@
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -943,15 +943,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -1243,55 +1241,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T527"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A264" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H281" sqref="H281"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.7109375" customWidth="1"/>
+    <col min="1" max="1" width="52.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75">
-      <c r="A4" s="3" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1299,7 +1297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1307,15 +1305,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1323,7 +1321,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1331,7 +1329,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1343,7 +1341,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1369,12 +1367,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>B4</f>
         <v>battery cell production, Li-O2</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="6">
         <v>1</v>
       </c>
       <c r="C13" t="str">
@@ -1386,18 +1384,18 @@
         <v>GLO</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G13" t="str">
         <f>B8</f>
-        <v>battery cell, Li-O2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>battery cell</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="8">
+        <v>26</v>
+      </c>
+      <c r="B14" s="6">
         <v>6.9900000000000005E-5</v>
       </c>
       <c r="C14" t="s">
@@ -1407,143 +1405,143 @@
         <v>5</v>
       </c>
       <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
         <v>28</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>29</v>
       </c>
-      <c r="H14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="6">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="8">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" t="s">
-        <v>59</v>
-      </c>
       <c r="H15" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="8">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
+      <c r="B17" s="6">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="8">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="B18" s="6">
+        <v>0.106</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="8">
-        <v>0.106</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="8">
+      <c r="B19" s="6">
         <v>0.214</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
+      <c r="B20" s="6">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="8">
-        <v>1.6E-2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="8">
+        <v>31</v>
+      </c>
+      <c r="B21" s="6">
         <v>0.308</v>
       </c>
       <c r="C21" t="s">
@@ -1553,100 +1551,100 @@
         <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>170</v>
-      </c>
-      <c r="B22" s="8">
+        <v>169</v>
+      </c>
+      <c r="B22" s="6">
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="6">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="8">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="B24" s="6">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="8">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="15.75">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="B27" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -1654,33 +1652,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>8</v>
       </c>
       <c r="B32" t="s">
         <v>9</v>
       </c>
-      <c r="T32" s="5"/>
-    </row>
-    <row r="33" spans="1:20">
+      <c r="T32" s="4"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>10</v>
       </c>
       <c r="B33" t="s">
         <v>16</v>
       </c>
-      <c r="T33" s="5"/>
-    </row>
-    <row r="34" spans="1:20">
+      <c r="T33" s="4"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>11</v>
       </c>
@@ -1692,7 +1690,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>12</v>
       </c>
@@ -1718,12 +1716,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f>B27</f>
         <v>CNT production, for Li-O2 battery</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="6">
         <v>1</v>
       </c>
       <c r="C36" t="str">
@@ -1735,18 +1733,18 @@
         <v>RER</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G36" t="str">
         <f>B31</f>
         <v>CNT</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="8">
+        <v>42</v>
+      </c>
+      <c r="B37" s="6">
         <f>31.93/1000</f>
         <v>3.193E-2</v>
       </c>
@@ -1757,18 +1755,18 @@
         <v>5</v>
       </c>
       <c r="F37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G37" t="s">
+        <v>43</v>
+      </c>
+      <c r="T37" s="6"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>44</v>
       </c>
-      <c r="T37" s="8"/>
-    </row>
-    <row r="38" spans="1:20">
-      <c r="A38" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="8">
+      <c r="B38" s="6">
         <f>2.18/1000</f>
         <v>2.1800000000000001E-3</v>
       </c>
@@ -1779,17 +1777,17 @@
         <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="8">
+        <v>47</v>
+      </c>
+      <c r="B39" s="6">
         <f>6.55/1000</f>
         <v>6.5499999999999994E-3</v>
       </c>
@@ -1797,40 +1795,40 @@
         <v>9</v>
       </c>
       <c r="E39" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>49</v>
       </c>
-      <c r="F39" t="s">
-        <v>28</v>
-      </c>
-      <c r="G39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20">
-      <c r="A40" t="s">
+      <c r="B40" s="6">
+        <v>5.8336100000000002</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="8">
-        <v>5.8336100000000002</v>
-      </c>
-      <c r="C40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" t="s">
-        <v>49</v>
-      </c>
-      <c r="F40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20">
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" s="8">
+        <v>52</v>
+      </c>
+      <c r="B41" s="6">
         <f>56.34/1000</f>
         <v>5.6340000000000001E-2</v>
       </c>
@@ -1838,20 +1836,20 @@
         <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>54</v>
-      </c>
-      <c r="B42" s="8">
+        <v>53</v>
+      </c>
+      <c r="B42" s="6">
         <f>31.93/1000</f>
         <v>3.193E-2</v>
       </c>
@@ -1862,17 +1860,17 @@
         <v>5</v>
       </c>
       <c r="F42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="43" spans="1:20">
-      <c r="A43" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="8">
+      <c r="B43" s="6">
         <f>14.35/1000</f>
         <v>1.435E-2</v>
       </c>
@@ -1883,17 +1881,17 @@
         <v>5</v>
       </c>
       <c r="F43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="44" spans="1:20">
-      <c r="A44" t="s">
-        <v>58</v>
-      </c>
-      <c r="B44" s="8">
+      <c r="B44" s="6">
         <f>15.13/1000</f>
         <v>1.5130000000000001E-2</v>
       </c>
@@ -1901,20 +1899,20 @@
         <v>9</v>
       </c>
       <c r="E44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" s="8">
+        <v>60</v>
+      </c>
+      <c r="B45" s="6">
         <f>30.66/1000</f>
         <v>3.066E-2</v>
       </c>
@@ -1925,98 +1923,98 @@
         <v>5</v>
       </c>
       <c r="F45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="6">
+        <v>1.20146</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46" t="s">
+        <v>27</v>
+      </c>
+      <c r="G46" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="8">
-        <v>1.20146</v>
-      </c>
-      <c r="C46" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" t="s">
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>64</v>
       </c>
-      <c r="F46" t="s">
-        <v>28</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="B47" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="C47" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="47" spans="1:20">
-      <c r="A47" t="s">
+      <c r="F47" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="8">
-        <v>0.65</v>
-      </c>
-      <c r="C47" t="s">
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>67</v>
       </c>
-      <c r="E47" t="s">
-        <v>64</v>
-      </c>
-      <c r="F47" t="s">
-        <v>28</v>
-      </c>
-      <c r="G47" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20">
-      <c r="A48" t="s">
+      <c r="B48" s="6">
+        <v>58.09</v>
+      </c>
+      <c r="C48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" t="s">
+        <v>63</v>
+      </c>
+      <c r="F48" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="8">
-        <v>58.09</v>
-      </c>
-      <c r="C48" t="s">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>70</v>
       </c>
-      <c r="E48" t="s">
-        <v>64</v>
-      </c>
-      <c r="F48" t="s">
-        <v>28</v>
-      </c>
-      <c r="G48" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" t="s">
-        <v>71</v>
-      </c>
-      <c r="B49" s="8">
+      <c r="B49" s="6">
         <f>-0.43697/1000</f>
         <v>-4.3697000000000001E-4</v>
       </c>
       <c r="C49" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" t="s">
+        <v>63</v>
+      </c>
+      <c r="F49" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" t="s">
         <v>72</v>
       </c>
-      <c r="E49" t="s">
-        <v>64</v>
-      </c>
-      <c r="F49" t="s">
-        <v>28</v>
-      </c>
-      <c r="G49" t="s">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" t="s">
-        <v>74</v>
-      </c>
-      <c r="B50" s="8">
+      <c r="B50" s="6">
         <f>-14.35/1000</f>
         <v>-1.435E-2</v>
       </c>
@@ -2024,20 +2022,20 @@
         <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="s">
-        <v>76</v>
-      </c>
-      <c r="B51" s="8">
+      <c r="B51" s="6">
         <f>-5.505/1000</f>
         <v>-5.5049999999999995E-3</v>
       </c>
@@ -2045,40 +2043,40 @@
         <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G51" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="15.75">
-      <c r="A54" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="B54" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -2086,15 +2084,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -2102,7 +2100,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -2110,7 +2108,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>11</v>
       </c>
@@ -2122,7 +2120,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>12</v>
       </c>
@@ -2148,12 +2146,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f>B54</f>
         <v>lithium metal production, for Li-O2 battery</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="3">
         <v>1</v>
       </c>
       <c r="C63" t="str">
@@ -2165,18 +2163,18 @@
         <v>RER</v>
       </c>
       <c r="F63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G63" t="str">
         <f>B58</f>
         <v>lithium metal</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>160</v>
-      </c>
-      <c r="B64" s="4">
+        <v>159</v>
+      </c>
+      <c r="B64" s="3">
         <v>0.16500000000000001</v>
       </c>
       <c r="C64" t="s">
@@ -2186,17 +2184,17 @@
         <v>5</v>
       </c>
       <c r="F64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G64" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>78</v>
-      </c>
-      <c r="B65" s="4">
+        <v>77</v>
+      </c>
+      <c r="B65" s="3">
         <v>1.038</v>
       </c>
       <c r="C65" t="s">
@@ -2206,57 +2204,57 @@
         <v>5</v>
       </c>
       <c r="F65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66" s="3">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" t="s">
+        <v>48</v>
+      </c>
+      <c r="F66" t="s">
+        <v>27</v>
+      </c>
+      <c r="G66" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>82</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B67" s="3">
         <v>1</v>
       </c>
-      <c r="C66" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" t="s">
-        <v>49</v>
-      </c>
-      <c r="F66" t="s">
-        <v>28</v>
-      </c>
-      <c r="G66" t="s">
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" t="s">
+        <v>48</v>
+      </c>
+      <c r="F67" t="s">
+        <v>27</v>
+      </c>
+      <c r="G67" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
-      <c r="A67" t="s">
-        <v>83</v>
-      </c>
-      <c r="B67" s="4">
-        <v>1</v>
-      </c>
-      <c r="C67" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" t="s">
-        <v>49</v>
-      </c>
-      <c r="F67" t="s">
-        <v>28</v>
-      </c>
-      <c r="G67" t="s">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" t="s">
-        <v>86</v>
-      </c>
-      <c r="B68" s="4">
+      <c r="B68" s="3">
         <v>4.6000000000000001E-10</v>
       </c>
       <c r="C68" t="s">
@@ -2266,57 +2264,57 @@
         <v>5</v>
       </c>
       <c r="F68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G68" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" t="s">
+      <c r="B69" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C69" t="s">
         <v>88</v>
       </c>
-      <c r="B69" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="E69" t="s">
+        <v>63</v>
+      </c>
+      <c r="F69" t="s">
+        <v>27</v>
+      </c>
+      <c r="G69" t="s">
         <v>89</v>
       </c>
-      <c r="E69" t="s">
-        <v>64</v>
-      </c>
-      <c r="F69" t="s">
-        <v>28</v>
-      </c>
-      <c r="G69" t="s">
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" t="s">
+      <c r="B70" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>88</v>
+      </c>
+      <c r="E70" t="s">
+        <v>48</v>
+      </c>
+      <c r="F70" t="s">
+        <v>27</v>
+      </c>
+      <c r="G70" t="s">
         <v>91</v>
       </c>
-      <c r="B70" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C70" t="s">
-        <v>89</v>
-      </c>
-      <c r="E70" t="s">
-        <v>49</v>
-      </c>
-      <c r="F70" t="s">
-        <v>28</v>
-      </c>
-      <c r="G70" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>94</v>
-      </c>
-      <c r="B71" s="4">
+        <v>93</v>
+      </c>
+      <c r="B71" s="3">
         <f>-38/1000</f>
         <v>-3.7999999999999999E-2</v>
       </c>
@@ -2324,40 +2322,40 @@
         <v>9</v>
       </c>
       <c r="E71" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G71" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="15.75">
-      <c r="A74" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="15.75">
-      <c r="A75" s="9" t="s">
+      <c r="B74" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B75" s="9" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="B75" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>4</v>
       </c>
       <c r="B76" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -2365,15 +2363,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -2381,7 +2379,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -2389,7 +2387,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>11</v>
       </c>
@@ -2401,7 +2399,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>12</v>
       </c>
@@ -2427,12 +2425,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="str">
         <f>B74</f>
         <v>film extrusion process, lithium</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B83" s="3">
         <v>1</v>
       </c>
       <c r="C83" t="str">
@@ -2444,58 +2442,58 @@
         <v>RER</v>
       </c>
       <c r="F83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G83" t="str">
         <f>B78</f>
         <v>film extrusion, lithium</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>64</v>
+      </c>
+      <c r="B84" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="C84" t="s">
+        <v>66</v>
+      </c>
+      <c r="E84" t="s">
+        <v>63</v>
+      </c>
+      <c r="F84" t="s">
+        <v>27</v>
+      </c>
+      <c r="G84" t="s">
         <v>65</v>
       </c>
-      <c r="B84" s="4">
-        <v>0.45</v>
-      </c>
-      <c r="C84" t="s">
-        <v>67</v>
-      </c>
-      <c r="E84" t="s">
-        <v>64</v>
-      </c>
-      <c r="F84" t="s">
-        <v>28</v>
-      </c>
-      <c r="G84" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="15.75">
-      <c r="A86" s="3" t="s">
+    </row>
+    <row r="86" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="15.75">
-      <c r="A87" s="9" t="s">
+      <c r="B86" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A87" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B87" s="9" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="B87" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>4</v>
       </c>
       <c r="B88" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -2503,15 +2501,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>7</v>
       </c>
       <c r="B90" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>8</v>
       </c>
@@ -2519,7 +2517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>10</v>
       </c>
@@ -2527,7 +2525,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>11</v>
       </c>
@@ -2539,7 +2537,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>12</v>
       </c>
@@ -2565,12 +2563,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="str">
         <f>B86</f>
         <v>surface production process, lithium</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B95" s="3">
         <v>1</v>
       </c>
       <c r="C95" t="str">
@@ -2582,78 +2580,78 @@
         <v>RER</v>
       </c>
       <c r="F95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G95" t="str">
         <f>B90</f>
         <v>surface production, lithium</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>64</v>
+      </c>
+      <c r="B96" s="3">
+        <v>13.9</v>
+      </c>
+      <c r="C96" t="s">
+        <v>66</v>
+      </c>
+      <c r="E96" t="s">
+        <v>63</v>
+      </c>
+      <c r="F96" t="s">
+        <v>27</v>
+      </c>
+      <c r="G96" t="s">
         <v>65</v>
       </c>
-      <c r="B96" s="4">
-        <v>13.9</v>
-      </c>
-      <c r="C96" t="s">
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>67</v>
       </c>
-      <c r="E96" t="s">
-        <v>64</v>
-      </c>
-      <c r="F96" t="s">
-        <v>28</v>
-      </c>
-      <c r="G96" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" t="s">
+      <c r="B97" s="3">
+        <v>166.8</v>
+      </c>
+      <c r="C97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" t="s">
+        <v>63</v>
+      </c>
+      <c r="F97" t="s">
+        <v>27</v>
+      </c>
+      <c r="G97" t="s">
         <v>68</v>
       </c>
-      <c r="B97" s="4">
-        <v>166.8</v>
-      </c>
-      <c r="C97" t="s">
-        <v>70</v>
-      </c>
-      <c r="E97" t="s">
-        <v>64</v>
-      </c>
-      <c r="F97" t="s">
-        <v>28</v>
-      </c>
-      <c r="G97" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="15.75">
-      <c r="A100" s="3" t="s">
+    </row>
+    <row r="100" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B100" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="B100" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>3</v>
       </c>
       <c r="B101" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>6</v>
       </c>
@@ -2661,15 +2659,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>7</v>
       </c>
       <c r="B104" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>8</v>
       </c>
@@ -2677,7 +2675,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -2685,7 +2683,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>11</v>
       </c>
@@ -2696,7 +2694,7 @@
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>12</v>
       </c>
@@ -2722,12 +2720,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="str">
         <f>B100</f>
         <v>electrolyte production, for Li-O2 battery</v>
       </c>
-      <c r="B109" s="4">
+      <c r="B109" s="3">
         <v>1</v>
       </c>
       <c r="C109" t="str">
@@ -2739,18 +2737,18 @@
         <v>RER</v>
       </c>
       <c r="F109" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G109" t="str">
         <f>B104</f>
         <v>electrolyte</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>97</v>
-      </c>
-      <c r="B110" s="4">
+        <v>96</v>
+      </c>
+      <c r="B110" s="3">
         <v>0.39800000000000002</v>
       </c>
       <c r="C110" t="s">
@@ -2760,17 +2758,17 @@
         <v>5</v>
       </c>
       <c r="F110" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G110" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>98</v>
-      </c>
-      <c r="B111" s="4">
+        <v>97</v>
+      </c>
+      <c r="B111" s="3">
         <v>1.151</v>
       </c>
       <c r="C111" t="s">
@@ -2780,75 +2778,75 @@
         <v>5</v>
       </c>
       <c r="F111" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G111" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" t="s">
-        <v>100</v>
       </c>
       <c r="B112">
         <f>10.8/3.6</f>
         <v>3</v>
       </c>
       <c r="C112" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E112" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F112" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G112" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" t="s">
+      <c r="B113" s="3">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="C113" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" t="s">
         <v>102</v>
       </c>
-      <c r="B113" s="4">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="C113" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" t="s">
+      <c r="F113" t="s">
         <v>103</v>
       </c>
-      <c r="F113" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="15.75">
-      <c r="A116" s="3" t="s">
+    </row>
+    <row r="116" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B116" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="15.75">
-      <c r="A117" s="9" t="s">
+      <c r="B116" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A117" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B117" s="9" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+      <c r="B117" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>4</v>
       </c>
       <c r="B118" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>6</v>
       </c>
@@ -2856,15 +2854,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>7</v>
       </c>
       <c r="B120" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>8</v>
       </c>
@@ -2872,7 +2870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>10</v>
       </c>
@@ -2880,7 +2878,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>11</v>
       </c>
@@ -2891,7 +2889,7 @@
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>12</v>
       </c>
@@ -2917,12 +2915,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="str">
         <f>B116</f>
         <v>copper current collector production, for Li-O2 battery</v>
       </c>
-      <c r="B125" s="4">
+      <c r="B125" s="3">
         <v>1</v>
       </c>
       <c r="C125" t="str">
@@ -2934,18 +2932,18 @@
         <v>RER</v>
       </c>
       <c r="F125" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G125" t="str">
         <f>B120</f>
         <v>copper current collector</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>105</v>
-      </c>
-      <c r="B126" s="4">
+        <v>104</v>
+      </c>
+      <c r="B126" s="3">
         <v>0.71299999999999997</v>
       </c>
       <c r="C126" t="s">
@@ -2955,17 +2953,17 @@
         <v>5</v>
       </c>
       <c r="F126" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G126" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>86</v>
-      </c>
-      <c r="B127" s="4">
+        <v>85</v>
+      </c>
+      <c r="B127" s="3">
         <v>4.6000000000000001E-10</v>
       </c>
       <c r="C127" t="s">
@@ -2975,17 +2973,17 @@
         <v>5</v>
       </c>
       <c r="F127" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G127" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>107</v>
-      </c>
-      <c r="B128" s="4">
+        <v>106</v>
+      </c>
+      <c r="B128" s="3">
         <v>1</v>
       </c>
       <c r="C128" t="s">
@@ -2995,77 +2993,77 @@
         <v>5</v>
       </c>
       <c r="F128" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G128" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>87</v>
+      </c>
+      <c r="B129" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C129" t="s">
         <v>88</v>
       </c>
-      <c r="B129" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="C129" t="s">
+      <c r="E129" t="s">
+        <v>63</v>
+      </c>
+      <c r="F129" t="s">
+        <v>27</v>
+      </c>
+      <c r="G129" t="s">
         <v>89</v>
       </c>
-      <c r="E129" t="s">
-        <v>64</v>
-      </c>
-      <c r="F129" t="s">
-        <v>28</v>
-      </c>
-      <c r="G129" t="s">
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="A130" t="s">
+      <c r="B130" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C130" t="s">
+        <v>88</v>
+      </c>
+      <c r="E130" t="s">
+        <v>48</v>
+      </c>
+      <c r="F130" t="s">
+        <v>27</v>
+      </c>
+      <c r="G130" t="s">
         <v>91</v>
       </c>
-      <c r="B130" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C130" t="s">
-        <v>89</v>
-      </c>
-      <c r="E130" t="s">
-        <v>49</v>
-      </c>
-      <c r="F130" t="s">
-        <v>28</v>
-      </c>
-      <c r="G130" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="15.75">
-      <c r="A133" s="3" t="s">
+    </row>
+    <row r="133" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B133" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="15.75">
-      <c r="A134" s="9" t="s">
+      <c r="B133" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A134" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B134" s="9" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+      <c r="B134" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>4</v>
       </c>
       <c r="B135" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>6</v>
       </c>
@@ -3073,15 +3071,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>8</v>
       </c>
@@ -3089,7 +3087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>10</v>
       </c>
@@ -3097,7 +3095,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>11</v>
       </c>
@@ -3108,7 +3106,7 @@
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>12</v>
       </c>
@@ -3134,12 +3132,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="str">
         <f>B133</f>
         <v>aluminium current collector production, for Li-O2 battery</v>
       </c>
-      <c r="B142" s="4">
+      <c r="B142" s="3">
         <v>1</v>
       </c>
       <c r="C142" t="str">
@@ -3151,118 +3149,118 @@
         <v>RER</v>
       </c>
       <c r="F142" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G142" t="str">
         <f>B137</f>
         <v>aluminium current collector</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
+        <v>108</v>
+      </c>
+      <c r="B143" s="3">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="C143" t="s">
+        <v>9</v>
+      </c>
+      <c r="E143" t="s">
+        <v>110</v>
+      </c>
+      <c r="F143" t="s">
+        <v>27</v>
+      </c>
+      <c r="G143" t="s">
         <v>109</v>
       </c>
-      <c r="B143" s="4">
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="C143" t="s">
-        <v>9</v>
-      </c>
-      <c r="E143" t="s">
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
         <v>111</v>
       </c>
-      <c r="F143" t="s">
-        <v>28</v>
-      </c>
-      <c r="G143" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="A144" t="s">
-        <v>112</v>
-      </c>
-      <c r="B144" s="4">
+      <c r="B144" s="3">
         <v>1</v>
       </c>
       <c r="C144" t="s">
         <v>9</v>
       </c>
       <c r="E144" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F144" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G144" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
+        <v>87</v>
+      </c>
+      <c r="B145" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C145" t="s">
         <v>88</v>
       </c>
-      <c r="B145" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="C145" t="s">
+      <c r="E145" t="s">
+        <v>63</v>
+      </c>
+      <c r="F145" t="s">
+        <v>27</v>
+      </c>
+      <c r="G145" t="s">
         <v>89</v>
       </c>
-      <c r="E145" t="s">
-        <v>64</v>
-      </c>
-      <c r="F145" t="s">
-        <v>28</v>
-      </c>
-      <c r="G145" t="s">
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146" t="s">
+      <c r="B146" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C146" t="s">
+        <v>88</v>
+      </c>
+      <c r="E146" t="s">
+        <v>48</v>
+      </c>
+      <c r="F146" t="s">
+        <v>27</v>
+      </c>
+      <c r="G146" t="s">
         <v>91</v>
       </c>
-      <c r="B146" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C146" t="s">
-        <v>89</v>
-      </c>
-      <c r="E146" t="s">
-        <v>49</v>
-      </c>
-      <c r="F146" t="s">
-        <v>28</v>
-      </c>
-      <c r="G146" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="15.75">
-      <c r="A149" s="3" t="s">
+    </row>
+    <row r="149" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B149" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" ht="15.75">
-      <c r="A150" s="9" t="s">
+      <c r="B149" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A150" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B150" s="9" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+      <c r="B150" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>4</v>
       </c>
       <c r="B151" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>6</v>
       </c>
@@ -3270,15 +3268,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>7</v>
       </c>
       <c r="B153" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>8</v>
       </c>
@@ -3286,7 +3284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>10</v>
       </c>
@@ -3294,7 +3292,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>11</v>
       </c>
@@ -3305,7 +3303,7 @@
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>12</v>
       </c>
@@ -3331,7 +3329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="str">
         <f>B149</f>
         <v>terminals production, for Li-O2 battery</v>
@@ -3348,16 +3346,16 @@
         <v>RER</v>
       </c>
       <c r="F158" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G158" t="str">
         <f>B153</f>
         <v>terminals</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B159">
         <v>0.82499999999999996</v>
@@ -3366,22 +3364,22 @@
         <v>9</v>
       </c>
       <c r="E159" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F159" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G159" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H159">
         <f>184*B$24*B159</f>
         <v>8.6525999999999996</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B160">
         <f>45/1000</f>
@@ -3391,22 +3389,22 @@
         <v>9</v>
       </c>
       <c r="E160" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F160" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G160" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H160">
         <f t="shared" ref="H160:H169" si="0">184*B$24*B160</f>
         <v>0.47195999999999994</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B161">
         <f>0.0000000000349</f>
@@ -3416,24 +3414,24 @@
         <v>8</v>
       </c>
       <c r="E161" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F161" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G161" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H161">
         <f t="shared" si="0"/>
         <v>3.6603119999999994E-10</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>86</v>
-      </c>
-      <c r="B162" s="4">
+        <v>85</v>
+      </c>
+      <c r="B162" s="3">
         <v>3.5300000000000002E-10</v>
       </c>
       <c r="C162" t="s">
@@ -3443,19 +3441,19 @@
         <v>5</v>
       </c>
       <c r="F162" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G162" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H162">
         <f t="shared" si="0"/>
         <v>3.702264E-9</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B163">
         <v>0.71299999999999997</v>
@@ -3467,19 +3465,19 @@
         <v>5</v>
       </c>
       <c r="F163" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G163" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H163">
         <f t="shared" si="0"/>
         <v>7.477943999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B164">
         <f>0.234</f>
@@ -3489,22 +3487,22 @@
         <v>9</v>
       </c>
       <c r="E164" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F164" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G164" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H164">
         <f t="shared" si="0"/>
         <v>2.4541919999999999</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B165">
         <v>0.23200000000000001</v>
@@ -3516,19 +3514,19 @@
         <v>5</v>
       </c>
       <c r="F165" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G165" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H165">
         <f t="shared" si="0"/>
         <v>2.4332159999999998</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B166">
         <v>0.76800000000000002</v>
@@ -3540,67 +3538,67 @@
         <v>5</v>
       </c>
       <c r="F166" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G166" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H166">
         <f t="shared" si="0"/>
         <v>8.0547839999999997</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B167">
         <v>0.2</v>
       </c>
       <c r="C167" t="s">
+        <v>88</v>
+      </c>
+      <c r="E167" t="s">
+        <v>63</v>
+      </c>
+      <c r="F167" t="s">
+        <v>27</v>
+      </c>
+      <c r="G167" t="s">
         <v>89</v>
-      </c>
-      <c r="E167" t="s">
-        <v>64</v>
-      </c>
-      <c r="F167" t="s">
-        <v>28</v>
-      </c>
-      <c r="G167" t="s">
-        <v>90</v>
       </c>
       <c r="H167">
         <f t="shared" si="0"/>
         <v>2.0975999999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B168">
         <v>0.1</v>
       </c>
       <c r="C168" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E168" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F168" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G168" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H168">
         <f t="shared" si="0"/>
         <v>1.0488</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B169">
         <f>-18/1000</f>
@@ -3610,44 +3608,44 @@
         <v>9</v>
       </c>
       <c r="E169" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F169" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G169" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H169">
         <f t="shared" si="0"/>
         <v>-0.18878399999999998</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="15.75">
-      <c r="A172" s="3" t="s">
+    <row r="172" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B172" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" ht="15.75">
-      <c r="A173" s="9" t="s">
+      <c r="B172" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A173" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B173" s="9" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+      <c r="B173" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>4</v>
       </c>
       <c r="B174" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>6</v>
       </c>
@@ -3655,15 +3653,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>7</v>
       </c>
       <c r="B176" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>8</v>
       </c>
@@ -3671,7 +3669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>10</v>
       </c>
@@ -3679,7 +3677,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>11</v>
       </c>
@@ -3690,7 +3688,7 @@
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>12</v>
       </c>
@@ -3716,7 +3714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" t="str">
         <f>B172</f>
         <v>multilayer film production, for Li-O2 battery</v>
@@ -3733,16 +3731,16 @@
         <v>RER</v>
       </c>
       <c r="F181" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G181" t="str">
         <f>B176</f>
         <v>multilayer film</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B182">
         <v>0.55000000000000004</v>
@@ -3751,22 +3749,22 @@
         <v>9</v>
       </c>
       <c r="E182" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F182" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G182" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H182">
         <f>184*B$23*B182</f>
         <v>3.7444000000000002</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B183">
         <v>0.129</v>
@@ -3775,22 +3773,22 @@
         <v>9</v>
       </c>
       <c r="E183" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F183" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G183" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H183">
         <f t="shared" ref="H183:H188" si="1">184*B$23*B183</f>
         <v>0.87823200000000001</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B184">
         <v>0.20599999999999999</v>
@@ -3802,19 +3800,19 @@
         <v>5</v>
       </c>
       <c r="F184" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G184" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H184">
         <f t="shared" si="1"/>
         <v>1.4024479999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B185">
         <v>0.13700000000000001</v>
@@ -3826,19 +3824,19 @@
         <v>5</v>
       </c>
       <c r="F185" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G185" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H185">
         <f t="shared" si="1"/>
         <v>0.93269600000000008</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B186">
         <v>0.66700000000000004</v>
@@ -3850,19 +3848,19 @@
         <v>5</v>
       </c>
       <c r="F186" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G186" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H186">
         <f t="shared" si="1"/>
         <v>4.5409360000000003</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B187">
         <v>0.33300000000000002</v>
@@ -3874,19 +3872,19 @@
         <v>5</v>
       </c>
       <c r="F187" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G187" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H187">
         <f t="shared" si="1"/>
         <v>2.267064</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B188">
         <f>-21/1000</f>
@@ -3896,44 +3894,44 @@
         <v>9</v>
       </c>
       <c r="E188" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F188" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G188" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H188">
         <f t="shared" si="1"/>
         <v>-0.14296800000000001</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="15.75">
-      <c r="A191" s="3" t="s">
+    <row r="191" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A191" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B191" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" ht="15.75">
-      <c r="A192" s="9" t="s">
+      <c r="B191" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A192" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B192" s="9" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+      <c r="B192" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>4</v>
       </c>
       <c r="B193" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>6</v>
       </c>
@@ -3941,15 +3939,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>7</v>
       </c>
       <c r="B195" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>8</v>
       </c>
@@ -3957,7 +3955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>10</v>
       </c>
@@ -3965,7 +3963,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>11</v>
       </c>
@@ -3976,7 +3974,7 @@
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>12</v>
       </c>
@@ -4002,7 +4000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" t="str">
         <f>B191</f>
         <v>oxygen tank production, for Li-O2 battery</v>
@@ -4019,37 +4017,37 @@
         <v>RER</v>
       </c>
       <c r="F200" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G200" t="str">
         <f>B195</f>
         <v>oxygen tank</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B201">
         <f>0.236/3.6</f>
         <v>6.5555555555555547E-2</v>
       </c>
       <c r="C201" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E201" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F201" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G201" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B202">
         <v>1</v>
@@ -4061,37 +4059,37 @@
         <v>5</v>
       </c>
       <c r="F202" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G202" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A205" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="15.75">
-      <c r="A205" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>3</v>
       </c>
       <c r="B206" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>4</v>
       </c>
       <c r="B207" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>6</v>
       </c>
@@ -4099,15 +4097,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>7</v>
       </c>
       <c r="B209" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>8</v>
       </c>
@@ -4115,7 +4113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>10</v>
       </c>
@@ -4123,7 +4121,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>11</v>
       </c>
@@ -4134,7 +4132,7 @@
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>12</v>
       </c>
@@ -4160,7 +4158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" t="str">
         <f>B205</f>
         <v>module packaging, for Li-O2 battery</v>
@@ -4177,16 +4175,16 @@
         <v>RER</v>
       </c>
       <c r="F214" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G214" t="str">
         <f>B209</f>
         <v>module packaging</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B215">
         <v>0.23</v>
@@ -4198,43 +4196,43 @@
         <v>5</v>
       </c>
       <c r="F215" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G215" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H215">
         <f>B$279*B215</f>
         <v>1.1528660436137072E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>115</v>
-      </c>
-      <c r="B216" s="4">
+        <v>114</v>
+      </c>
+      <c r="B216" s="3">
         <v>9.7499999999999999E-11</v>
       </c>
       <c r="C216" t="s">
         <v>8</v>
       </c>
       <c r="E216" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F216" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G216" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H216">
         <f t="shared" ref="H216:H227" si="2">B$279*B216</f>
         <v>4.8871495327102809E-12</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B217">
         <v>0.82499999999999996</v>
@@ -4243,22 +4241,22 @@
         <v>9</v>
       </c>
       <c r="E217" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F217" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G217" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H217">
         <f t="shared" si="2"/>
         <v>4.1352803738317755E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B218">
         <v>0.115</v>
@@ -4267,46 +4265,46 @@
         <v>9</v>
       </c>
       <c r="E218" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F218" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G218" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H218">
         <f t="shared" si="2"/>
         <v>5.7643302180685361E-3</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B219">
         <v>0.6</v>
       </c>
       <c r="C219" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E219" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F219" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G219" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H219">
         <f t="shared" si="2"/>
         <v>3.0074766355140187E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B220">
         <v>4.9000000000000002E-2</v>
@@ -4318,19 +4316,19 @@
         <v>5</v>
       </c>
       <c r="F220" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G220" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H220">
         <f t="shared" si="2"/>
         <v>2.4561059190031155E-3</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B221">
         <v>0.33300000000000002</v>
@@ -4339,46 +4337,46 @@
         <v>9</v>
       </c>
       <c r="E221" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F221" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G221" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H221">
         <f t="shared" si="2"/>
         <v>1.6691495327102804E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>138</v>
-      </c>
-      <c r="B222" s="4">
+        <v>137</v>
+      </c>
+      <c r="B222" s="3">
         <v>2.4599999999999998E-10</v>
       </c>
       <c r="C222" t="s">
         <v>8</v>
       </c>
       <c r="E222" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F222" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G222" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H222">
         <f t="shared" si="2"/>
         <v>1.2330654205607476E-11</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B223">
         <v>6.7000000000000004E-2</v>
@@ -4387,22 +4385,22 @@
         <v>9</v>
       </c>
       <c r="E223" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F223" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G223" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H223">
         <f t="shared" si="2"/>
         <v>3.3583489096573214E-3</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B224">
         <v>0.65500000000000003</v>
@@ -4414,67 +4412,67 @@
         <v>5</v>
       </c>
       <c r="F224" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G224" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H224">
         <f t="shared" si="2"/>
         <v>3.2831619937694706E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B225">
         <v>0.2</v>
       </c>
       <c r="C225" t="s">
+        <v>88</v>
+      </c>
+      <c r="E225" t="s">
+        <v>63</v>
+      </c>
+      <c r="F225" t="s">
+        <v>27</v>
+      </c>
+      <c r="G225" t="s">
         <v>89</v>
-      </c>
-      <c r="E225" t="s">
-        <v>64</v>
-      </c>
-      <c r="F225" t="s">
-        <v>28</v>
-      </c>
-      <c r="G225" t="s">
-        <v>90</v>
       </c>
       <c r="H225">
         <f t="shared" si="2"/>
         <v>1.0024922118380063E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B226">
         <v>0.1</v>
       </c>
       <c r="C226" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E226" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F226" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G226" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H226">
         <f t="shared" si="2"/>
         <v>5.0124610591900315E-3</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B227">
         <f>-195/1000</f>
@@ -4484,44 +4482,44 @@
         <v>9</v>
       </c>
       <c r="E227" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F227" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G227" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H227">
         <f t="shared" si="2"/>
         <v>-9.7742990654205615E-3</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="15.75">
-      <c r="A230" s="3" t="s">
+    <row r="230" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A230" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B230" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
+      <c r="B230" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>3</v>
       </c>
       <c r="B231" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>4</v>
       </c>
       <c r="B232" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>6</v>
       </c>
@@ -4529,15 +4527,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>7</v>
       </c>
       <c r="B234" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>8</v>
       </c>
@@ -4545,7 +4543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>10</v>
       </c>
@@ -4553,7 +4551,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>11</v>
       </c>
@@ -4564,7 +4562,7 @@
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>12</v>
       </c>
@@ -4590,7 +4588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" t="str">
         <f>B230</f>
         <v>pack packaging, for Li-O2 battery</v>
@@ -4607,40 +4605,40 @@
         <v>RER</v>
       </c>
       <c r="F239" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G239" t="str">
         <f>B234</f>
         <v>pack packaging</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>115</v>
-      </c>
-      <c r="B240" s="4">
+        <v>114</v>
+      </c>
+      <c r="B240" s="3">
         <v>1.34E-10</v>
       </c>
       <c r="C240" t="s">
         <v>8</v>
       </c>
       <c r="E240" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F240" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G240" t="s">
-        <v>116</v>
-      </c>
-      <c r="H240" s="8">
+        <v>115</v>
+      </c>
+      <c r="H240" s="6">
         <f>B240*B$280</f>
         <v>1.5044735202492212E-11</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B241">
         <v>0.82499999999999996</v>
@@ -4649,24 +4647,24 @@
         <v>9</v>
       </c>
       <c r="E241" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F241" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G241" t="s">
-        <v>110</v>
-      </c>
-      <c r="H241" s="8">
+        <v>109</v>
+      </c>
+      <c r="H241" s="6">
         <f t="shared" ref="H241:H247" si="3">B241*B$280</f>
         <v>9.2626168224299046E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>86</v>
-      </c>
-      <c r="B242" s="4">
+        <v>85</v>
+      </c>
+      <c r="B242" s="3">
         <v>2.78E-11</v>
       </c>
       <c r="C242" t="s">
@@ -4676,19 +4674,19 @@
         <v>5</v>
       </c>
       <c r="F242" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G242" t="s">
-        <v>87</v>
-      </c>
-      <c r="H242" s="8">
+        <v>86</v>
+      </c>
+      <c r="H242" s="6">
         <f t="shared" si="3"/>
         <v>3.1212211838006227E-12</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B243">
         <v>0.89900000000000002</v>
@@ -4700,21 +4698,21 @@
         <v>5</v>
       </c>
       <c r="F243" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G243" t="s">
-        <v>144</v>
-      </c>
-      <c r="H243" s="8">
+        <v>143</v>
+      </c>
+      <c r="H243" s="6">
         <f t="shared" si="3"/>
         <v>0.10093445482866042</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>145</v>
-      </c>
-      <c r="B244" s="4">
+        <v>144</v>
+      </c>
+      <c r="B244" s="3">
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="C244" t="s">
@@ -4724,19 +4722,19 @@
         <v>5</v>
       </c>
       <c r="F244" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G244" t="s">
-        <v>146</v>
-      </c>
-      <c r="H244" s="8">
+        <v>145</v>
+      </c>
+      <c r="H244" s="6">
         <f t="shared" si="3"/>
         <v>3.5927725856697819E-3</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B245">
         <v>8.7999999999999995E-2</v>
@@ -4745,70 +4743,70 @@
         <v>9</v>
       </c>
       <c r="E245" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F245" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G245" t="s">
-        <v>147</v>
-      </c>
-      <c r="H245" s="8">
+        <v>146</v>
+      </c>
+      <c r="H245" s="6">
         <f t="shared" si="3"/>
         <v>9.8801246105918988E-3</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B246">
         <v>0.2</v>
       </c>
       <c r="C246" t="s">
+        <v>88</v>
+      </c>
+      <c r="E246" t="s">
+        <v>63</v>
+      </c>
+      <c r="F246" t="s">
+        <v>27</v>
+      </c>
+      <c r="G246" t="s">
         <v>89</v>
       </c>
-      <c r="E246" t="s">
-        <v>64</v>
-      </c>
-      <c r="F246" t="s">
-        <v>28</v>
-      </c>
-      <c r="G246" t="s">
-        <v>90</v>
-      </c>
-      <c r="H246" s="8">
+      <c r="H246" s="6">
         <f t="shared" si="3"/>
         <v>2.2454828660436136E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B247">
         <v>0.1</v>
       </c>
       <c r="C247" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E247" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F247" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G247" t="s">
-        <v>92</v>
-      </c>
-      <c r="H247" s="8">
+        <v>91</v>
+      </c>
+      <c r="H247" s="6">
         <f t="shared" si="3"/>
         <v>1.1227414330218068E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B248">
         <f>-77/1000</f>
@@ -4818,44 +4816,44 @@
         <v>9</v>
       </c>
       <c r="E248" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F248" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G248" t="s">
-        <v>123</v>
-      </c>
-      <c r="H248" s="8">
+        <v>122</v>
+      </c>
+      <c r="H248" s="6">
         <f>B248*B$280</f>
         <v>-8.6451090342679112E-3</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="15.75">
-      <c r="A250" s="3" t="s">
+    <row r="250" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A250" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B250" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
+      <c r="B250" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>3</v>
       </c>
       <c r="B251" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>4</v>
       </c>
       <c r="B252" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>6</v>
       </c>
@@ -4863,15 +4861,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>7</v>
       </c>
       <c r="B254" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>8</v>
       </c>
@@ -4879,7 +4877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>10</v>
       </c>
@@ -4887,7 +4885,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>11</v>
       </c>
@@ -4898,7 +4896,7 @@
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>12</v>
       </c>
@@ -4924,7 +4922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" t="str">
         <f>B250</f>
         <v>treatment of LiO2 battery, for recycling</v>
@@ -4941,16 +4939,16 @@
         <v>RER</v>
       </c>
       <c r="F259" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G259" t="str">
         <f>B254</f>
         <v>waste LiO2 battery</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B260">
         <v>1.022</v>
@@ -4959,38 +4957,38 @@
         <v>9</v>
       </c>
       <c r="E260" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F260" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G260" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B261">
         <v>0.189</v>
       </c>
       <c r="C261" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E261" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F261" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G261" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B262">
         <v>-0.91</v>
@@ -5002,15 +5000,15 @@
         <v>5</v>
       </c>
       <c r="F262" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G262" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8">
-      <c r="A263" t="s">
-        <v>154</v>
       </c>
       <c r="B263">
         <v>0.02</v>
@@ -5022,15 +5020,15 @@
         <v>5</v>
       </c>
       <c r="F263" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G263" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8">
-      <c r="A264" t="s">
-        <v>156</v>
       </c>
       <c r="B264">
         <v>0.127</v>
@@ -5039,18 +5037,18 @@
         <v>9</v>
       </c>
       <c r="E264" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F264" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G264" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8">
-      <c r="A265" t="s">
-        <v>158</v>
       </c>
       <c r="B265">
         <v>0.21</v>
@@ -5059,32 +5057,32 @@
         <v>9</v>
       </c>
       <c r="E265" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F265" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G265" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" ht="15.75">
-      <c r="A268" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A268" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B268" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8">
+      <c r="B268" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>3</v>
       </c>
       <c r="B269" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>4</v>
       </c>
@@ -5092,7 +5090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>6</v>
       </c>
@@ -5100,15 +5098,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>7</v>
       </c>
       <c r="B272" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>8</v>
       </c>
@@ -5116,7 +5114,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>10</v>
       </c>
@@ -5124,7 +5122,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>11</v>
       </c>
@@ -5135,7 +5133,7 @@
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>12</v>
       </c>
@@ -5161,9 +5159,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="15.75">
-      <c r="A277" s="9" t="s">
-        <v>163</v>
+    <row r="277" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A277" s="7" t="s">
+        <v>162</v>
       </c>
       <c r="B277">
         <v>1</v>
@@ -5176,21 +5174,21 @@
         <v>GLO</v>
       </c>
       <c r="F277" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G277" t="str">
         <f>B272</f>
         <v>battery, Li-O2</v>
       </c>
       <c r="H277" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>17</v>
       </c>
-      <c r="B278" s="7">
+      <c r="B278">
         <f>(33.7+60.71+8.85+51.16+51.98)/321</f>
         <v>0.64299065420560741</v>
       </c>
@@ -5201,18 +5199,18 @@
         <v>5</v>
       </c>
       <c r="F278" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G278" t="s">
-        <v>18</v>
+        <v>271</v>
       </c>
       <c r="H278" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B279">
         <f>16.09/321</f>
@@ -5222,18 +5220,18 @@
         <v>9</v>
       </c>
       <c r="E279" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F279" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G279" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B280">
         <f>36.04/321</f>
@@ -5243,18 +5241,18 @@
         <v>9</v>
       </c>
       <c r="E280" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F280" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G280" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B281">
         <f>55/321</f>
@@ -5264,18 +5262,18 @@
         <v>9</v>
       </c>
       <c r="E281" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F281" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G281" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B282">
         <f>4/321</f>
@@ -5285,18 +5283,18 @@
         <v>9</v>
       </c>
       <c r="E282" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F282" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G282" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B283">
         <f>41.48/321</f>
@@ -5306,18 +5304,18 @@
         <v>9</v>
       </c>
       <c r="E283" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F283" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G283" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" ht="15.75">
-      <c r="A284" s="9" t="s">
-        <v>148</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A284" s="7" t="s">
+        <v>147</v>
       </c>
       <c r="B284">
         <f>-1/321</f>
@@ -5327,40 +5325,40 @@
         <v>9</v>
       </c>
       <c r="E284" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F284" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G284" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8" ht="15.75">
-      <c r="A288" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A288" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>3</v>
       </c>
       <c r="B289" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>4</v>
       </c>
       <c r="B290" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>6</v>
       </c>
@@ -5368,15 +5366,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>7</v>
       </c>
       <c r="B292" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>8</v>
       </c>
@@ -5384,7 +5382,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>10</v>
       </c>
@@ -5392,7 +5390,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>11</v>
       </c>
@@ -5403,7 +5401,7 @@
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>12</v>
       </c>
@@ -5429,12 +5427,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" t="str">
         <f>B288</f>
         <v>separator manufacturing, for Li-O2 battery</v>
       </c>
-      <c r="B297" s="7">
+      <c r="B297">
         <v>1</v>
       </c>
       <c r="C297" t="str">
@@ -5446,18 +5444,18 @@
         <v>RER</v>
       </c>
       <c r="F297" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G297" t="str">
         <f>B292</f>
         <v>separator</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>45</v>
-      </c>
-      <c r="B298" s="7">
+        <v>44</v>
+      </c>
+      <c r="B298">
         <v>0.218</v>
       </c>
       <c r="C298" t="s">
@@ -5467,42 +5465,42 @@
         <v>5</v>
       </c>
       <c r="F298" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G298" t="s">
-        <v>46</v>
-      </c>
-      <c r="H298" s="6"/>
-    </row>
-    <row r="299" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="H298" s="5"/>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>65</v>
-      </c>
-      <c r="B299" s="7">
+        <v>64</v>
+      </c>
+      <c r="B299">
         <f>0.2083/3.6</f>
         <v>5.7861111111111113E-2</v>
       </c>
       <c r="C299" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E299" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F299" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G299" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H299" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="300" spans="1:8">
-      <c r="A300" t="s">
-        <v>172</v>
-      </c>
-      <c r="B300" s="7">
+      <c r="B300">
         <v>2.6200000000000001E-2</v>
       </c>
       <c r="C300" t="s">
@@ -5512,18 +5510,18 @@
         <v>5</v>
       </c>
       <c r="F300" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G300" t="s">
+        <v>172</v>
+      </c>
+      <c r="H300" s="5"/>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
         <v>173</v>
       </c>
-      <c r="H300" s="6"/>
-    </row>
-    <row r="301" spans="1:8">
-      <c r="A301" t="s">
-        <v>174</v>
-      </c>
-      <c r="B301" s="7">
+      <c r="B301">
         <v>1.2</v>
       </c>
       <c r="C301" t="s">
@@ -5533,102 +5531,102 @@
         <v>5</v>
       </c>
       <c r="F301" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G301" t="s">
+        <v>174</v>
+      </c>
+      <c r="H301" s="5"/>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
         <v>175</v>
       </c>
-      <c r="H301" s="6"/>
-    </row>
-    <row r="302" spans="1:8">
-      <c r="A302" t="s">
+      <c r="B302">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="C302" t="s">
+        <v>9</v>
+      </c>
+      <c r="E302" t="s">
+        <v>48</v>
+      </c>
+      <c r="F302" t="s">
+        <v>27</v>
+      </c>
+      <c r="G302" t="s">
         <v>176</v>
       </c>
-      <c r="B302" s="7">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="C302" t="s">
-        <v>9</v>
-      </c>
-      <c r="E302" t="s">
-        <v>49</v>
-      </c>
-      <c r="F302" t="s">
-        <v>28</v>
-      </c>
-      <c r="G302" t="s">
+      <c r="H302" s="5"/>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
         <v>177</v>
       </c>
-      <c r="H302" s="6"/>
-    </row>
-    <row r="303" spans="1:8">
-      <c r="A303" t="s">
+      <c r="B303">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="C303" t="s">
+        <v>9</v>
+      </c>
+      <c r="E303" t="s">
+        <v>48</v>
+      </c>
+      <c r="F303" t="s">
+        <v>27</v>
+      </c>
+      <c r="G303" t="s">
         <v>178</v>
       </c>
-      <c r="B303" s="7">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="C303" t="s">
-        <v>9</v>
-      </c>
-      <c r="E303" t="s">
-        <v>49</v>
-      </c>
-      <c r="F303" t="s">
-        <v>28</v>
-      </c>
-      <c r="G303" t="s">
+      <c r="H303" s="5"/>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
         <v>179</v>
       </c>
-      <c r="H303" s="6"/>
-    </row>
-    <row r="304" spans="1:8">
-      <c r="A304" t="s">
+      <c r="B304">
+        <v>0.193</v>
+      </c>
+      <c r="C304" t="s">
+        <v>69</v>
+      </c>
+      <c r="E304" t="s">
+        <v>63</v>
+      </c>
+      <c r="F304" t="s">
+        <v>27</v>
+      </c>
+      <c r="G304" t="s">
+        <v>68</v>
+      </c>
+      <c r="H304" s="5"/>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
         <v>180</v>
       </c>
-      <c r="B304" s="7">
-        <v>0.193</v>
-      </c>
-      <c r="C304" t="s">
-        <v>70</v>
-      </c>
-      <c r="E304" t="s">
-        <v>64</v>
-      </c>
-      <c r="F304" t="s">
-        <v>28</v>
-      </c>
-      <c r="G304" t="s">
-        <v>69</v>
-      </c>
-      <c r="H304" s="6"/>
-    </row>
-    <row r="305" spans="1:8">
-      <c r="A305" t="s">
+      <c r="B305">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="C305" t="s">
+        <v>9</v>
+      </c>
+      <c r="E305" t="s">
+        <v>48</v>
+      </c>
+      <c r="F305" t="s">
+        <v>27</v>
+      </c>
+      <c r="G305" t="s">
         <v>181</v>
       </c>
-      <c r="B305" s="7">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="C305" t="s">
-        <v>9</v>
-      </c>
-      <c r="E305" t="s">
-        <v>49</v>
-      </c>
-      <c r="F305" t="s">
-        <v>28</v>
-      </c>
-      <c r="G305" t="s">
-        <v>182</v>
-      </c>
-      <c r="H305" s="6"/>
-    </row>
-    <row r="306" spans="1:8">
+      <c r="H305" s="5"/>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>26</v>
-      </c>
-      <c r="B306" s="7">
+        <v>25</v>
+      </c>
+      <c r="B306">
         <v>0.192</v>
       </c>
       <c r="C306" t="s">
@@ -5638,158 +5636,158 @@
         <v>5</v>
       </c>
       <c r="F306" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G306" t="s">
+        <v>182</v>
+      </c>
+      <c r="H306" s="5"/>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
         <v>183</v>
       </c>
-      <c r="H306" s="6"/>
-    </row>
-    <row r="307" spans="1:8">
-      <c r="A307" t="s">
-        <v>184</v>
-      </c>
-      <c r="B307" s="7">
+      <c r="B307">
         <v>4.0000000000000001E-10</v>
       </c>
       <c r="C307" t="s">
         <v>8</v>
       </c>
       <c r="E307" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F307" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G307" t="s">
+        <v>184</v>
+      </c>
+      <c r="H307" s="5"/>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>87</v>
+      </c>
+      <c r="B308">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="C308" t="s">
+        <v>88</v>
+      </c>
+      <c r="E308" t="s">
+        <v>63</v>
+      </c>
+      <c r="F308" t="s">
+        <v>27</v>
+      </c>
+      <c r="G308" t="s">
+        <v>89</v>
+      </c>
+      <c r="H308" s="5"/>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>90</v>
+      </c>
+      <c r="B309">
+        <v>9.8400000000000001E-2</v>
+      </c>
+      <c r="C309" t="s">
+        <v>88</v>
+      </c>
+      <c r="E309" t="s">
+        <v>48</v>
+      </c>
+      <c r="F309" t="s">
+        <v>27</v>
+      </c>
+      <c r="G309" t="s">
+        <v>91</v>
+      </c>
+      <c r="H309" s="5"/>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
         <v>185</v>
       </c>
-      <c r="H307" s="6"/>
-    </row>
-    <row r="308" spans="1:8">
-      <c r="A308" t="s">
-        <v>88</v>
-      </c>
-      <c r="B308" s="7">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="C308" t="s">
-        <v>89</v>
-      </c>
-      <c r="E308" t="s">
-        <v>64</v>
-      </c>
-      <c r="F308" t="s">
-        <v>28</v>
-      </c>
-      <c r="G308" t="s">
-        <v>90</v>
-      </c>
-      <c r="H308" s="6"/>
-    </row>
-    <row r="309" spans="1:8">
-      <c r="A309" t="s">
-        <v>91</v>
-      </c>
-      <c r="B309" s="7">
-        <v>9.8400000000000001E-2</v>
-      </c>
-      <c r="C309" t="s">
-        <v>89</v>
-      </c>
-      <c r="E309" t="s">
-        <v>49</v>
-      </c>
-      <c r="F309" t="s">
-        <v>28</v>
-      </c>
-      <c r="G309" t="s">
+      <c r="B310">
+        <v>-5.3900000000000003E-2</v>
+      </c>
+      <c r="C310" t="s">
+        <v>9</v>
+      </c>
+      <c r="E310" t="s">
         <v>92</v>
       </c>
-      <c r="H309" s="6"/>
-    </row>
-    <row r="310" spans="1:8">
-      <c r="A310" t="s">
+      <c r="F310" t="s">
+        <v>27</v>
+      </c>
+      <c r="G310" t="s">
         <v>186</v>
       </c>
-      <c r="B310" s="7">
-        <v>-5.3900000000000003E-2</v>
-      </c>
-      <c r="C310" t="s">
-        <v>9</v>
-      </c>
-      <c r="E310" t="s">
-        <v>93</v>
-      </c>
-      <c r="F310" t="s">
-        <v>28</v>
-      </c>
-      <c r="G310" t="s">
+      <c r="H310" s="5"/>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
         <v>187</v>
       </c>
-      <c r="H310" s="6"/>
-    </row>
-    <row r="311" spans="1:8">
-      <c r="A311" t="s">
+      <c r="B311">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="C311" t="s">
+        <v>69</v>
+      </c>
+      <c r="D311" t="s">
         <v>188</v>
       </c>
-      <c r="B311" s="7">
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="C311" t="s">
-        <v>70</v>
-      </c>
-      <c r="D311" t="s">
+      <c r="F311" t="s">
+        <v>103</v>
+      </c>
+      <c r="H311" s="5"/>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
         <v>189</v>
       </c>
-      <c r="F311" t="s">
-        <v>104</v>
-      </c>
-      <c r="H311" s="6"/>
-    </row>
-    <row r="312" spans="1:8">
-      <c r="A312" t="s">
+      <c r="B312">
+        <v>1.44E-2</v>
+      </c>
+      <c r="C312" t="s">
+        <v>9</v>
+      </c>
+      <c r="D312" t="s">
+        <v>188</v>
+      </c>
+      <c r="F312" t="s">
+        <v>103</v>
+      </c>
+      <c r="H312" s="5"/>
+    </row>
+    <row r="315" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A315" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B315" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B312" s="7">
-        <v>1.44E-2</v>
-      </c>
-      <c r="C312" t="s">
-        <v>9</v>
-      </c>
-      <c r="D312" t="s">
-        <v>189</v>
-      </c>
-      <c r="F312" t="s">
-        <v>104</v>
-      </c>
-      <c r="H312" s="6"/>
-    </row>
-    <row r="315" spans="1:8" ht="15.75">
-      <c r="A315" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B315" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8">
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>3</v>
       </c>
       <c r="B316" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>4</v>
       </c>
       <c r="B317" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>6</v>
       </c>
@@ -5797,15 +5795,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>7</v>
       </c>
       <c r="B319" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>8</v>
       </c>
@@ -5813,7 +5811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>10</v>
       </c>
@@ -5821,7 +5819,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>11</v>
       </c>
@@ -5832,7 +5830,7 @@
       <c r="F322" s="1"/>
       <c r="G322" s="1"/>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>12</v>
       </c>
@@ -5858,7 +5856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" t="str">
         <f>B315</f>
         <v>BMS production, for Li-O2 battery</v>
@@ -5875,18 +5873,18 @@
         <v>RER</v>
       </c>
       <c r="F324" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G324" t="str">
         <f>B319</f>
         <v>BMS</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>169</v>
-      </c>
-      <c r="B325" s="4">
+        <v>168</v>
+      </c>
+      <c r="B325" s="3">
         <v>8.8999999999999996E-2</v>
       </c>
       <c r="C325" t="s">
@@ -5896,157 +5894,157 @@
         <v>5</v>
       </c>
       <c r="F325" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G325" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
+        <v>195</v>
+      </c>
+      <c r="B326" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="C326" t="s">
+        <v>9</v>
+      </c>
+      <c r="E326" t="s">
+        <v>48</v>
+      </c>
+      <c r="F326" t="s">
+        <v>27</v>
+      </c>
+      <c r="G326" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
         <v>196</v>
       </c>
-      <c r="B326" s="4">
-        <v>0.48</v>
-      </c>
-      <c r="C326" t="s">
-        <v>9</v>
-      </c>
-      <c r="E326" t="s">
-        <v>49</v>
-      </c>
-      <c r="F326" t="s">
-        <v>28</v>
-      </c>
-      <c r="G326" t="s">
+      <c r="B327" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C327" t="s">
+        <v>9</v>
+      </c>
+      <c r="E327" t="s">
+        <v>48</v>
+      </c>
+      <c r="F327" t="s">
+        <v>27</v>
+      </c>
+      <c r="G327" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
-      <c r="A327" t="s">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
         <v>197</v>
       </c>
-      <c r="B327" s="4">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C327" t="s">
-        <v>9</v>
-      </c>
-      <c r="E327" t="s">
-        <v>49</v>
-      </c>
-      <c r="F327" t="s">
-        <v>28</v>
-      </c>
-      <c r="G327" t="s">
+      <c r="B328" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C328" t="s">
+        <v>9</v>
+      </c>
+      <c r="E328" t="s">
+        <v>48</v>
+      </c>
+      <c r="F328" t="s">
+        <v>27</v>
+      </c>
+      <c r="G328" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
-      <c r="A328" t="s">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
         <v>198</v>
       </c>
-      <c r="B328" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="C328" t="s">
-        <v>9</v>
-      </c>
-      <c r="E328" t="s">
-        <v>49</v>
-      </c>
-      <c r="F328" t="s">
-        <v>28</v>
-      </c>
-      <c r="G328" t="s">
+      <c r="B329" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="C329" t="s">
+        <v>9</v>
+      </c>
+      <c r="E329" t="s">
+        <v>48</v>
+      </c>
+      <c r="F329" t="s">
+        <v>27</v>
+      </c>
+      <c r="G329" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
-      <c r="A329" t="s">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
         <v>199</v>
       </c>
-      <c r="B329" s="4">
-        <v>0.13</v>
-      </c>
-      <c r="C329" t="s">
-        <v>9</v>
-      </c>
-      <c r="E329" t="s">
-        <v>49</v>
-      </c>
-      <c r="F329" t="s">
-        <v>28</v>
-      </c>
-      <c r="G329" t="s">
+      <c r="B330" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C330" t="s">
+        <v>88</v>
+      </c>
+      <c r="E330" t="s">
+        <v>48</v>
+      </c>
+      <c r="F330" t="s">
+        <v>27</v>
+      </c>
+      <c r="G330" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>87</v>
+      </c>
+      <c r="B331" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C331" t="s">
+        <v>88</v>
+      </c>
+      <c r="E331" t="s">
+        <v>63</v>
+      </c>
+      <c r="F331" t="s">
+        <v>27</v>
+      </c>
+      <c r="G331" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A333" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B333" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
-      <c r="A330" t="s">
-        <v>200</v>
-      </c>
-      <c r="B330" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C330" t="s">
-        <v>89</v>
-      </c>
-      <c r="E330" t="s">
-        <v>49</v>
-      </c>
-      <c r="F330" t="s">
-        <v>28</v>
-      </c>
-      <c r="G330" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8">
-      <c r="A331" t="s">
-        <v>88</v>
-      </c>
-      <c r="B331" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="C331" t="s">
-        <v>89</v>
-      </c>
-      <c r="E331" t="s">
-        <v>64</v>
-      </c>
-      <c r="F331" t="s">
-        <v>28</v>
-      </c>
-      <c r="G331" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8" ht="15.75">
-      <c r="A333" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B333" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>3</v>
       </c>
       <c r="B334" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>4</v>
       </c>
       <c r="B335" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>6</v>
       </c>
@@ -6054,15 +6052,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>7</v>
       </c>
       <c r="B337" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>8</v>
       </c>
@@ -6070,7 +6068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>10</v>
       </c>
@@ -6078,7 +6076,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>11</v>
       </c>
@@ -6089,7 +6087,7 @@
       <c r="F340" s="1"/>
       <c r="G340" s="1"/>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>12</v>
       </c>
@@ -6115,7 +6113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342" t="str">
         <f>B333</f>
         <v>IBIS production, for Li-O2 battery</v>
@@ -6132,38 +6130,38 @@
         <v>RER</v>
       </c>
       <c r="F342" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G342" t="str">
         <f>B337</f>
         <v>IBIS</v>
       </c>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>201</v>
-      </c>
-      <c r="B343" s="4">
+        <v>200</v>
+      </c>
+      <c r="B343" s="3">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="C343" t="s">
         <v>9</v>
       </c>
       <c r="E343" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F343" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G343" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>169</v>
-      </c>
-      <c r="B344" s="4">
+        <v>168</v>
+      </c>
+      <c r="B344" s="3">
         <v>0.11</v>
       </c>
       <c r="C344" t="s">
@@ -6173,17 +6171,17 @@
         <v>5</v>
       </c>
       <c r="F344" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G344" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>202</v>
-      </c>
-      <c r="B345" s="4">
+        <v>201</v>
+      </c>
+      <c r="B345" s="3">
         <v>1.7E-5</v>
       </c>
       <c r="C345" t="s">
@@ -6193,17 +6191,17 @@
         <v>5</v>
       </c>
       <c r="F345" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G345" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>145</v>
-      </c>
-      <c r="B346" s="4">
+        <v>144</v>
+      </c>
+      <c r="B346" s="3">
         <v>0.85</v>
       </c>
       <c r="C346" t="s">
@@ -6213,17 +6211,17 @@
         <v>5</v>
       </c>
       <c r="F346" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G346" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>204</v>
-      </c>
-      <c r="B347" s="4">
+        <v>203</v>
+      </c>
+      <c r="B347" s="3">
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="C347" t="s">
@@ -6233,177 +6231,177 @@
         <v>5</v>
       </c>
       <c r="F347" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G347" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="348" spans="1:8">
-      <c r="A348" t="s">
+      <c r="B348" s="3">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="C348" t="s">
+        <v>9</v>
+      </c>
+      <c r="E348" t="s">
+        <v>48</v>
+      </c>
+      <c r="F348" t="s">
+        <v>27</v>
+      </c>
+      <c r="G348" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
         <v>206</v>
       </c>
-      <c r="B348" s="4">
-        <v>6.7999999999999996E-3</v>
-      </c>
-      <c r="C348" t="s">
-        <v>9</v>
-      </c>
-      <c r="E348" t="s">
-        <v>49</v>
-      </c>
-      <c r="F348" t="s">
-        <v>28</v>
-      </c>
-      <c r="G348" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8">
-      <c r="A349" t="s">
+      <c r="B349" s="3">
+        <v>1.9E-3</v>
+      </c>
+      <c r="C349" t="s">
+        <v>9</v>
+      </c>
+      <c r="E349" t="s">
+        <v>48</v>
+      </c>
+      <c r="F349" t="s">
+        <v>27</v>
+      </c>
+      <c r="G349" t="s">
         <v>207</v>
       </c>
-      <c r="B349" s="4">
-        <v>1.9E-3</v>
-      </c>
-      <c r="C349" t="s">
-        <v>9</v>
-      </c>
-      <c r="E349" t="s">
-        <v>49</v>
-      </c>
-      <c r="F349" t="s">
-        <v>28</v>
-      </c>
-      <c r="G349" t="s">
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="350" spans="1:8">
-      <c r="A350" t="s">
+      <c r="B350" s="3">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="C350" t="s">
+        <v>9</v>
+      </c>
+      <c r="E350" t="s">
+        <v>92</v>
+      </c>
+      <c r="F350" t="s">
+        <v>27</v>
+      </c>
+      <c r="G350" t="s">
         <v>209</v>
       </c>
-      <c r="B350" s="4">
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>210</v>
+      </c>
+      <c r="B351" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="C351" t="s">
+        <v>9</v>
+      </c>
+      <c r="E351" t="s">
+        <v>48</v>
+      </c>
+      <c r="F351" t="s">
+        <v>27</v>
+      </c>
+      <c r="G351" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>136</v>
+      </c>
+      <c r="B352" s="3">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="C352" t="s">
+        <v>9</v>
+      </c>
+      <c r="E352" t="s">
+        <v>48</v>
+      </c>
+      <c r="F352" t="s">
+        <v>27</v>
+      </c>
+      <c r="G352" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>211</v>
+      </c>
+      <c r="B353" s="3">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="C350" t="s">
-        <v>9</v>
-      </c>
-      <c r="E350" t="s">
-        <v>93</v>
-      </c>
-      <c r="F350" t="s">
-        <v>28</v>
-      </c>
-      <c r="G350" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="351" spans="1:8">
-      <c r="A351" t="s">
+      <c r="C353" t="s">
+        <v>9</v>
+      </c>
+      <c r="E353" t="s">
+        <v>92</v>
+      </c>
+      <c r="F353" t="s">
+        <v>27</v>
+      </c>
+      <c r="G353" t="s">
         <v>211</v>
       </c>
-      <c r="B351" s="4">
-        <v>0.85</v>
-      </c>
-      <c r="C351" t="s">
-        <v>9</v>
-      </c>
-      <c r="E351" t="s">
-        <v>49</v>
-      </c>
-      <c r="F351" t="s">
-        <v>28</v>
-      </c>
-      <c r="G351" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="352" spans="1:8">
-      <c r="A352" t="s">
-        <v>137</v>
-      </c>
-      <c r="B352" s="4">
-        <v>8.8000000000000005E-3</v>
-      </c>
-      <c r="C352" t="s">
-        <v>9</v>
-      </c>
-      <c r="E352" t="s">
-        <v>49</v>
-      </c>
-      <c r="F352" t="s">
-        <v>28</v>
-      </c>
-      <c r="G352" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="353" spans="1:8">
-      <c r="A353" t="s">
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>199</v>
+      </c>
+      <c r="B354" s="3">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="C354" t="s">
+        <v>88</v>
+      </c>
+      <c r="E354" t="s">
+        <v>48</v>
+      </c>
+      <c r="F354" t="s">
+        <v>27</v>
+      </c>
+      <c r="G354" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>87</v>
+      </c>
+      <c r="B355" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="C355" t="s">
+        <v>88</v>
+      </c>
+      <c r="E355" t="s">
+        <v>63</v>
+      </c>
+      <c r="F355" t="s">
+        <v>27</v>
+      </c>
+      <c r="G355" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
         <v>212</v>
       </c>
-      <c r="B353" s="4">
-        <v>5.7000000000000002E-3</v>
-      </c>
-      <c r="C353" t="s">
-        <v>9</v>
-      </c>
-      <c r="E353" t="s">
-        <v>93</v>
-      </c>
-      <c r="F353" t="s">
-        <v>28</v>
-      </c>
-      <c r="G353" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="354" spans="1:8">
-      <c r="A354" t="s">
-        <v>200</v>
-      </c>
-      <c r="B354" s="4">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="C354" t="s">
-        <v>89</v>
-      </c>
-      <c r="E354" t="s">
-        <v>49</v>
-      </c>
-      <c r="F354" t="s">
-        <v>28</v>
-      </c>
-      <c r="G354" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8">
-      <c r="A355" t="s">
-        <v>88</v>
-      </c>
-      <c r="B355" s="4">
-        <v>0.17</v>
-      </c>
-      <c r="C355" t="s">
-        <v>89</v>
-      </c>
-      <c r="E355" t="s">
-        <v>64</v>
-      </c>
-      <c r="F355" t="s">
-        <v>28</v>
-      </c>
-      <c r="G355" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="356" spans="1:8">
-      <c r="A356" t="s">
-        <v>213</v>
-      </c>
-      <c r="B356" s="4">
+      <c r="B356" s="3">
         <v>2E-8</v>
       </c>
       <c r="C356" t="s">
@@ -6413,37 +6411,37 @@
         <v>5</v>
       </c>
       <c r="F356" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G356" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="358" spans="1:8" ht="15.75">
-      <c r="A358" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A358" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="359" spans="1:8">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>3</v>
       </c>
       <c r="B359" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="360" spans="1:8">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>4</v>
       </c>
       <c r="B360" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="361" spans="1:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>6</v>
       </c>
@@ -6451,15 +6449,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:8">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>7</v>
       </c>
       <c r="B362" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="363" spans="1:8">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>8</v>
       </c>
@@ -6467,7 +6465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="364" spans="1:8">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>10</v>
       </c>
@@ -6475,7 +6473,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="365" spans="1:8">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>11</v>
       </c>
@@ -6486,7 +6484,7 @@
       <c r="F365" s="1"/>
       <c r="G365" s="1"/>
     </row>
-    <row r="366" spans="1:8">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>12</v>
       </c>
@@ -6512,7 +6510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:8">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367" t="str">
         <f>B358</f>
         <v>IBIS fasteners production, for Li-O2 battery</v>
@@ -6529,18 +6527,18 @@
         <v>RER</v>
       </c>
       <c r="F367" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G367" t="str">
         <f>B362</f>
         <v>IBIS fasteners</v>
       </c>
     </row>
-    <row r="368" spans="1:8">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>145</v>
-      </c>
-      <c r="B368" s="4">
+        <v>144</v>
+      </c>
+      <c r="B368" s="3">
         <v>1</v>
       </c>
       <c r="C368" t="s">
@@ -6550,120 +6548,120 @@
         <v>5</v>
       </c>
       <c r="F368" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G368" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H368" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>210</v>
+      </c>
+      <c r="B369" s="3">
+        <v>1</v>
+      </c>
+      <c r="C369" t="s">
+        <v>9</v>
+      </c>
+      <c r="E369" t="s">
+        <v>48</v>
+      </c>
+      <c r="F369" t="s">
+        <v>27</v>
+      </c>
+      <c r="G369" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>199</v>
+      </c>
+      <c r="B370" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C370" t="s">
+        <v>88</v>
+      </c>
+      <c r="E370" t="s">
+        <v>48</v>
+      </c>
+      <c r="F370" t="s">
+        <v>27</v>
+      </c>
+      <c r="G370" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>87</v>
+      </c>
+      <c r="B371" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C371" t="s">
+        <v>88</v>
+      </c>
+      <c r="E371" t="s">
+        <v>63</v>
+      </c>
+      <c r="F371" t="s">
+        <v>27</v>
+      </c>
+      <c r="G371" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="369" spans="1:8">
-      <c r="A369" t="s">
-        <v>211</v>
-      </c>
-      <c r="B369" s="4">
-        <v>1</v>
-      </c>
-      <c r="C369" t="s">
-        <v>9</v>
-      </c>
-      <c r="E369" t="s">
-        <v>49</v>
-      </c>
-      <c r="F369" t="s">
-        <v>28</v>
-      </c>
-      <c r="G369" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="370" spans="1:8">
-      <c r="A370" t="s">
-        <v>200</v>
-      </c>
-      <c r="B370" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C370" t="s">
-        <v>89</v>
-      </c>
-      <c r="E370" t="s">
-        <v>49</v>
-      </c>
-      <c r="F370" t="s">
-        <v>28</v>
-      </c>
-      <c r="G370" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="371" spans="1:8">
-      <c r="A371" t="s">
-        <v>88</v>
-      </c>
-      <c r="B371" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="C371" t="s">
-        <v>89</v>
-      </c>
-      <c r="E371" t="s">
-        <v>64</v>
-      </c>
-      <c r="F371" t="s">
-        <v>28</v>
-      </c>
-      <c r="G371" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="372" spans="1:8">
-      <c r="A372" t="s">
-        <v>217</v>
-      </c>
-      <c r="B372" s="4">
+      <c r="B372" s="3">
         <v>4.6000000000000001E-10</v>
       </c>
       <c r="C372" t="s">
         <v>8</v>
       </c>
       <c r="E372" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F372" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G372" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="375" spans="1:8" ht="15.75">
-      <c r="A375" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A375" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="376" spans="1:8">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>3</v>
       </c>
       <c r="B376" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="377" spans="1:8">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>4</v>
       </c>
       <c r="B377" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="378" spans="1:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>6</v>
       </c>
@@ -6671,15 +6669,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:8">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>7</v>
       </c>
       <c r="B379" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="380" spans="1:8">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>8</v>
       </c>
@@ -6687,7 +6685,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="381" spans="1:8">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>10</v>
       </c>
@@ -6695,7 +6693,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="382" spans="1:8">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>11</v>
       </c>
@@ -6706,7 +6704,7 @@
       <c r="F382" s="1"/>
       <c r="G382" s="1"/>
     </row>
-    <row r="383" spans="1:8">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
         <v>12</v>
       </c>
@@ -6732,7 +6730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="384" spans="1:8">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A384" t="str">
         <f>B375</f>
         <v>high voltage system production, for Li-O2 battery</v>
@@ -6749,18 +6747,18 @@
         <v>RER</v>
       </c>
       <c r="F384" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G384" t="str">
         <f>B379</f>
         <v>high voltage system</v>
       </c>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>145</v>
-      </c>
-      <c r="B385" s="4">
+        <v>144</v>
+      </c>
+      <c r="B385" s="3">
         <v>1.4E-3</v>
       </c>
       <c r="C385" t="s">
@@ -6770,97 +6768,97 @@
         <v>5</v>
       </c>
       <c r="F385" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G385" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="386" spans="1:7">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
+        <v>217</v>
+      </c>
+      <c r="B386" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="C386" t="s">
+        <v>9</v>
+      </c>
+      <c r="E386" t="s">
+        <v>63</v>
+      </c>
+      <c r="F386" t="s">
+        <v>27</v>
+      </c>
+      <c r="G386" t="s">
         <v>218</v>
       </c>
-      <c r="B386" s="4">
-        <v>0.12</v>
-      </c>
-      <c r="C386" t="s">
-        <v>9</v>
-      </c>
-      <c r="E386" t="s">
-        <v>64</v>
-      </c>
-      <c r="F386" t="s">
-        <v>28</v>
-      </c>
-      <c r="G386" t="s">
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="387" spans="1:7">
-      <c r="A387" t="s">
+      <c r="B387" s="3">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="C387" t="s">
+        <v>9</v>
+      </c>
+      <c r="E387" t="s">
+        <v>48</v>
+      </c>
+      <c r="F387" t="s">
+        <v>27</v>
+      </c>
+      <c r="G387" t="s">
         <v>220</v>
       </c>
-      <c r="B387" s="4">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="C387" t="s">
-        <v>9</v>
-      </c>
-      <c r="E387" t="s">
-        <v>49</v>
-      </c>
-      <c r="F387" t="s">
-        <v>28</v>
-      </c>
-      <c r="G387" t="s">
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="388" spans="1:7">
-      <c r="A388" t="s">
+      <c r="B388" s="3">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="C388" t="s">
+        <v>9</v>
+      </c>
+      <c r="E388" t="s">
+        <v>48</v>
+      </c>
+      <c r="F388" t="s">
+        <v>27</v>
+      </c>
+      <c r="G388" t="s">
         <v>222</v>
       </c>
-      <c r="B388" s="4">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="C388" t="s">
-        <v>9</v>
-      </c>
-      <c r="E388" t="s">
-        <v>49</v>
-      </c>
-      <c r="F388" t="s">
-        <v>28</v>
-      </c>
-      <c r="G388" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="389" spans="1:7">
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>206</v>
-      </c>
-      <c r="B389" s="4">
+        <v>205</v>
+      </c>
+      <c r="B389" s="3">
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="C389" t="s">
         <v>9</v>
       </c>
       <c r="E389" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F389" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G389" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="390" spans="1:7">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>117</v>
-      </c>
-      <c r="B390" s="4">
+        <v>116</v>
+      </c>
+      <c r="B390" s="3">
         <v>0.23</v>
       </c>
       <c r="C390" t="s">
@@ -6870,37 +6868,37 @@
         <v>5</v>
       </c>
       <c r="F390" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G390" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="391" spans="1:7">
-      <c r="A391" t="s">
+      <c r="B391" s="3">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="C391" t="s">
+        <v>9</v>
+      </c>
+      <c r="E391" t="s">
+        <v>63</v>
+      </c>
+      <c r="F391" t="s">
+        <v>27</v>
+      </c>
+      <c r="G391" t="s">
         <v>119</v>
       </c>
-      <c r="B391" s="4">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="C391" t="s">
-        <v>9</v>
-      </c>
-      <c r="E391" t="s">
-        <v>64</v>
-      </c>
-      <c r="F391" t="s">
-        <v>28</v>
-      </c>
-      <c r="G391" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="392" spans="1:7">
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>224</v>
-      </c>
-      <c r="B392" s="4">
+        <v>223</v>
+      </c>
+      <c r="B392" s="3">
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="C392" t="s">
@@ -6910,17 +6908,17 @@
         <v>5</v>
       </c>
       <c r="F392" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G392" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="393" spans="1:7">
-      <c r="A393" t="s">
-        <v>226</v>
-      </c>
-      <c r="B393" s="4">
+      <c r="B393" s="3">
         <v>1.6E-2</v>
       </c>
       <c r="C393" t="s">
@@ -6930,17 +6928,17 @@
         <v>5</v>
       </c>
       <c r="F393" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G393" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="394" spans="1:7">
-      <c r="A394" t="s">
-        <v>228</v>
-      </c>
-      <c r="B394" s="4">
+      <c r="B394" s="3">
         <v>0.45</v>
       </c>
       <c r="C394" t="s">
@@ -6950,157 +6948,157 @@
         <v>5</v>
       </c>
       <c r="F394" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G394" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>210</v>
+      </c>
+      <c r="B395" s="3">
+        <v>1.4E-3</v>
+      </c>
+      <c r="C395" t="s">
+        <v>9</v>
+      </c>
+      <c r="E395" t="s">
+        <v>48</v>
+      </c>
+      <c r="F395" t="s">
+        <v>27</v>
+      </c>
+      <c r="G395" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>230</v>
+      </c>
+      <c r="B396" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="C396" t="s">
+        <v>9</v>
+      </c>
+      <c r="E396" t="s">
+        <v>48</v>
+      </c>
+      <c r="F396" t="s">
+        <v>27</v>
+      </c>
+      <c r="G396" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>231</v>
+      </c>
+      <c r="B397" s="3">
+        <v>0.27</v>
+      </c>
+      <c r="C397" t="s">
+        <v>9</v>
+      </c>
+      <c r="E397" t="s">
+        <v>48</v>
+      </c>
+      <c r="F397" t="s">
+        <v>27</v>
+      </c>
+      <c r="G397" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="395" spans="1:7">
-      <c r="A395" t="s">
-        <v>211</v>
-      </c>
-      <c r="B395" s="4">
-        <v>1.4E-3</v>
-      </c>
-      <c r="C395" t="s">
-        <v>9</v>
-      </c>
-      <c r="E395" t="s">
-        <v>49</v>
-      </c>
-      <c r="F395" t="s">
-        <v>28</v>
-      </c>
-      <c r="G395" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="396" spans="1:7">
-      <c r="A396" t="s">
-        <v>231</v>
-      </c>
-      <c r="B396" s="4">
-        <v>0.12</v>
-      </c>
-      <c r="C396" t="s">
-        <v>9</v>
-      </c>
-      <c r="E396" t="s">
-        <v>49</v>
-      </c>
-      <c r="F396" t="s">
-        <v>28</v>
-      </c>
-      <c r="G396" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="397" spans="1:7">
-      <c r="A397" t="s">
-        <v>232</v>
-      </c>
-      <c r="B397" s="4">
-        <v>0.27</v>
-      </c>
-      <c r="C397" t="s">
-        <v>9</v>
-      </c>
-      <c r="E397" t="s">
-        <v>49</v>
-      </c>
-      <c r="F397" t="s">
-        <v>28</v>
-      </c>
-      <c r="G397" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="398" spans="1:7">
-      <c r="A398" t="s">
-        <v>230</v>
-      </c>
-      <c r="B398" s="4">
+      <c r="B398" s="3">
         <v>1.6E-2</v>
       </c>
       <c r="C398" t="s">
         <v>9</v>
       </c>
       <c r="E398" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F398" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G398" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="399" spans="1:7">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>137</v>
-      </c>
-      <c r="B399" s="4">
+        <v>136</v>
+      </c>
+      <c r="B399" s="3">
         <v>0.14000000000000001</v>
       </c>
       <c r="C399" t="s">
         <v>9</v>
       </c>
       <c r="E399" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F399" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G399" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="400" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>200</v>
-      </c>
-      <c r="B400" s="4">
+        <v>199</v>
+      </c>
+      <c r="B400" s="3">
         <v>0.11</v>
       </c>
       <c r="C400" t="s">
+        <v>88</v>
+      </c>
+      <c r="E400" t="s">
+        <v>48</v>
+      </c>
+      <c r="F400" t="s">
+        <v>27</v>
+      </c>
+      <c r="G400" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>87</v>
+      </c>
+      <c r="B401" s="3">
+        <v>5.5E-2</v>
+      </c>
+      <c r="C401" t="s">
+        <v>88</v>
+      </c>
+      <c r="E401" t="s">
+        <v>63</v>
+      </c>
+      <c r="F401" t="s">
+        <v>27</v>
+      </c>
+      <c r="G401" t="s">
         <v>89</v>
       </c>
-      <c r="E400" t="s">
-        <v>49</v>
-      </c>
-      <c r="F400" t="s">
-        <v>28</v>
-      </c>
-      <c r="G400" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="401" spans="1:8">
-      <c r="A401" t="s">
-        <v>88</v>
-      </c>
-      <c r="B401" s="4">
-        <v>5.5E-2</v>
-      </c>
-      <c r="C401" t="s">
-        <v>89</v>
-      </c>
-      <c r="E401" t="s">
-        <v>64</v>
-      </c>
-      <c r="F401" t="s">
-        <v>28</v>
-      </c>
-      <c r="G401" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="402" spans="1:8">
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>213</v>
-      </c>
-      <c r="B402" s="4">
+        <v>212</v>
+      </c>
+      <c r="B402" s="3">
         <v>2E-8</v>
       </c>
       <c r="C402" t="s">
@@ -7110,37 +7108,37 @@
         <v>5</v>
       </c>
       <c r="F402" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G402" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="404" spans="1:8" ht="15.75">
-      <c r="A404" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A404" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="405" spans="1:8">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>3</v>
       </c>
       <c r="B405" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="406" spans="1:8">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>4</v>
       </c>
       <c r="B406" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="407" spans="1:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>6</v>
       </c>
@@ -7148,15 +7146,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:8">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>7</v>
       </c>
       <c r="B408" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="409" spans="1:8">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>8</v>
       </c>
@@ -7164,7 +7162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>10</v>
       </c>
@@ -7172,7 +7170,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="411" spans="1:8">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
         <v>11</v>
       </c>
@@ -7183,7 +7181,7 @@
       <c r="F411" s="1"/>
       <c r="G411" s="1"/>
     </row>
-    <row r="412" spans="1:8">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
         <v>12</v>
       </c>
@@ -7209,7 +7207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:8">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A413" t="str">
         <f>B404</f>
         <v>low voltage system production, for Li-O2 battery</v>
@@ -7226,38 +7224,38 @@
         <v>RER</v>
       </c>
       <c r="F413" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G413" t="str">
         <f>B408</f>
         <v>low voltage system</v>
       </c>
     </row>
-    <row r="414" spans="1:8">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
+        <v>219</v>
+      </c>
+      <c r="B414" s="3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C414" t="s">
+        <v>9</v>
+      </c>
+      <c r="E414" t="s">
+        <v>48</v>
+      </c>
+      <c r="F414" t="s">
+        <v>27</v>
+      </c>
+      <c r="G414" t="s">
         <v>220</v>
       </c>
-      <c r="B414" s="4">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="C414" t="s">
-        <v>9</v>
-      </c>
-      <c r="E414" t="s">
-        <v>49</v>
-      </c>
-      <c r="F414" t="s">
-        <v>28</v>
-      </c>
-      <c r="G414" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="415" spans="1:8">
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>233</v>
-      </c>
-      <c r="B415" s="4">
+        <v>232</v>
+      </c>
+      <c r="B415" s="3">
         <v>0.97</v>
       </c>
       <c r="C415" t="s">
@@ -7267,77 +7265,77 @@
         <v>5</v>
       </c>
       <c r="F415" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G415" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="416" spans="1:8">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>137</v>
-      </c>
-      <c r="B416" s="4">
+        <v>136</v>
+      </c>
+      <c r="B416" s="3">
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="C416" t="s">
         <v>9</v>
       </c>
       <c r="E416" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F416" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G416" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="417" spans="1:8">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>200</v>
-      </c>
-      <c r="B417" s="4">
+        <v>199</v>
+      </c>
+      <c r="B417" s="3">
         <v>0.11</v>
       </c>
       <c r="C417" t="s">
+        <v>88</v>
+      </c>
+      <c r="E417" t="s">
+        <v>48</v>
+      </c>
+      <c r="F417" t="s">
+        <v>27</v>
+      </c>
+      <c r="G417" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>87</v>
+      </c>
+      <c r="B418" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C418" t="s">
+        <v>88</v>
+      </c>
+      <c r="E418" t="s">
+        <v>63</v>
+      </c>
+      <c r="F418" t="s">
+        <v>27</v>
+      </c>
+      <c r="G418" t="s">
         <v>89</v>
       </c>
-      <c r="E417" t="s">
-        <v>49</v>
-      </c>
-      <c r="F417" t="s">
-        <v>28</v>
-      </c>
-      <c r="G417" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="418" spans="1:8">
-      <c r="A418" t="s">
-        <v>88</v>
-      </c>
-      <c r="B418" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="C418" t="s">
-        <v>89</v>
-      </c>
-      <c r="E418" t="s">
-        <v>64</v>
-      </c>
-      <c r="F418" t="s">
-        <v>28</v>
-      </c>
-      <c r="G418" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="419" spans="1:8">
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>213</v>
-      </c>
-      <c r="B419" s="4">
+        <v>212</v>
+      </c>
+      <c r="B419" s="3">
         <v>2E-8</v>
       </c>
       <c r="C419" t="s">
@@ -7347,37 +7345,37 @@
         <v>5</v>
       </c>
       <c r="F419" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G419" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="422" spans="1:8" ht="15.75">
-      <c r="A422" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A422" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="423" spans="1:8">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>3</v>
       </c>
       <c r="B423" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="424" spans="1:8">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>4</v>
       </c>
       <c r="B424" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="425" spans="1:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>6</v>
       </c>
@@ -7385,15 +7383,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:8">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>7</v>
       </c>
       <c r="B426" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="427" spans="1:8">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>8</v>
       </c>
@@ -7401,7 +7399,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="428" spans="1:8">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>10</v>
       </c>
@@ -7409,7 +7407,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="429" spans="1:8">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
         <v>11</v>
       </c>
@@ -7420,7 +7418,7 @@
       <c r="F429" s="1"/>
       <c r="G429" s="1"/>
     </row>
-    <row r="430" spans="1:8">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
         <v>12</v>
       </c>
@@ -7446,7 +7444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="431" spans="1:8">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A431" t="str">
         <f>B422</f>
         <v>cooling system production, for Li-O2 battery</v>
@@ -7463,202 +7461,202 @@
         <v>RER</v>
       </c>
       <c r="F431" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G431" t="str">
         <f>B426</f>
         <v>cooling system</v>
       </c>
     </row>
-    <row r="432" spans="1:8">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
+        <v>235</v>
+      </c>
+      <c r="B432" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="C432" t="s">
+        <v>9</v>
+      </c>
+      <c r="E432" t="s">
+        <v>48</v>
+      </c>
+      <c r="F432" t="s">
+        <v>27</v>
+      </c>
+      <c r="G432" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
         <v>236</v>
       </c>
-      <c r="B432" s="4">
-        <v>0.87</v>
-      </c>
-      <c r="C432" t="s">
-        <v>9</v>
-      </c>
-      <c r="E432" t="s">
-        <v>49</v>
-      </c>
-      <c r="F432" t="s">
-        <v>28</v>
-      </c>
-      <c r="G432" t="s">
+      <c r="B433" s="3">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C433" t="s">
+        <v>9</v>
+      </c>
+      <c r="E433" t="s">
+        <v>48</v>
+      </c>
+      <c r="F433" t="s">
+        <v>27</v>
+      </c>
+      <c r="G433" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="433" spans="1:8">
-      <c r="A433" t="s">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
         <v>237</v>
       </c>
-      <c r="B433" s="4">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="C433" t="s">
-        <v>9</v>
-      </c>
-      <c r="E433" t="s">
-        <v>49</v>
-      </c>
-      <c r="F433" t="s">
-        <v>28</v>
-      </c>
-      <c r="G433" t="s">
+      <c r="B434" s="3">
+        <v>2.3E-2</v>
+      </c>
+      <c r="C434" t="s">
+        <v>9</v>
+      </c>
+      <c r="E434" t="s">
+        <v>48</v>
+      </c>
+      <c r="F434" t="s">
+        <v>27</v>
+      </c>
+      <c r="G434" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="434" spans="1:8">
-      <c r="A434" t="s">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
         <v>238</v>
       </c>
-      <c r="B434" s="4">
-        <v>2.3E-2</v>
-      </c>
-      <c r="C434" t="s">
-        <v>9</v>
-      </c>
-      <c r="E434" t="s">
-        <v>49</v>
-      </c>
-      <c r="F434" t="s">
-        <v>28</v>
-      </c>
-      <c r="G434" t="s">
+      <c r="B435" s="3">
+        <v>9.6000000000000002E-4</v>
+      </c>
+      <c r="C435" t="s">
+        <v>9</v>
+      </c>
+      <c r="E435" t="s">
+        <v>48</v>
+      </c>
+      <c r="F435" t="s">
+        <v>27</v>
+      </c>
+      <c r="G435" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="435" spans="1:8">
-      <c r="A435" t="s">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
         <v>239</v>
       </c>
-      <c r="B435" s="4">
-        <v>9.6000000000000002E-4</v>
-      </c>
-      <c r="C435" t="s">
-        <v>9</v>
-      </c>
-      <c r="E435" t="s">
-        <v>49</v>
-      </c>
-      <c r="F435" t="s">
-        <v>28</v>
-      </c>
-      <c r="G435" t="s">
+      <c r="B436" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C436" t="s">
+        <v>9</v>
+      </c>
+      <c r="E436" t="s">
+        <v>48</v>
+      </c>
+      <c r="F436" t="s">
+        <v>27</v>
+      </c>
+      <c r="G436" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="436" spans="1:8">
-      <c r="A436" t="s">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
         <v>240</v>
       </c>
-      <c r="B436" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="C436" t="s">
-        <v>9</v>
-      </c>
-      <c r="E436" t="s">
-        <v>49</v>
-      </c>
-      <c r="F436" t="s">
-        <v>28</v>
-      </c>
-      <c r="G436" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="437" spans="1:8">
-      <c r="A437" t="s">
+      <c r="B437" s="3">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="C437" t="s">
+        <v>9</v>
+      </c>
+      <c r="E437" t="s">
+        <v>48</v>
+      </c>
+      <c r="F437" t="s">
+        <v>27</v>
+      </c>
+      <c r="G437" t="s">
         <v>241</v>
       </c>
-      <c r="B437" s="4">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="C437" t="s">
-        <v>9</v>
-      </c>
-      <c r="E437" t="s">
-        <v>49</v>
-      </c>
-      <c r="F437" t="s">
-        <v>28</v>
-      </c>
-      <c r="G437" t="s">
-        <v>242</v>
-      </c>
-      <c r="H437" s="8">
+      <c r="H437" s="6">
         <f>B437*B283</f>
         <v>6.2026168224299056E-3</v>
       </c>
     </row>
-    <row r="438" spans="1:8">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
+        <v>87</v>
+      </c>
+      <c r="B438" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="C438" t="s">
         <v>88</v>
       </c>
-      <c r="B438" s="4">
-        <v>0.22</v>
-      </c>
-      <c r="C438" t="s">
+      <c r="E438" t="s">
+        <v>63</v>
+      </c>
+      <c r="F438" t="s">
+        <v>27</v>
+      </c>
+      <c r="G438" t="s">
         <v>89</v>
       </c>
-      <c r="E438" t="s">
-        <v>64</v>
-      </c>
-      <c r="F438" t="s">
-        <v>28</v>
-      </c>
-      <c r="G438" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="439" spans="1:8">
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>200</v>
-      </c>
-      <c r="B439" s="4">
+        <v>199</v>
+      </c>
+      <c r="B439" s="3">
         <v>0.1</v>
       </c>
       <c r="C439" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E439" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F439" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G439" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="442" spans="1:8" ht="15.75">
-      <c r="A442" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A442" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="443" spans="1:8">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>3</v>
       </c>
       <c r="B443" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="444" spans="1:8">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>4</v>
       </c>
       <c r="B444" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="445" spans="1:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>6</v>
       </c>
@@ -7666,15 +7664,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:8">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>7</v>
       </c>
       <c r="B446" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="447" spans="1:8">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>8</v>
       </c>
@@ -7682,7 +7680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="448" spans="1:8">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>10</v>
       </c>
@@ -7690,7 +7688,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="449" spans="1:8">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
         <v>11</v>
       </c>
@@ -7701,7 +7699,7 @@
       <c r="F449" s="1"/>
       <c r="G449" s="1"/>
     </row>
-    <row r="450" spans="1:8">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
         <v>12</v>
       </c>
@@ -7727,7 +7725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="451" spans="1:8">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A451" t="str">
         <f>B442</f>
         <v>radiator production, for Li-O2 battery</v>
@@ -7744,36 +7742,36 @@
         <v>RER</v>
       </c>
       <c r="F451" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G451" t="str">
         <f>B446</f>
         <v>radiator</v>
       </c>
     </row>
-    <row r="452" spans="1:8">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
+        <v>217</v>
+      </c>
+      <c r="B452" s="3">
+        <v>1</v>
+      </c>
+      <c r="C452" t="s">
+        <v>9</v>
+      </c>
+      <c r="E452" t="s">
+        <v>63</v>
+      </c>
+      <c r="F452" t="s">
+        <v>27</v>
+      </c>
+      <c r="G452" t="s">
         <v>218</v>
       </c>
-      <c r="B452" s="4">
-        <v>1</v>
-      </c>
-      <c r="C452" t="s">
-        <v>9</v>
-      </c>
-      <c r="E452" t="s">
-        <v>64</v>
-      </c>
-      <c r="F452" t="s">
-        <v>28</v>
-      </c>
-      <c r="G452" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="453" spans="1:8">
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -7782,100 +7780,100 @@
         <v>9</v>
       </c>
       <c r="E453" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F453" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G453" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="454" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
+        <v>87</v>
+      </c>
+      <c r="B454" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C454" t="s">
         <v>88</v>
       </c>
-      <c r="B454" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="C454" t="s">
+      <c r="E454" t="s">
+        <v>63</v>
+      </c>
+      <c r="F454" t="s">
+        <v>27</v>
+      </c>
+      <c r="G454" t="s">
         <v>89</v>
       </c>
-      <c r="E454" t="s">
-        <v>64</v>
-      </c>
-      <c r="F454" t="s">
-        <v>28</v>
-      </c>
-      <c r="G454" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="455" spans="1:8">
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>200</v>
-      </c>
-      <c r="B455" s="4">
+        <v>199</v>
+      </c>
+      <c r="B455" s="3">
         <v>0.1</v>
       </c>
       <c r="C455" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E455" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F455" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G455" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="456" spans="1:8">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>115</v>
-      </c>
-      <c r="B456" s="4">
+        <v>114</v>
+      </c>
+      <c r="B456" s="3">
         <v>1.5E-10</v>
       </c>
       <c r="C456" t="s">
         <v>8</v>
       </c>
       <c r="E456" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F456" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G456" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="459" spans="1:8" ht="15.75">
-      <c r="A459" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A459" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="460" spans="1:8">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>3</v>
       </c>
       <c r="B460" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="461" spans="1:8">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>4</v>
       </c>
       <c r="B461" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="462" spans="1:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>6</v>
       </c>
@@ -7883,15 +7881,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:8">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>7</v>
       </c>
       <c r="B463" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="464" spans="1:8">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>8</v>
       </c>
@@ -7899,7 +7897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="465" spans="1:8">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>10</v>
       </c>
@@ -7907,7 +7905,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="466" spans="1:8">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
         <v>11</v>
       </c>
@@ -7918,7 +7916,7 @@
       <c r="F466" s="1"/>
       <c r="G466" s="1"/>
     </row>
-    <row r="467" spans="1:8">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
         <v>12</v>
       </c>
@@ -7944,7 +7942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="468" spans="1:8">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A468" t="str">
         <f>B459</f>
         <v>manifolds production, for Li-O2 battery</v>
@@ -7961,138 +7959,138 @@
         <v>RER</v>
       </c>
       <c r="F468" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G468" t="str">
         <f>B463</f>
         <v>manifolds</v>
       </c>
     </row>
-    <row r="469" spans="1:8">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
+        <v>217</v>
+      </c>
+      <c r="B469" s="3">
+        <v>1</v>
+      </c>
+      <c r="C469" t="s">
+        <v>9</v>
+      </c>
+      <c r="E469" t="s">
+        <v>63</v>
+      </c>
+      <c r="F469" t="s">
+        <v>27</v>
+      </c>
+      <c r="G469" t="s">
         <v>218</v>
       </c>
-      <c r="B469" s="4">
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>230</v>
+      </c>
+      <c r="B470" s="3">
         <v>1</v>
       </c>
-      <c r="C469" t="s">
-        <v>9</v>
-      </c>
-      <c r="E469" t="s">
-        <v>64</v>
-      </c>
-      <c r="F469" t="s">
-        <v>28</v>
-      </c>
-      <c r="G469" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="470" spans="1:8">
-      <c r="A470" t="s">
-        <v>231</v>
-      </c>
-      <c r="B470" s="4">
-        <v>1</v>
-      </c>
       <c r="C470" t="s">
         <v>9</v>
       </c>
       <c r="E470" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F470" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G470" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="471" spans="1:8">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
+        <v>87</v>
+      </c>
+      <c r="B471" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C471" t="s">
         <v>88</v>
       </c>
-      <c r="B471" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="C471" t="s">
+      <c r="E471" t="s">
+        <v>63</v>
+      </c>
+      <c r="F471" t="s">
+        <v>27</v>
+      </c>
+      <c r="G471" t="s">
         <v>89</v>
       </c>
-      <c r="E471" t="s">
-        <v>64</v>
-      </c>
-      <c r="F471" t="s">
-        <v>28</v>
-      </c>
-      <c r="G471" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="472" spans="1:8">
+    </row>
+    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>200</v>
-      </c>
-      <c r="B472" s="4">
+        <v>199</v>
+      </c>
+      <c r="B472" s="3">
         <v>0.1</v>
       </c>
       <c r="C472" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E472" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F472" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G472" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="473" spans="1:8">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>115</v>
-      </c>
-      <c r="B473" s="4">
+        <v>114</v>
+      </c>
+      <c r="B473" s="3">
         <v>1.5E-10</v>
       </c>
       <c r="C473" t="s">
         <v>8</v>
       </c>
       <c r="E473" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F473" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G473" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="476" spans="1:8" ht="15.75">
-      <c r="A476" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A476" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="477" spans="1:8">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>3</v>
       </c>
       <c r="B477" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="478" spans="1:8">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>4</v>
       </c>
       <c r="B478" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="479" spans="1:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>6</v>
       </c>
@@ -8100,15 +8098,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:8">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>7</v>
       </c>
       <c r="B480" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="481" spans="1:7">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>8</v>
       </c>
@@ -8116,7 +8114,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="482" spans="1:7">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>10</v>
       </c>
@@ -8124,7 +8122,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="483" spans="1:7">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
         <v>11</v>
       </c>
@@ -8135,7 +8133,7 @@
       <c r="F483" s="1"/>
       <c r="G483" s="1"/>
     </row>
-    <row r="484" spans="1:7">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
         <v>12</v>
       </c>
@@ -8158,7 +8156,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="485" spans="1:7">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A485" t="str">
         <f>B476</f>
         <v>clamps and fasteners production, for Li-O2 battery</v>
@@ -8175,18 +8173,18 @@
         <v>RER</v>
       </c>
       <c r="F485" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G485" t="str">
         <f>B480</f>
         <v>clamps and fasteners</v>
       </c>
     </row>
-    <row r="486" spans="1:7">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>145</v>
-      </c>
-      <c r="B486" s="4">
+        <v>144</v>
+      </c>
+      <c r="B486" s="3">
         <v>1</v>
       </c>
       <c r="C486" t="s">
@@ -8196,77 +8194,77 @@
         <v>5</v>
       </c>
       <c r="F486" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G486" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="487" spans="1:7">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>211</v>
-      </c>
-      <c r="B487" s="4">
+        <v>210</v>
+      </c>
+      <c r="B487" s="3">
         <v>1</v>
       </c>
       <c r="C487" t="s">
         <v>9</v>
       </c>
       <c r="E487" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F487" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G487" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="488" spans="1:7">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
+        <v>87</v>
+      </c>
+      <c r="B488" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C488" t="s">
         <v>88</v>
       </c>
-      <c r="B488" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="C488" t="s">
+      <c r="E488" t="s">
+        <v>63</v>
+      </c>
+      <c r="F488" t="s">
+        <v>27</v>
+      </c>
+      <c r="G488" t="s">
         <v>89</v>
       </c>
-      <c r="E488" t="s">
-        <v>64</v>
-      </c>
-      <c r="F488" t="s">
-        <v>28</v>
-      </c>
-      <c r="G488" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="489" spans="1:7">
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>200</v>
-      </c>
-      <c r="B489" s="4">
+        <v>199</v>
+      </c>
+      <c r="B489" s="3">
         <v>0.1</v>
       </c>
       <c r="C489" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E489" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F489" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G489" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="490" spans="1:7">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>86</v>
-      </c>
-      <c r="B490" s="4">
+        <v>85</v>
+      </c>
+      <c r="B490" s="3">
         <v>4.6000000000000001E-10</v>
       </c>
       <c r="C490" t="s">
@@ -8276,37 +8274,37 @@
         <v>5</v>
       </c>
       <c r="F490" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G490" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="493" spans="1:7" ht="15.75">
-      <c r="A493" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A493" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="494" spans="1:7">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>3</v>
       </c>
       <c r="B494" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="495" spans="1:7">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>4</v>
       </c>
       <c r="B495" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="496" spans="1:7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>6</v>
       </c>
@@ -8314,15 +8312,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:8">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>7</v>
       </c>
       <c r="B497" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="498" spans="1:8">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>8</v>
       </c>
@@ -8330,7 +8328,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="499" spans="1:8">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>10</v>
       </c>
@@ -8338,7 +8336,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="500" spans="1:8">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
         <v>11</v>
       </c>
@@ -8349,7 +8347,7 @@
       <c r="F500" s="1"/>
       <c r="G500" s="1"/>
     </row>
-    <row r="501" spans="1:8">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
         <v>12</v>
       </c>
@@ -8375,7 +8373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="502" spans="1:8">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A502" t="str">
         <f>B493</f>
         <v>pipe fitting production, for Li-O2 battery</v>
@@ -8392,158 +8390,158 @@
         <v>RER</v>
       </c>
       <c r="F502" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G502" t="str">
         <f>B497</f>
         <v>pipe fitting</v>
       </c>
     </row>
-    <row r="503" spans="1:8">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
+        <v>247</v>
+      </c>
+      <c r="B503" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C503" t="s">
+        <v>9</v>
+      </c>
+      <c r="E503" t="s">
+        <v>48</v>
+      </c>
+      <c r="F503" t="s">
+        <v>27</v>
+      </c>
+      <c r="G503" t="s">
         <v>248</v>
       </c>
-      <c r="B503" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="C503" t="s">
-        <v>9</v>
-      </c>
-      <c r="E503" t="s">
-        <v>49</v>
-      </c>
-      <c r="F503" t="s">
-        <v>28</v>
-      </c>
-      <c r="G503" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="504" spans="1:8">
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
+        <v>221</v>
+      </c>
+      <c r="B504" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C504" t="s">
+        <v>9</v>
+      </c>
+      <c r="E504" t="s">
+        <v>48</v>
+      </c>
+      <c r="F504" t="s">
+        <v>27</v>
+      </c>
+      <c r="G504" t="s">
         <v>222</v>
       </c>
-      <c r="B504" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="C504" t="s">
-        <v>9</v>
-      </c>
-      <c r="E504" t="s">
-        <v>49</v>
-      </c>
-      <c r="F504" t="s">
-        <v>28</v>
-      </c>
-      <c r="G504" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="505" spans="1:8">
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
+        <v>136</v>
+      </c>
+      <c r="B505" s="3">
+        <v>1</v>
+      </c>
+      <c r="C505" t="s">
+        <v>9</v>
+      </c>
+      <c r="E505" t="s">
+        <v>48</v>
+      </c>
+      <c r="F505" t="s">
+        <v>27</v>
+      </c>
+      <c r="G505" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A506" t="s">
+        <v>87</v>
+      </c>
+      <c r="B506" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C506" t="s">
+        <v>88</v>
+      </c>
+      <c r="E506" t="s">
+        <v>63</v>
+      </c>
+      <c r="F506" t="s">
+        <v>27</v>
+      </c>
+      <c r="G506" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
+        <v>199</v>
+      </c>
+      <c r="B507" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C507" t="s">
+        <v>88</v>
+      </c>
+      <c r="E507" t="s">
+        <v>48</v>
+      </c>
+      <c r="F507" t="s">
+        <v>27</v>
+      </c>
+      <c r="G507" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
         <v>137</v>
       </c>
-      <c r="B505" s="4">
-        <v>1</v>
-      </c>
-      <c r="C505" t="s">
-        <v>9</v>
-      </c>
-      <c r="E505" t="s">
-        <v>49</v>
-      </c>
-      <c r="F505" t="s">
-        <v>28</v>
-      </c>
-      <c r="G505" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="506" spans="1:8">
-      <c r="A506" t="s">
-        <v>88</v>
-      </c>
-      <c r="B506" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="C506" t="s">
-        <v>89</v>
-      </c>
-      <c r="E506" t="s">
-        <v>64</v>
-      </c>
-      <c r="F506" t="s">
-        <v>28</v>
-      </c>
-      <c r="G506" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="507" spans="1:8">
-      <c r="A507" t="s">
-        <v>200</v>
-      </c>
-      <c r="B507" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C507" t="s">
-        <v>89</v>
-      </c>
-      <c r="E507" t="s">
-        <v>49</v>
-      </c>
-      <c r="F507" t="s">
-        <v>28</v>
-      </c>
-      <c r="G507" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="508" spans="1:8">
-      <c r="A508" t="s">
-        <v>138</v>
-      </c>
-      <c r="B508" s="4">
+      <c r="B508" s="3">
         <v>7.4000000000000003E-10</v>
       </c>
       <c r="C508" t="s">
         <v>8</v>
       </c>
       <c r="E508" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F508" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G508" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="511" spans="1:8" ht="15.75">
-      <c r="A511" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A511" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="512" spans="1:8">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>3</v>
       </c>
       <c r="B512" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="513" spans="1:8">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>4</v>
       </c>
       <c r="B513" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="514" spans="1:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>6</v>
       </c>
@@ -8551,15 +8549,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:8">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>7</v>
       </c>
       <c r="B515" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="516" spans="1:8">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>8</v>
       </c>
@@ -8567,7 +8565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="517" spans="1:8">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>10</v>
       </c>
@@ -8575,7 +8573,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="518" spans="1:8">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
         <v>11</v>
       </c>
@@ -8586,7 +8584,7 @@
       <c r="F518" s="1"/>
       <c r="G518" s="1"/>
     </row>
-    <row r="519" spans="1:8">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
         <v>12</v>
       </c>
@@ -8612,7 +8610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="520" spans="1:8">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A520" t="str">
         <f>B511</f>
         <v>thermal pad production, for Li-O2 battery</v>
@@ -8629,58 +8627,58 @@
         <v>RER</v>
       </c>
       <c r="F520" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G520" t="str">
         <f>B515</f>
         <v>thermal pad</v>
       </c>
     </row>
-    <row r="521" spans="1:8">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
+        <v>249</v>
+      </c>
+      <c r="B521" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C521" t="s">
+        <v>9</v>
+      </c>
+      <c r="E521" t="s">
+        <v>48</v>
+      </c>
+      <c r="F521" t="s">
+        <v>27</v>
+      </c>
+      <c r="G521" t="s">
         <v>250</v>
       </c>
-      <c r="B521" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C521" t="s">
-        <v>9</v>
-      </c>
-      <c r="E521" t="s">
-        <v>49</v>
-      </c>
-      <c r="F521" t="s">
-        <v>28</v>
-      </c>
-      <c r="G521" t="s">
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A522" t="s">
+        <v>252</v>
+      </c>
+      <c r="B522" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C522" t="s">
+        <v>9</v>
+      </c>
+      <c r="E522" t="s">
+        <v>253</v>
+      </c>
+      <c r="F522" t="s">
+        <v>27</v>
+      </c>
+      <c r="G522" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="522" spans="1:8">
-      <c r="A522" t="s">
-        <v>253</v>
-      </c>
-      <c r="B522" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="C522" t="s">
-        <v>9</v>
-      </c>
-      <c r="E522" t="s">
-        <v>254</v>
-      </c>
-      <c r="F522" t="s">
-        <v>28</v>
-      </c>
-      <c r="G522" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="523" spans="1:8">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>164</v>
-      </c>
-      <c r="B523" s="4">
+        <v>163</v>
+      </c>
+      <c r="B523" s="3">
         <v>0.6</v>
       </c>
       <c r="C523" t="s">
@@ -8690,90 +8688,90 @@
         <v>5</v>
       </c>
       <c r="F523" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G523" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="524" spans="1:8">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
+        <v>136</v>
+      </c>
+      <c r="B524" s="3">
+        <v>1</v>
+      </c>
+      <c r="C524" t="s">
+        <v>9</v>
+      </c>
+      <c r="E524" t="s">
+        <v>48</v>
+      </c>
+      <c r="F524" t="s">
+        <v>27</v>
+      </c>
+      <c r="G524" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A525" t="s">
+        <v>87</v>
+      </c>
+      <c r="B525" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C525" t="s">
+        <v>88</v>
+      </c>
+      <c r="E525" t="s">
+        <v>63</v>
+      </c>
+      <c r="F525" t="s">
+        <v>27</v>
+      </c>
+      <c r="G525" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A526" t="s">
+        <v>199</v>
+      </c>
+      <c r="B526" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C526" t="s">
+        <v>88</v>
+      </c>
+      <c r="E526" t="s">
+        <v>48</v>
+      </c>
+      <c r="F526" t="s">
+        <v>27</v>
+      </c>
+      <c r="G526" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A527" t="s">
         <v>137</v>
       </c>
-      <c r="B524" s="4">
-        <v>1</v>
-      </c>
-      <c r="C524" t="s">
-        <v>9</v>
-      </c>
-      <c r="E524" t="s">
-        <v>49</v>
-      </c>
-      <c r="F524" t="s">
-        <v>28</v>
-      </c>
-      <c r="G524" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="525" spans="1:8">
-      <c r="A525" t="s">
-        <v>88</v>
-      </c>
-      <c r="B525" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="C525" t="s">
-        <v>89</v>
-      </c>
-      <c r="E525" t="s">
-        <v>64</v>
-      </c>
-      <c r="F525" t="s">
-        <v>28</v>
-      </c>
-      <c r="G525" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="526" spans="1:8">
-      <c r="A526" t="s">
-        <v>200</v>
-      </c>
-      <c r="B526" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C526" t="s">
-        <v>89</v>
-      </c>
-      <c r="E526" t="s">
-        <v>49</v>
-      </c>
-      <c r="F526" t="s">
-        <v>28</v>
-      </c>
-      <c r="G526" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="527" spans="1:8">
-      <c r="A527" t="s">
-        <v>138</v>
-      </c>
-      <c r="B527" s="4">
+      <c r="B527" s="3">
         <v>7.4000000000000003E-10</v>
       </c>
       <c r="C527" t="s">
         <v>8</v>
       </c>
       <c r="E527" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F527" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G527" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-batteries-LiO2.xlsx
+++ b/premise/data/additional_inventories/lci-batteries-LiO2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65574126-AA3A-C043-936D-67FAD7597FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67E30E1-E1F3-D040-82E5-3707D3E1CBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32880" yWindow="320" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Battery - LiO2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="280">
   <si>
     <t>Database</t>
   </si>
@@ -852,6 +852,30 @@
   </si>
   <si>
     <t>battery cell</t>
+  </si>
+  <si>
+    <t>market for battery, Li-oxygen, Li-O2</t>
+  </si>
+  <si>
+    <t>market group for transport, freight train</t>
+  </si>
+  <si>
+    <t>transport, freight, inland waterways, barge</t>
+  </si>
+  <si>
+    <t>market group for transport, freight, inland waterways, barge</t>
+  </si>
+  <si>
+    <t>transport, freight, sea, container ship</t>
+  </si>
+  <si>
+    <t>market for transport, freight, sea, container ship</t>
+  </si>
+  <si>
+    <t>market group for transport, freight, lorry, unspecified</t>
+  </si>
+  <si>
+    <t>transport, freight, lorry, unspecified</t>
   </si>
 </sst>
 </file>
@@ -1239,10 +1263,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T527"/>
+  <dimension ref="A1:T541"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A277" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A300" sqref="A300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5334,132 +5358,175 @@
         <v>148</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A288" s="2" t="s">
+    <row r="286" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A286" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B288" s="1" t="s">
-        <v>169</v>
+      <c r="B286" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>3</v>
+      </c>
+      <c r="B287" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>4</v>
+      </c>
+      <c r="B288" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>3</v>
-      </c>
-      <c r="B289" t="s">
-        <v>260</v>
+        <v>6</v>
+      </c>
+      <c r="B289">
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B290" t="s">
-        <v>48</v>
+        <v>161</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>6</v>
-      </c>
-      <c r="B291">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="B291" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
+        <v>10</v>
+      </c>
+      <c r="B292" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A293" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B293" s="1"/>
+      <c r="C293" s="1"/>
+      <c r="D293" s="1"/>
+      <c r="E293" s="1"/>
+      <c r="F293" s="1"/>
+      <c r="G293" s="1"/>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A294" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G294" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B292" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A293" t="s">
-        <v>8</v>
-      </c>
-      <c r="B293" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A294" t="s">
-        <v>10</v>
-      </c>
-      <c r="B294" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A295" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B295" s="1"/>
-      <c r="C295" s="1"/>
-      <c r="D295" s="1"/>
-      <c r="E295" s="1"/>
-      <c r="F295" s="1"/>
-      <c r="G295" s="1"/>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A296" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C296" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D296" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E296" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F296" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G296" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H296" s="1" t="s">
+      <c r="H294" s="1" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="295" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A295" s="7" t="str">
+        <f>B286</f>
+        <v>market for battery, Li-oxygen, Li-O2</v>
+      </c>
+      <c r="B295">
+        <v>1</v>
+      </c>
+      <c r="C295" t="s">
+        <v>9</v>
+      </c>
+      <c r="E295" t="str">
+        <f>B288</f>
+        <v>GLO</v>
+      </c>
+      <c r="F295" t="s">
+        <v>18</v>
+      </c>
+      <c r="G295" t="str">
+        <f>B290</f>
+        <v>battery, Li-O2</v>
+      </c>
+      <c r="H295" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A296" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B296">
+        <v>1</v>
+      </c>
+      <c r="C296" t="s">
+        <v>9</v>
+      </c>
+      <c r="E296" t="s">
+        <v>5</v>
+      </c>
+      <c r="F296" t="s">
+        <v>27</v>
+      </c>
+      <c r="G296" t="str">
+        <f>B291</f>
+        <v>kilogram</v>
+      </c>
+    </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A297" t="str">
-        <f>B288</f>
-        <v>separator manufacturing, for Li-O2 battery</v>
+      <c r="A297" t="s">
+        <v>273</v>
       </c>
       <c r="B297">
-        <v>1</v>
-      </c>
-      <c r="C297" t="str">
-        <f>B293</f>
-        <v>kilogram</v>
-      </c>
-      <c r="E297" t="str">
-        <f>B290</f>
-        <v>RER</v>
+        <v>0.30910727700000001</v>
+      </c>
+      <c r="C297" t="s">
+        <v>88</v>
+      </c>
+      <c r="E297" t="s">
+        <v>5</v>
       </c>
       <c r="F297" t="s">
-        <v>18</v>
-      </c>
-      <c r="G297" t="str">
-        <f>B292</f>
-        <v>separator</v>
+        <v>27</v>
+      </c>
+      <c r="G297" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>44</v>
+        <v>275</v>
       </c>
       <c r="B298">
-        <v>0.218</v>
+        <v>2.4627409999999999E-2</v>
       </c>
       <c r="C298" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="E298" t="s">
         <v>5</v>
@@ -5468,681 +5535,684 @@
         <v>27</v>
       </c>
       <c r="G298" t="s">
-        <v>45</v>
-      </c>
-      <c r="H298" s="5"/>
+        <v>274</v>
+      </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
+        <v>278</v>
+      </c>
+      <c r="B299">
+        <v>0.20877976500000001</v>
+      </c>
+      <c r="C299" t="s">
+        <v>88</v>
+      </c>
+      <c r="E299" t="s">
+        <v>5</v>
+      </c>
+      <c r="F299" t="s">
+        <v>27</v>
+      </c>
+      <c r="G299" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>277</v>
+      </c>
+      <c r="B300">
+        <v>0.59901584900000004</v>
+      </c>
+      <c r="C300" t="s">
+        <v>88</v>
+      </c>
+      <c r="E300" t="s">
+        <v>5</v>
+      </c>
+      <c r="F300" t="s">
+        <v>27</v>
+      </c>
+      <c r="G300" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A301" s="7"/>
+    </row>
+    <row r="302" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A302" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>3</v>
+      </c>
+      <c r="B303" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>4</v>
+      </c>
+      <c r="B304" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>6</v>
+      </c>
+      <c r="B305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>7</v>
+      </c>
+      <c r="B306" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>8</v>
+      </c>
+      <c r="B307" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>10</v>
+      </c>
+      <c r="B308" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A309" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B309" s="1"/>
+      <c r="C309" s="1"/>
+      <c r="D309" s="1"/>
+      <c r="E309" s="1"/>
+      <c r="F309" s="1"/>
+      <c r="G309" s="1"/>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A310" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G310" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H310" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A311" t="str">
+        <f>B302</f>
+        <v>separator manufacturing, for Li-O2 battery</v>
+      </c>
+      <c r="B311">
+        <v>1</v>
+      </c>
+      <c r="C311" t="str">
+        <f>B307</f>
+        <v>kilogram</v>
+      </c>
+      <c r="E311" t="str">
+        <f>B304</f>
+        <v>RER</v>
+      </c>
+      <c r="F311" t="s">
+        <v>18</v>
+      </c>
+      <c r="G311" t="str">
+        <f>B306</f>
+        <v>separator</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>44</v>
+      </c>
+      <c r="B312">
+        <v>0.218</v>
+      </c>
+      <c r="C312" t="s">
+        <v>9</v>
+      </c>
+      <c r="E312" t="s">
+        <v>5</v>
+      </c>
+      <c r="F312" t="s">
+        <v>27</v>
+      </c>
+      <c r="G312" t="s">
+        <v>45</v>
+      </c>
+      <c r="H312" s="5"/>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
         <v>64</v>
       </c>
-      <c r="B299">
+      <c r="B313">
         <f>0.2083/3.6</f>
         <v>5.7861111111111113E-2</v>
       </c>
-      <c r="C299" t="s">
+      <c r="C313" t="s">
         <v>66</v>
       </c>
-      <c r="E299" t="s">
+      <c r="E313" t="s">
         <v>63</v>
       </c>
-      <c r="F299" t="s">
-        <v>27</v>
-      </c>
-      <c r="G299" t="s">
+      <c r="F313" t="s">
+        <v>27</v>
+      </c>
+      <c r="G313" t="s">
         <v>65</v>
       </c>
-      <c r="H299" t="s">
+      <c r="H313" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A300" t="s">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
         <v>171</v>
       </c>
-      <c r="B300">
+      <c r="B314">
         <v>2.6200000000000001E-2</v>
       </c>
-      <c r="C300" t="s">
-        <v>9</v>
-      </c>
-      <c r="E300" t="s">
+      <c r="C314" t="s">
+        <v>9</v>
+      </c>
+      <c r="E314" t="s">
         <v>5</v>
       </c>
-      <c r="F300" t="s">
-        <v>27</v>
-      </c>
-      <c r="G300" t="s">
+      <c r="F314" t="s">
+        <v>27</v>
+      </c>
+      <c r="G314" t="s">
         <v>172</v>
       </c>
-      <c r="H300" s="5"/>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A301" t="s">
+      <c r="H314" s="5"/>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
         <v>173</v>
       </c>
-      <c r="B301">
+      <c r="B315">
         <v>1.2</v>
       </c>
-      <c r="C301" t="s">
-        <v>9</v>
-      </c>
-      <c r="E301" t="s">
+      <c r="C315" t="s">
+        <v>9</v>
+      </c>
+      <c r="E315" t="s">
         <v>5</v>
       </c>
-      <c r="F301" t="s">
-        <v>27</v>
-      </c>
-      <c r="G301" t="s">
+      <c r="F315" t="s">
+        <v>27</v>
+      </c>
+      <c r="G315" t="s">
         <v>174</v>
       </c>
-      <c r="H301" s="5"/>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A302" t="s">
-        <v>175</v>
-      </c>
-      <c r="B302">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="C302" t="s">
-        <v>9</v>
-      </c>
-      <c r="E302" t="s">
-        <v>48</v>
-      </c>
-      <c r="F302" t="s">
-        <v>27</v>
-      </c>
-      <c r="G302" t="s">
-        <v>176</v>
-      </c>
-      <c r="H302" s="5"/>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A303" t="s">
-        <v>177</v>
-      </c>
-      <c r="B303">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="C303" t="s">
-        <v>9</v>
-      </c>
-      <c r="E303" t="s">
-        <v>48</v>
-      </c>
-      <c r="F303" t="s">
-        <v>27</v>
-      </c>
-      <c r="G303" t="s">
-        <v>178</v>
-      </c>
-      <c r="H303" s="5"/>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A304" t="s">
-        <v>179</v>
-      </c>
-      <c r="B304">
-        <v>0.193</v>
-      </c>
-      <c r="C304" t="s">
-        <v>69</v>
-      </c>
-      <c r="E304" t="s">
-        <v>63</v>
-      </c>
-      <c r="F304" t="s">
-        <v>27</v>
-      </c>
-      <c r="G304" t="s">
-        <v>68</v>
-      </c>
-      <c r="H304" s="5"/>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A305" t="s">
-        <v>180</v>
-      </c>
-      <c r="B305">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="C305" t="s">
-        <v>9</v>
-      </c>
-      <c r="E305" t="s">
-        <v>48</v>
-      </c>
-      <c r="F305" t="s">
-        <v>27</v>
-      </c>
-      <c r="G305" t="s">
-        <v>181</v>
-      </c>
-      <c r="H305" s="5"/>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A306" t="s">
-        <v>25</v>
-      </c>
-      <c r="B306">
-        <v>0.192</v>
-      </c>
-      <c r="C306" t="s">
-        <v>9</v>
-      </c>
-      <c r="E306" t="s">
-        <v>5</v>
-      </c>
-      <c r="F306" t="s">
-        <v>27</v>
-      </c>
-      <c r="G306" t="s">
-        <v>182</v>
-      </c>
-      <c r="H306" s="5"/>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A307" t="s">
-        <v>183</v>
-      </c>
-      <c r="B307">
-        <v>4.0000000000000001E-10</v>
-      </c>
-      <c r="C307" t="s">
-        <v>8</v>
-      </c>
-      <c r="E307" t="s">
-        <v>48</v>
-      </c>
-      <c r="F307" t="s">
-        <v>27</v>
-      </c>
-      <c r="G307" t="s">
-        <v>184</v>
-      </c>
-      <c r="H307" s="5"/>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A308" t="s">
-        <v>87</v>
-      </c>
-      <c r="B308">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="C308" t="s">
-        <v>88</v>
-      </c>
-      <c r="E308" t="s">
-        <v>63</v>
-      </c>
-      <c r="F308" t="s">
-        <v>27</v>
-      </c>
-      <c r="G308" t="s">
-        <v>89</v>
-      </c>
-      <c r="H308" s="5"/>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A309" t="s">
-        <v>90</v>
-      </c>
-      <c r="B309">
-        <v>9.8400000000000001E-2</v>
-      </c>
-      <c r="C309" t="s">
-        <v>88</v>
-      </c>
-      <c r="E309" t="s">
-        <v>48</v>
-      </c>
-      <c r="F309" t="s">
-        <v>27</v>
-      </c>
-      <c r="G309" t="s">
-        <v>91</v>
-      </c>
-      <c r="H309" s="5"/>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A310" t="s">
-        <v>185</v>
-      </c>
-      <c r="B310">
-        <v>-5.3900000000000003E-2</v>
-      </c>
-      <c r="C310" t="s">
-        <v>9</v>
-      </c>
-      <c r="E310" t="s">
-        <v>92</v>
-      </c>
-      <c r="F310" t="s">
-        <v>27</v>
-      </c>
-      <c r="G310" t="s">
-        <v>186</v>
-      </c>
-      <c r="H310" s="5"/>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A311" t="s">
-        <v>187</v>
-      </c>
-      <c r="B311">
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="C311" t="s">
-        <v>69</v>
-      </c>
-      <c r="D311" t="s">
-        <v>188</v>
-      </c>
-      <c r="F311" t="s">
-        <v>103</v>
-      </c>
-      <c r="H311" s="5"/>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A312" t="s">
-        <v>189</v>
-      </c>
-      <c r="B312">
-        <v>1.44E-2</v>
-      </c>
-      <c r="C312" t="s">
-        <v>9</v>
-      </c>
-      <c r="D312" t="s">
-        <v>188</v>
-      </c>
-      <c r="F312" t="s">
-        <v>103</v>
-      </c>
-      <c r="H312" s="5"/>
-    </row>
-    <row r="315" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A315" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B315" s="1" t="s">
-        <v>190</v>
-      </c>
+      <c r="H315" s="5"/>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>3</v>
-      </c>
-      <c r="B316" t="s">
-        <v>259</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="B316">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="C316" t="s">
+        <v>9</v>
+      </c>
+      <c r="E316" t="s">
+        <v>48</v>
+      </c>
+      <c r="F316" t="s">
+        <v>27</v>
+      </c>
+      <c r="G316" t="s">
+        <v>176</v>
+      </c>
+      <c r="H316" s="5"/>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>4</v>
-      </c>
-      <c r="B317" t="s">
-        <v>48</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="B317">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="C317" t="s">
+        <v>9</v>
+      </c>
+      <c r="E317" t="s">
+        <v>48</v>
+      </c>
+      <c r="F317" t="s">
+        <v>27</v>
+      </c>
+      <c r="G317" t="s">
+        <v>178</v>
+      </c>
+      <c r="H317" s="5"/>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>6</v>
+        <v>179</v>
       </c>
       <c r="B318">
-        <v>1</v>
-      </c>
+        <v>0.193</v>
+      </c>
+      <c r="C318" t="s">
+        <v>69</v>
+      </c>
+      <c r="E318" t="s">
+        <v>63</v>
+      </c>
+      <c r="F318" t="s">
+        <v>27</v>
+      </c>
+      <c r="G318" t="s">
+        <v>68</v>
+      </c>
+      <c r="H318" s="5"/>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>7</v>
-      </c>
-      <c r="B319" t="s">
-        <v>165</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="B319">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="C319" t="s">
+        <v>9</v>
+      </c>
+      <c r="E319" t="s">
+        <v>48</v>
+      </c>
+      <c r="F319" t="s">
+        <v>27</v>
+      </c>
+      <c r="G319" t="s">
+        <v>181</v>
+      </c>
+      <c r="H319" s="5"/>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>8</v>
-      </c>
-      <c r="B320" t="s">
-        <v>9</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B320">
+        <v>0.192</v>
+      </c>
+      <c r="C320" t="s">
+        <v>9</v>
+      </c>
+      <c r="E320" t="s">
+        <v>5</v>
+      </c>
+      <c r="F320" t="s">
+        <v>27</v>
+      </c>
+      <c r="G320" t="s">
+        <v>182</v>
+      </c>
+      <c r="H320" s="5"/>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>10</v>
-      </c>
-      <c r="B321" t="s">
-        <v>16</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="B321">
+        <v>4.0000000000000001E-10</v>
+      </c>
+      <c r="C321" t="s">
+        <v>8</v>
+      </c>
+      <c r="E321" t="s">
+        <v>48</v>
+      </c>
+      <c r="F321" t="s">
+        <v>27</v>
+      </c>
+      <c r="G321" t="s">
+        <v>184</v>
+      </c>
+      <c r="H321" s="5"/>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A322" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B322" s="1"/>
-      <c r="C322" s="1"/>
-      <c r="D322" s="1"/>
-      <c r="E322" s="1"/>
-      <c r="F322" s="1"/>
-      <c r="G322" s="1"/>
+      <c r="A322" t="s">
+        <v>87</v>
+      </c>
+      <c r="B322">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="C322" t="s">
+        <v>88</v>
+      </c>
+      <c r="E322" t="s">
+        <v>63</v>
+      </c>
+      <c r="F322" t="s">
+        <v>27</v>
+      </c>
+      <c r="G322" t="s">
+        <v>89</v>
+      </c>
+      <c r="H322" s="5"/>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A323" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B323" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C323" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D323" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E323" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F323" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G323" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H323" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A323" t="s">
+        <v>90</v>
+      </c>
+      <c r="B323">
+        <v>9.8400000000000001E-2</v>
+      </c>
+      <c r="C323" t="s">
+        <v>88</v>
+      </c>
+      <c r="E323" t="s">
+        <v>48</v>
+      </c>
+      <c r="F323" t="s">
+        <v>27</v>
+      </c>
+      <c r="G323" t="s">
+        <v>91</v>
+      </c>
+      <c r="H323" s="5"/>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A324" t="str">
-        <f>B315</f>
-        <v>BMS production, for Li-O2 battery</v>
+      <c r="A324" t="s">
+        <v>185</v>
       </c>
       <c r="B324">
-        <v>1</v>
-      </c>
-      <c r="C324" t="str">
-        <f>B320</f>
-        <v>kilogram</v>
-      </c>
-      <c r="E324" t="str">
-        <f>B317</f>
-        <v>RER</v>
+        <v>-5.3900000000000003E-2</v>
+      </c>
+      <c r="C324" t="s">
+        <v>9</v>
+      </c>
+      <c r="E324" t="s">
+        <v>92</v>
       </c>
       <c r="F324" t="s">
-        <v>18</v>
-      </c>
-      <c r="G324" t="str">
-        <f>B319</f>
-        <v>BMS</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G324" t="s">
+        <v>186</v>
+      </c>
+      <c r="H324" s="5"/>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>168</v>
-      </c>
-      <c r="B325" s="3">
-        <v>8.8999999999999996E-2</v>
+        <v>187</v>
+      </c>
+      <c r="B325">
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="C325" t="s">
-        <v>9</v>
-      </c>
-      <c r="E325" t="s">
-        <v>5</v>
+        <v>69</v>
+      </c>
+      <c r="D325" t="s">
+        <v>188</v>
       </c>
       <c r="F325" t="s">
-        <v>27</v>
-      </c>
-      <c r="G325" t="s">
-        <v>167</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="H325" s="5"/>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>195</v>
-      </c>
-      <c r="B326" s="3">
-        <v>0.48</v>
+        <v>189</v>
+      </c>
+      <c r="B326">
+        <v>1.44E-2</v>
       </c>
       <c r="C326" t="s">
         <v>9</v>
       </c>
-      <c r="E326" t="s">
-        <v>48</v>
+      <c r="D326" t="s">
+        <v>188</v>
       </c>
       <c r="F326" t="s">
-        <v>27</v>
-      </c>
-      <c r="G326" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A327" t="s">
-        <v>196</v>
-      </c>
-      <c r="B327" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C327" t="s">
-        <v>9</v>
-      </c>
-      <c r="E327" t="s">
-        <v>48</v>
-      </c>
-      <c r="F327" t="s">
-        <v>27</v>
-      </c>
-      <c r="G327" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A328" t="s">
-        <v>197</v>
-      </c>
-      <c r="B328" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="C328" t="s">
-        <v>9</v>
-      </c>
-      <c r="E328" t="s">
-        <v>48</v>
-      </c>
-      <c r="F328" t="s">
-        <v>27</v>
-      </c>
-      <c r="G328" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A329" t="s">
-        <v>198</v>
-      </c>
-      <c r="B329" s="3">
-        <v>0.13</v>
-      </c>
-      <c r="C329" t="s">
-        <v>9</v>
-      </c>
-      <c r="E329" t="s">
-        <v>48</v>
-      </c>
-      <c r="F329" t="s">
-        <v>27</v>
-      </c>
-      <c r="G329" t="s">
-        <v>194</v>
+        <v>103</v>
+      </c>
+      <c r="H326" s="5"/>
+    </row>
+    <row r="329" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A329" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>199</v>
-      </c>
-      <c r="B330" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C330" t="s">
-        <v>88</v>
-      </c>
-      <c r="E330" t="s">
-        <v>48</v>
-      </c>
-      <c r="F330" t="s">
-        <v>27</v>
-      </c>
-      <c r="G330" t="s">
-        <v>214</v>
+        <v>3</v>
+      </c>
+      <c r="B330" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>87</v>
-      </c>
-      <c r="B331" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="C331" t="s">
-        <v>88</v>
-      </c>
-      <c r="E331" t="s">
-        <v>63</v>
-      </c>
-      <c r="F331" t="s">
-        <v>27</v>
-      </c>
-      <c r="G331" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A333" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B333" s="1" t="s">
-        <v>195</v>
+        <v>4</v>
+      </c>
+      <c r="B331" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>6</v>
+      </c>
+      <c r="B332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>7</v>
+      </c>
+      <c r="B333" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B334" t="s">
-        <v>257</v>
+        <v>9</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
+        <v>10</v>
+      </c>
+      <c r="B335" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A336" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B336" s="1"/>
+      <c r="C336" s="1"/>
+      <c r="D336" s="1"/>
+      <c r="E336" s="1"/>
+      <c r="F336" s="1"/>
+      <c r="G336" s="1"/>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A337" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E337" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B335" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A336" t="s">
-        <v>6</v>
-      </c>
-      <c r="B336">
+      <c r="F337" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G337" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H337" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A338" t="str">
+        <f>B329</f>
+        <v>BMS production, for Li-O2 battery</v>
+      </c>
+      <c r="B338">
         <v>1</v>
       </c>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A337" t="s">
-        <v>7</v>
-      </c>
-      <c r="B337" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A338" t="s">
-        <v>8</v>
-      </c>
-      <c r="B338" t="s">
-        <v>9</v>
+      <c r="C338" t="str">
+        <f>B334</f>
+        <v>kilogram</v>
+      </c>
+      <c r="E338" t="str">
+        <f>B331</f>
+        <v>RER</v>
+      </c>
+      <c r="F338" t="s">
+        <v>18</v>
+      </c>
+      <c r="G338" t="str">
+        <f>B333</f>
+        <v>BMS</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>10</v>
-      </c>
-      <c r="B339" t="s">
-        <v>16</v>
+        <v>168</v>
+      </c>
+      <c r="B339" s="3">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="C339" t="s">
+        <v>9</v>
+      </c>
+      <c r="E339" t="s">
+        <v>5</v>
+      </c>
+      <c r="F339" t="s">
+        <v>27</v>
+      </c>
+      <c r="G339" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A340" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B340" s="1"/>
-      <c r="C340" s="1"/>
-      <c r="D340" s="1"/>
-      <c r="E340" s="1"/>
-      <c r="F340" s="1"/>
-      <c r="G340" s="1"/>
+      <c r="A340" t="s">
+        <v>195</v>
+      </c>
+      <c r="B340" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="C340" t="s">
+        <v>9</v>
+      </c>
+      <c r="E340" t="s">
+        <v>48</v>
+      </c>
+      <c r="F340" t="s">
+        <v>27</v>
+      </c>
+      <c r="G340" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A341" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B341" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C341" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D341" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E341" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F341" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G341" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H341" s="1" t="s">
-        <v>3</v>
+      <c r="A341" t="s">
+        <v>196</v>
+      </c>
+      <c r="B341" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C341" t="s">
+        <v>9</v>
+      </c>
+      <c r="E341" t="s">
+        <v>48</v>
+      </c>
+      <c r="F341" t="s">
+        <v>27</v>
+      </c>
+      <c r="G341" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A342" t="str">
-        <f>B333</f>
-        <v>IBIS production, for Li-O2 battery</v>
-      </c>
-      <c r="B342">
-        <v>1</v>
-      </c>
-      <c r="C342" t="str">
-        <f>B338</f>
-        <v>kilogram</v>
-      </c>
-      <c r="E342" t="str">
-        <f>B335</f>
-        <v>RER</v>
+      <c r="A342" t="s">
+        <v>197</v>
+      </c>
+      <c r="B342" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C342" t="s">
+        <v>9</v>
+      </c>
+      <c r="E342" t="s">
+        <v>48</v>
       </c>
       <c r="F342" t="s">
-        <v>18</v>
-      </c>
-      <c r="G342" t="str">
-        <f>B337</f>
-        <v>IBIS</v>
+        <v>27</v>
+      </c>
+      <c r="G342" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B343" s="3">
-        <v>2.0000000000000001E-4</v>
+        <v>0.13</v>
       </c>
       <c r="C343" t="s">
         <v>9</v>
@@ -6154,1610 +6224,1630 @@
         <v>27</v>
       </c>
       <c r="G343" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="B344" s="3">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="C344" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="E344" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="F344" t="s">
         <v>27</v>
       </c>
       <c r="G344" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>201</v>
+        <v>87</v>
       </c>
       <c r="B345" s="3">
-        <v>1.7E-5</v>
+        <v>0.2</v>
       </c>
       <c r="C345" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="E345" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="F345" t="s">
         <v>27</v>
       </c>
       <c r="G345" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A346" t="s">
-        <v>144</v>
-      </c>
-      <c r="B346" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="C346" t="s">
-        <v>9</v>
-      </c>
-      <c r="E346" t="s">
-        <v>5</v>
-      </c>
-      <c r="F346" t="s">
-        <v>27</v>
-      </c>
-      <c r="G346" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A347" t="s">
-        <v>203</v>
-      </c>
-      <c r="B347" s="3">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="C347" t="s">
-        <v>9</v>
-      </c>
-      <c r="E347" t="s">
-        <v>5</v>
-      </c>
-      <c r="F347" t="s">
-        <v>27</v>
-      </c>
-      <c r="G347" t="s">
-        <v>204</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A347" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>205</v>
-      </c>
-      <c r="B348" s="3">
-        <v>6.7999999999999996E-3</v>
-      </c>
-      <c r="C348" t="s">
-        <v>9</v>
-      </c>
-      <c r="E348" t="s">
-        <v>48</v>
-      </c>
-      <c r="F348" t="s">
-        <v>27</v>
-      </c>
-      <c r="G348" t="s">
-        <v>126</v>
+        <v>3</v>
+      </c>
+      <c r="B348" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>206</v>
-      </c>
-      <c r="B349" s="3">
-        <v>1.9E-3</v>
-      </c>
-      <c r="C349" t="s">
-        <v>9</v>
-      </c>
-      <c r="E349" t="s">
-        <v>48</v>
-      </c>
-      <c r="F349" t="s">
-        <v>27</v>
-      </c>
-      <c r="G349" t="s">
-        <v>207</v>
+        <v>4</v>
+      </c>
+      <c r="B349" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>208</v>
-      </c>
-      <c r="B350" s="3">
-        <v>5.7000000000000002E-3</v>
-      </c>
-      <c r="C350" t="s">
-        <v>9</v>
-      </c>
-      <c r="E350" t="s">
-        <v>92</v>
-      </c>
-      <c r="F350" t="s">
-        <v>27</v>
-      </c>
-      <c r="G350" t="s">
-        <v>209</v>
+        <v>6</v>
+      </c>
+      <c r="B350">
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>210</v>
-      </c>
-      <c r="B351" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="C351" t="s">
-        <v>9</v>
-      </c>
-      <c r="E351" t="s">
-        <v>48</v>
-      </c>
-      <c r="F351" t="s">
-        <v>27</v>
-      </c>
-      <c r="G351" t="s">
-        <v>210</v>
+        <v>7</v>
+      </c>
+      <c r="B351" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>136</v>
-      </c>
-      <c r="B352" s="3">
-        <v>8.8000000000000005E-3</v>
-      </c>
-      <c r="C352" t="s">
-        <v>9</v>
-      </c>
-      <c r="E352" t="s">
-        <v>48</v>
-      </c>
-      <c r="F352" t="s">
-        <v>27</v>
-      </c>
-      <c r="G352" t="s">
-        <v>136</v>
+        <v>8</v>
+      </c>
+      <c r="B352" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>211</v>
-      </c>
-      <c r="B353" s="3">
-        <v>5.7000000000000002E-3</v>
-      </c>
-      <c r="C353" t="s">
-        <v>9</v>
-      </c>
-      <c r="E353" t="s">
-        <v>92</v>
-      </c>
-      <c r="F353" t="s">
-        <v>27</v>
-      </c>
-      <c r="G353" t="s">
-        <v>211</v>
+        <v>10</v>
+      </c>
+      <c r="B353" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A354" t="s">
-        <v>199</v>
-      </c>
-      <c r="B354" s="3">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="C354" t="s">
-        <v>88</v>
-      </c>
-      <c r="E354" t="s">
-        <v>48</v>
-      </c>
-      <c r="F354" t="s">
-        <v>27</v>
-      </c>
-      <c r="G354" t="s">
-        <v>214</v>
-      </c>
+      <c r="A354" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B354" s="1"/>
+      <c r="C354" s="1"/>
+      <c r="D354" s="1"/>
+      <c r="E354" s="1"/>
+      <c r="F354" s="1"/>
+      <c r="G354" s="1"/>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A355" t="s">
-        <v>87</v>
-      </c>
-      <c r="B355" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="C355" t="s">
-        <v>88</v>
-      </c>
-      <c r="E355" t="s">
-        <v>63</v>
-      </c>
-      <c r="F355" t="s">
-        <v>27</v>
-      </c>
-      <c r="G355" t="s">
-        <v>89</v>
+      <c r="A355" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F355" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G355" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H355" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A356" t="s">
-        <v>212</v>
-      </c>
-      <c r="B356" s="3">
-        <v>2E-8</v>
-      </c>
-      <c r="C356" t="s">
-        <v>8</v>
-      </c>
-      <c r="E356" t="s">
+      <c r="A356" t="str">
+        <f>B347</f>
+        <v>IBIS production, for Li-O2 battery</v>
+      </c>
+      <c r="B356">
+        <v>1</v>
+      </c>
+      <c r="C356" t="str">
+        <f>B352</f>
+        <v>kilogram</v>
+      </c>
+      <c r="E356" t="str">
+        <f>B349</f>
+        <v>RER</v>
+      </c>
+      <c r="F356" t="s">
+        <v>18</v>
+      </c>
+      <c r="G356" t="str">
+        <f>B351</f>
+        <v>IBIS</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>200</v>
+      </c>
+      <c r="B357" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C357" t="s">
+        <v>9</v>
+      </c>
+      <c r="E357" t="s">
+        <v>48</v>
+      </c>
+      <c r="F357" t="s">
+        <v>27</v>
+      </c>
+      <c r="G357" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>168</v>
+      </c>
+      <c r="B358" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="C358" t="s">
+        <v>9</v>
+      </c>
+      <c r="E358" t="s">
         <v>5</v>
       </c>
-      <c r="F356" t="s">
-        <v>27</v>
-      </c>
-      <c r="G356" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="358" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A358" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B358" s="1" t="s">
-        <v>196</v>
+      <c r="F358" t="s">
+        <v>27</v>
+      </c>
+      <c r="G358" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>3</v>
-      </c>
-      <c r="B359" t="s">
-        <v>257</v>
+        <v>201</v>
+      </c>
+      <c r="B359" s="3">
+        <v>1.7E-5</v>
+      </c>
+      <c r="C359" t="s">
+        <v>9</v>
+      </c>
+      <c r="E359" t="s">
+        <v>5</v>
+      </c>
+      <c r="F359" t="s">
+        <v>27</v>
+      </c>
+      <c r="G359" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>4</v>
-      </c>
-      <c r="B360" t="s">
-        <v>48</v>
+        <v>144</v>
+      </c>
+      <c r="B360" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="C360" t="s">
+        <v>9</v>
+      </c>
+      <c r="E360" t="s">
+        <v>5</v>
+      </c>
+      <c r="F360" t="s">
+        <v>27</v>
+      </c>
+      <c r="G360" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>6</v>
-      </c>
-      <c r="B361">
-        <v>1</v>
+        <v>203</v>
+      </c>
+      <c r="B361" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C361" t="s">
+        <v>9</v>
+      </c>
+      <c r="E361" t="s">
+        <v>5</v>
+      </c>
+      <c r="F361" t="s">
+        <v>27</v>
+      </c>
+      <c r="G361" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>7</v>
-      </c>
-      <c r="B362" t="s">
-        <v>192</v>
+        <v>205</v>
+      </c>
+      <c r="B362" s="3">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="C362" t="s">
+        <v>9</v>
+      </c>
+      <c r="E362" t="s">
+        <v>48</v>
+      </c>
+      <c r="F362" t="s">
+        <v>27</v>
+      </c>
+      <c r="G362" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>8</v>
-      </c>
-      <c r="B363" t="s">
-        <v>9</v>
+        <v>206</v>
+      </c>
+      <c r="B363" s="3">
+        <v>1.9E-3</v>
+      </c>
+      <c r="C363" t="s">
+        <v>9</v>
+      </c>
+      <c r="E363" t="s">
+        <v>48</v>
+      </c>
+      <c r="F363" t="s">
+        <v>27</v>
+      </c>
+      <c r="G363" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>10</v>
-      </c>
-      <c r="B364" t="s">
-        <v>16</v>
+        <v>208</v>
+      </c>
+      <c r="B364" s="3">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="C364" t="s">
+        <v>9</v>
+      </c>
+      <c r="E364" t="s">
+        <v>92</v>
+      </c>
+      <c r="F364" t="s">
+        <v>27</v>
+      </c>
+      <c r="G364" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A365" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B365" s="1"/>
-      <c r="C365" s="1"/>
-      <c r="D365" s="1"/>
-      <c r="E365" s="1"/>
-      <c r="F365" s="1"/>
-      <c r="G365" s="1"/>
+      <c r="A365" t="s">
+        <v>210</v>
+      </c>
+      <c r="B365" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="C365" t="s">
+        <v>9</v>
+      </c>
+      <c r="E365" t="s">
+        <v>48</v>
+      </c>
+      <c r="F365" t="s">
+        <v>27</v>
+      </c>
+      <c r="G365" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A366" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B366" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C366" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D366" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E366" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F366" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G366" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H366" s="1" t="s">
-        <v>3</v>
+      <c r="A366" t="s">
+        <v>136</v>
+      </c>
+      <c r="B366" s="3">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="C366" t="s">
+        <v>9</v>
+      </c>
+      <c r="E366" t="s">
+        <v>48</v>
+      </c>
+      <c r="F366" t="s">
+        <v>27</v>
+      </c>
+      <c r="G366" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A367" t="str">
-        <f>B358</f>
-        <v>IBIS fasteners production, for Li-O2 battery</v>
-      </c>
-      <c r="B367">
-        <v>1</v>
-      </c>
-      <c r="C367" t="str">
-        <f>B363</f>
-        <v>kilogram</v>
-      </c>
-      <c r="E367" t="str">
-        <f>B360</f>
-        <v>RER</v>
+      <c r="A367" t="s">
+        <v>211</v>
+      </c>
+      <c r="B367" s="3">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="C367" t="s">
+        <v>9</v>
+      </c>
+      <c r="E367" t="s">
+        <v>92</v>
       </c>
       <c r="F367" t="s">
-        <v>18</v>
-      </c>
-      <c r="G367" t="str">
-        <f>B362</f>
-        <v>IBIS fasteners</v>
+        <v>27</v>
+      </c>
+      <c r="G367" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="B368" s="3">
-        <v>1</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="C368" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="E368" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="F368" t="s">
         <v>27</v>
       </c>
       <c r="G368" t="s">
-        <v>145</v>
-      </c>
-      <c r="H368" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>210</v>
+        <v>87</v>
       </c>
       <c r="B369" s="3">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="C369" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="E369" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="F369" t="s">
         <v>27</v>
       </c>
       <c r="G369" t="s">
-        <v>210</v>
+        <v>89</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="B370" s="3">
-        <v>0.1</v>
+        <v>2E-8</v>
       </c>
       <c r="C370" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="E370" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="F370" t="s">
         <v>27</v>
       </c>
       <c r="G370" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A371" t="s">
-        <v>87</v>
-      </c>
-      <c r="B371" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="C371" t="s">
-        <v>88</v>
-      </c>
-      <c r="E371" t="s">
-        <v>63</v>
-      </c>
-      <c r="F371" t="s">
-        <v>27</v>
-      </c>
-      <c r="G371" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A372" t="s">
-        <v>216</v>
-      </c>
-      <c r="B372" s="3">
-        <v>4.6000000000000001E-10</v>
-      </c>
-      <c r="C372" t="s">
-        <v>8</v>
-      </c>
-      <c r="E372" t="s">
-        <v>48</v>
-      </c>
-      <c r="F372" t="s">
-        <v>27</v>
-      </c>
-      <c r="G372" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="375" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A375" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A372" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B375" s="1" t="s">
-        <v>197</v>
+      <c r="B372" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>3</v>
+      </c>
+      <c r="B373" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>4</v>
+      </c>
+      <c r="B374" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>6</v>
+      </c>
+      <c r="B375">
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B376" t="s">
-        <v>257</v>
+        <v>192</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B377" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
+        <v>10</v>
+      </c>
+      <c r="B378" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A379" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B379" s="1"/>
+      <c r="C379" s="1"/>
+      <c r="D379" s="1"/>
+      <c r="E379" s="1"/>
+      <c r="F379" s="1"/>
+      <c r="G379" s="1"/>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A380" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F380" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G380" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H380" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A381" t="str">
+        <f>B372</f>
+        <v>IBIS fasteners production, for Li-O2 battery</v>
+      </c>
+      <c r="B381">
+        <v>1</v>
+      </c>
+      <c r="C381" t="str">
+        <f>B377</f>
+        <v>kilogram</v>
+      </c>
+      <c r="E381" t="str">
+        <f>B374</f>
+        <v>RER</v>
+      </c>
+      <c r="F381" t="s">
+        <v>18</v>
+      </c>
+      <c r="G381" t="str">
+        <f>B376</f>
+        <v>IBIS fasteners</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>144</v>
+      </c>
+      <c r="B382" s="3">
+        <v>1</v>
+      </c>
+      <c r="C382" t="s">
+        <v>9</v>
+      </c>
+      <c r="E382" t="s">
+        <v>5</v>
+      </c>
+      <c r="F382" t="s">
+        <v>27</v>
+      </c>
+      <c r="G382" t="s">
+        <v>145</v>
+      </c>
+      <c r="H382" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>210</v>
+      </c>
+      <c r="B383" s="3">
+        <v>1</v>
+      </c>
+      <c r="C383" t="s">
+        <v>9</v>
+      </c>
+      <c r="E383" t="s">
+        <v>48</v>
+      </c>
+      <c r="F383" t="s">
+        <v>27</v>
+      </c>
+      <c r="G383" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>199</v>
+      </c>
+      <c r="B384" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C384" t="s">
+        <v>88</v>
+      </c>
+      <c r="E384" t="s">
+        <v>48</v>
+      </c>
+      <c r="F384" t="s">
+        <v>27</v>
+      </c>
+      <c r="G384" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>87</v>
+      </c>
+      <c r="B385" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C385" t="s">
+        <v>88</v>
+      </c>
+      <c r="E385" t="s">
+        <v>63</v>
+      </c>
+      <c r="F385" t="s">
+        <v>27</v>
+      </c>
+      <c r="G385" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>216</v>
+      </c>
+      <c r="B386" s="3">
+        <v>4.6000000000000001E-10</v>
+      </c>
+      <c r="C386" t="s">
+        <v>8</v>
+      </c>
+      <c r="E386" t="s">
+        <v>48</v>
+      </c>
+      <c r="F386" t="s">
+        <v>27</v>
+      </c>
+      <c r="G386" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A389" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>3</v>
+      </c>
+      <c r="B390" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>4</v>
+      </c>
+      <c r="B391" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
         <v>6</v>
       </c>
-      <c r="B378">
+      <c r="B392">
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A379" t="s">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
         <v>7</v>
       </c>
-      <c r="B379" t="s">
+      <c r="B393" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A380" t="s">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
         <v>8</v>
       </c>
-      <c r="B380" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A381" t="s">
+      <c r="B394" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
         <v>10</v>
       </c>
-      <c r="B381" t="s">
+      <c r="B395" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A382" s="1" t="s">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A396" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B382" s="1"/>
-      <c r="C382" s="1"/>
-      <c r="D382" s="1"/>
-      <c r="E382" s="1"/>
-      <c r="F382" s="1"/>
-      <c r="G382" s="1"/>
-    </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A383" s="1" t="s">
+      <c r="B396" s="1"/>
+      <c r="C396" s="1"/>
+      <c r="D396" s="1"/>
+      <c r="E396" s="1"/>
+      <c r="F396" s="1"/>
+      <c r="G396" s="1"/>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A397" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B383" s="1" t="s">
+      <c r="B397" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C383" s="1" t="s">
+      <c r="C397" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D383" s="1" t="s">
+      <c r="D397" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E383" s="1" t="s">
+      <c r="E397" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F383" s="1" t="s">
+      <c r="F397" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G383" s="1" t="s">
+      <c r="G397" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H383" s="1" t="s">
+      <c r="H397" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A384" t="str">
-        <f>B375</f>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A398" t="str">
+        <f>B389</f>
         <v>high voltage system production, for Li-O2 battery</v>
       </c>
-      <c r="B384">
+      <c r="B398">
         <v>1</v>
       </c>
-      <c r="C384" t="str">
-        <f>B380</f>
+      <c r="C398" t="str">
+        <f>B394</f>
         <v>kilogram</v>
       </c>
-      <c r="E384" t="str">
-        <f>B377</f>
+      <c r="E398" t="str">
+        <f>B391</f>
         <v>RER</v>
       </c>
-      <c r="F384" t="s">
+      <c r="F398" t="s">
         <v>18</v>
       </c>
-      <c r="G384" t="str">
-        <f>B379</f>
+      <c r="G398" t="str">
+        <f>B393</f>
         <v>high voltage system</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A385" t="s">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
         <v>144</v>
       </c>
-      <c r="B385" s="3">
+      <c r="B399" s="3">
         <v>1.4E-3</v>
       </c>
-      <c r="C385" t="s">
-        <v>9</v>
-      </c>
-      <c r="E385" t="s">
+      <c r="C399" t="s">
+        <v>9</v>
+      </c>
+      <c r="E399" t="s">
         <v>5</v>
       </c>
-      <c r="F385" t="s">
-        <v>27</v>
-      </c>
-      <c r="G385" t="s">
+      <c r="F399" t="s">
+        <v>27</v>
+      </c>
+      <c r="G399" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A386" t="s">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
         <v>217</v>
       </c>
-      <c r="B386" s="3">
+      <c r="B400" s="3">
         <v>0.12</v>
       </c>
-      <c r="C386" t="s">
-        <v>9</v>
-      </c>
-      <c r="E386" t="s">
+      <c r="C400" t="s">
+        <v>9</v>
+      </c>
+      <c r="E400" t="s">
         <v>63</v>
       </c>
-      <c r="F386" t="s">
-        <v>27</v>
-      </c>
-      <c r="G386" t="s">
+      <c r="F400" t="s">
+        <v>27</v>
+      </c>
+      <c r="G400" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A387" t="s">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
         <v>219</v>
       </c>
-      <c r="B387" s="3">
+      <c r="B401" s="3">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="C387" t="s">
-        <v>9</v>
-      </c>
-      <c r="E387" t="s">
-        <v>48</v>
-      </c>
-      <c r="F387" t="s">
-        <v>27</v>
-      </c>
-      <c r="G387" t="s">
+      <c r="C401" t="s">
+        <v>9</v>
+      </c>
+      <c r="E401" t="s">
+        <v>48</v>
+      </c>
+      <c r="F401" t="s">
+        <v>27</v>
+      </c>
+      <c r="G401" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A388" t="s">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
         <v>221</v>
       </c>
-      <c r="B388" s="3">
+      <c r="B402" s="3">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="C388" t="s">
-        <v>9</v>
-      </c>
-      <c r="E388" t="s">
-        <v>48</v>
-      </c>
-      <c r="F388" t="s">
-        <v>27</v>
-      </c>
-      <c r="G388" t="s">
+      <c r="C402" t="s">
+        <v>9</v>
+      </c>
+      <c r="E402" t="s">
+        <v>48</v>
+      </c>
+      <c r="F402" t="s">
+        <v>27</v>
+      </c>
+      <c r="G402" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A389" t="s">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
         <v>205</v>
       </c>
-      <c r="B389" s="3">
+      <c r="B403" s="3">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="C389" t="s">
-        <v>9</v>
-      </c>
-      <c r="E389" t="s">
-        <v>48</v>
-      </c>
-      <c r="F389" t="s">
-        <v>27</v>
-      </c>
-      <c r="G389" t="s">
+      <c r="C403" t="s">
+        <v>9</v>
+      </c>
+      <c r="E403" t="s">
+        <v>48</v>
+      </c>
+      <c r="F403" t="s">
+        <v>27</v>
+      </c>
+      <c r="G403" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A390" t="s">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
         <v>116</v>
       </c>
-      <c r="B390" s="3">
+      <c r="B404" s="3">
         <v>0.23</v>
       </c>
-      <c r="C390" t="s">
-        <v>9</v>
-      </c>
-      <c r="E390" t="s">
+      <c r="C404" t="s">
+        <v>9</v>
+      </c>
+      <c r="E404" t="s">
         <v>5</v>
       </c>
-      <c r="F390" t="s">
-        <v>27</v>
-      </c>
-      <c r="G390" t="s">
+      <c r="F404" t="s">
+        <v>27</v>
+      </c>
+      <c r="G404" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A391" t="s">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
         <v>118</v>
       </c>
-      <c r="B391" s="3">
+      <c r="B405" s="3">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="C391" t="s">
-        <v>9</v>
-      </c>
-      <c r="E391" t="s">
+      <c r="C405" t="s">
+        <v>9</v>
+      </c>
+      <c r="E405" t="s">
         <v>63</v>
       </c>
-      <c r="F391" t="s">
-        <v>27</v>
-      </c>
-      <c r="G391" t="s">
+      <c r="F405" t="s">
+        <v>27</v>
+      </c>
+      <c r="G405" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A392" t="s">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
         <v>223</v>
       </c>
-      <c r="B392" s="3">
+      <c r="B406" s="3">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="C392" t="s">
-        <v>9</v>
-      </c>
-      <c r="E392" t="s">
+      <c r="C406" t="s">
+        <v>9</v>
+      </c>
+      <c r="E406" t="s">
         <v>5</v>
       </c>
-      <c r="F392" t="s">
-        <v>27</v>
-      </c>
-      <c r="G392" t="s">
+      <c r="F406" t="s">
+        <v>27</v>
+      </c>
+      <c r="G406" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A393" t="s">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
         <v>225</v>
       </c>
-      <c r="B393" s="3">
+      <c r="B407" s="3">
         <v>1.6E-2</v>
       </c>
-      <c r="C393" t="s">
-        <v>9</v>
-      </c>
-      <c r="E393" t="s">
+      <c r="C407" t="s">
+        <v>9</v>
+      </c>
+      <c r="E407" t="s">
         <v>5</v>
       </c>
-      <c r="F393" t="s">
-        <v>27</v>
-      </c>
-      <c r="G393" t="s">
+      <c r="F407" t="s">
+        <v>27</v>
+      </c>
+      <c r="G407" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A394" t="s">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
         <v>227</v>
       </c>
-      <c r="B394" s="3">
+      <c r="B408" s="3">
         <v>0.45</v>
       </c>
-      <c r="C394" t="s">
-        <v>9</v>
-      </c>
-      <c r="E394" t="s">
+      <c r="C408" t="s">
+        <v>9</v>
+      </c>
+      <c r="E408" t="s">
         <v>5</v>
       </c>
-      <c r="F394" t="s">
-        <v>27</v>
-      </c>
-      <c r="G394" t="s">
+      <c r="F408" t="s">
+        <v>27</v>
+      </c>
+      <c r="G408" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A395" t="s">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
         <v>210</v>
       </c>
-      <c r="B395" s="3">
+      <c r="B409" s="3">
         <v>1.4E-3</v>
       </c>
-      <c r="C395" t="s">
-        <v>9</v>
-      </c>
-      <c r="E395" t="s">
-        <v>48</v>
-      </c>
-      <c r="F395" t="s">
-        <v>27</v>
-      </c>
-      <c r="G395" t="s">
+      <c r="C409" t="s">
+        <v>9</v>
+      </c>
+      <c r="E409" t="s">
+        <v>48</v>
+      </c>
+      <c r="F409" t="s">
+        <v>27</v>
+      </c>
+      <c r="G409" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A396" t="s">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
         <v>230</v>
       </c>
-      <c r="B396" s="3">
+      <c r="B410" s="3">
         <v>0.12</v>
       </c>
-      <c r="C396" t="s">
-        <v>9</v>
-      </c>
-      <c r="E396" t="s">
-        <v>48</v>
-      </c>
-      <c r="F396" t="s">
-        <v>27</v>
-      </c>
-      <c r="G396" t="s">
+      <c r="C410" t="s">
+        <v>9</v>
+      </c>
+      <c r="E410" t="s">
+        <v>48</v>
+      </c>
+      <c r="F410" t="s">
+        <v>27</v>
+      </c>
+      <c r="G410" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A397" t="s">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
         <v>231</v>
       </c>
-      <c r="B397" s="3">
+      <c r="B411" s="3">
         <v>0.27</v>
       </c>
-      <c r="C397" t="s">
-        <v>9</v>
-      </c>
-      <c r="E397" t="s">
-        <v>48</v>
-      </c>
-      <c r="F397" t="s">
-        <v>27</v>
-      </c>
-      <c r="G397" t="s">
+      <c r="C411" t="s">
+        <v>9</v>
+      </c>
+      <c r="E411" t="s">
+        <v>48</v>
+      </c>
+      <c r="F411" t="s">
+        <v>27</v>
+      </c>
+      <c r="G411" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A398" t="s">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
         <v>229</v>
       </c>
-      <c r="B398" s="3">
+      <c r="B412" s="3">
         <v>1.6E-2</v>
       </c>
-      <c r="C398" t="s">
-        <v>9</v>
-      </c>
-      <c r="E398" t="s">
-        <v>48</v>
-      </c>
-      <c r="F398" t="s">
-        <v>27</v>
-      </c>
-      <c r="G398" t="s">
+      <c r="C412" t="s">
+        <v>9</v>
+      </c>
+      <c r="E412" t="s">
+        <v>48</v>
+      </c>
+      <c r="F412" t="s">
+        <v>27</v>
+      </c>
+      <c r="G412" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A399" t="s">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
         <v>136</v>
       </c>
-      <c r="B399" s="3">
+      <c r="B413" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C399" t="s">
-        <v>9</v>
-      </c>
-      <c r="E399" t="s">
-        <v>48</v>
-      </c>
-      <c r="F399" t="s">
-        <v>27</v>
-      </c>
-      <c r="G399" t="s">
+      <c r="C413" t="s">
+        <v>9</v>
+      </c>
+      <c r="E413" t="s">
+        <v>48</v>
+      </c>
+      <c r="F413" t="s">
+        <v>27</v>
+      </c>
+      <c r="G413" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A400" t="s">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
         <v>199</v>
       </c>
-      <c r="B400" s="3">
+      <c r="B414" s="3">
         <v>0.11</v>
       </c>
-      <c r="C400" t="s">
+      <c r="C414" t="s">
         <v>88</v>
       </c>
-      <c r="E400" t="s">
-        <v>48</v>
-      </c>
-      <c r="F400" t="s">
-        <v>27</v>
-      </c>
-      <c r="G400" t="s">
+      <c r="E414" t="s">
+        <v>48</v>
+      </c>
+      <c r="F414" t="s">
+        <v>27</v>
+      </c>
+      <c r="G414" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A401" t="s">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
         <v>87</v>
       </c>
-      <c r="B401" s="3">
+      <c r="B415" s="3">
         <v>5.5E-2</v>
       </c>
-      <c r="C401" t="s">
+      <c r="C415" t="s">
         <v>88</v>
       </c>
-      <c r="E401" t="s">
+      <c r="E415" t="s">
         <v>63</v>
       </c>
-      <c r="F401" t="s">
-        <v>27</v>
-      </c>
-      <c r="G401" t="s">
+      <c r="F415" t="s">
+        <v>27</v>
+      </c>
+      <c r="G415" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A402" t="s">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
         <v>212</v>
       </c>
-      <c r="B402" s="3">
+      <c r="B416" s="3">
         <v>2E-8</v>
       </c>
-      <c r="C402" t="s">
+      <c r="C416" t="s">
         <v>8</v>
       </c>
-      <c r="E402" t="s">
+      <c r="E416" t="s">
         <v>5</v>
       </c>
-      <c r="F402" t="s">
-        <v>27</v>
-      </c>
-      <c r="G402" t="s">
+      <c r="F416" t="s">
+        <v>27</v>
+      </c>
+      <c r="G416" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="404" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A404" s="2" t="s">
+    <row r="418" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A418" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B404" s="1" t="s">
+      <c r="B418" s="1" t="s">
         <v>198</v>
-      </c>
-    </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A405" t="s">
-        <v>3</v>
-      </c>
-      <c r="B405" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A406" t="s">
-        <v>4</v>
-      </c>
-      <c r="B406" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A407" t="s">
-        <v>6</v>
-      </c>
-      <c r="B407">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A408" t="s">
-        <v>7</v>
-      </c>
-      <c r="B408" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A409" t="s">
-        <v>8</v>
-      </c>
-      <c r="B409" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A410" t="s">
-        <v>10</v>
-      </c>
-      <c r="B410" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A411" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B411" s="1"/>
-      <c r="C411" s="1"/>
-      <c r="D411" s="1"/>
-      <c r="E411" s="1"/>
-      <c r="F411" s="1"/>
-      <c r="G411" s="1"/>
-    </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A412" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B412" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C412" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D412" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E412" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F412" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G412" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H412" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A413" t="str">
-        <f>B404</f>
-        <v>low voltage system production, for Li-O2 battery</v>
-      </c>
-      <c r="B413">
-        <v>1</v>
-      </c>
-      <c r="C413" t="str">
-        <f>B409</f>
-        <v>kilogram</v>
-      </c>
-      <c r="E413" t="str">
-        <f>B406</f>
-        <v>RER</v>
-      </c>
-      <c r="F413" t="s">
-        <v>18</v>
-      </c>
-      <c r="G413" t="str">
-        <f>B408</f>
-        <v>low voltage system</v>
-      </c>
-    </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A414" t="s">
-        <v>219</v>
-      </c>
-      <c r="B414" s="3">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="C414" t="s">
-        <v>9</v>
-      </c>
-      <c r="E414" t="s">
-        <v>48</v>
-      </c>
-      <c r="F414" t="s">
-        <v>27</v>
-      </c>
-      <c r="G414" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A415" t="s">
-        <v>232</v>
-      </c>
-      <c r="B415" s="3">
-        <v>0.97</v>
-      </c>
-      <c r="C415" t="s">
-        <v>9</v>
-      </c>
-      <c r="E415" t="s">
-        <v>5</v>
-      </c>
-      <c r="F415" t="s">
-        <v>27</v>
-      </c>
-      <c r="G415" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A416" t="s">
-        <v>136</v>
-      </c>
-      <c r="B416" s="3">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="C416" t="s">
-        <v>9</v>
-      </c>
-      <c r="E416" t="s">
-        <v>48</v>
-      </c>
-      <c r="F416" t="s">
-        <v>27</v>
-      </c>
-      <c r="G416" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A417" t="s">
-        <v>199</v>
-      </c>
-      <c r="B417" s="3">
-        <v>0.11</v>
-      </c>
-      <c r="C417" t="s">
-        <v>88</v>
-      </c>
-      <c r="E417" t="s">
-        <v>48</v>
-      </c>
-      <c r="F417" t="s">
-        <v>27</v>
-      </c>
-      <c r="G417" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A418" t="s">
-        <v>87</v>
-      </c>
-      <c r="B418" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="C418" t="s">
-        <v>88</v>
-      </c>
-      <c r="E418" t="s">
-        <v>63</v>
-      </c>
-      <c r="F418" t="s">
-        <v>27</v>
-      </c>
-      <c r="G418" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>212</v>
-      </c>
-      <c r="B419" s="3">
-        <v>2E-8</v>
-      </c>
-      <c r="C419" t="s">
-        <v>8</v>
-      </c>
-      <c r="E419" t="s">
-        <v>5</v>
-      </c>
-      <c r="F419" t="s">
-        <v>27</v>
-      </c>
-      <c r="G419" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="422" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A422" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B422" s="1" t="s">
-        <v>234</v>
+        <v>3</v>
+      </c>
+      <c r="B419" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>4</v>
+      </c>
+      <c r="B420" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>6</v>
+      </c>
+      <c r="B421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>7</v>
+      </c>
+      <c r="B422" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B423" t="s">
-        <v>258</v>
+        <v>9</v>
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
+        <v>10</v>
+      </c>
+      <c r="B424" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A425" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B425" s="1"/>
+      <c r="C425" s="1"/>
+      <c r="D425" s="1"/>
+      <c r="E425" s="1"/>
+      <c r="F425" s="1"/>
+      <c r="G425" s="1"/>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A426" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D426" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E426" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B424" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A425" t="s">
-        <v>6</v>
-      </c>
-      <c r="B425">
+      <c r="F426" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G426" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H426" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A427" t="str">
+        <f>B418</f>
+        <v>low voltage system production, for Li-O2 battery</v>
+      </c>
+      <c r="B427">
         <v>1</v>
       </c>
-    </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A426" t="s">
-        <v>7</v>
-      </c>
-      <c r="B426" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A427" t="s">
-        <v>8</v>
-      </c>
-      <c r="B427" t="s">
-        <v>9</v>
+      <c r="C427" t="str">
+        <f>B423</f>
+        <v>kilogram</v>
+      </c>
+      <c r="E427" t="str">
+        <f>B420</f>
+        <v>RER</v>
+      </c>
+      <c r="F427" t="s">
+        <v>18</v>
+      </c>
+      <c r="G427" t="str">
+        <f>B422</f>
+        <v>low voltage system</v>
       </c>
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>10</v>
-      </c>
-      <c r="B428" t="s">
-        <v>16</v>
+        <v>219</v>
+      </c>
+      <c r="B428" s="3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C428" t="s">
+        <v>9</v>
+      </c>
+      <c r="E428" t="s">
+        <v>48</v>
+      </c>
+      <c r="F428" t="s">
+        <v>27</v>
+      </c>
+      <c r="G428" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A429" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B429" s="1"/>
-      <c r="C429" s="1"/>
-      <c r="D429" s="1"/>
-      <c r="E429" s="1"/>
-      <c r="F429" s="1"/>
-      <c r="G429" s="1"/>
+      <c r="A429" t="s">
+        <v>232</v>
+      </c>
+      <c r="B429" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="C429" t="s">
+        <v>9</v>
+      </c>
+      <c r="E429" t="s">
+        <v>5</v>
+      </c>
+      <c r="F429" t="s">
+        <v>27</v>
+      </c>
+      <c r="G429" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A430" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B430" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C430" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D430" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E430" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F430" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G430" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H430" s="1" t="s">
-        <v>3</v>
+      <c r="A430" t="s">
+        <v>136</v>
+      </c>
+      <c r="B430" s="3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C430" t="s">
+        <v>9</v>
+      </c>
+      <c r="E430" t="s">
+        <v>48</v>
+      </c>
+      <c r="F430" t="s">
+        <v>27</v>
+      </c>
+      <c r="G430" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A431" t="str">
-        <f>B422</f>
-        <v>cooling system production, for Li-O2 battery</v>
-      </c>
-      <c r="B431">
-        <v>1</v>
-      </c>
-      <c r="C431" t="str">
-        <f>B427</f>
-        <v>kilogram</v>
-      </c>
-      <c r="E431" t="str">
-        <f>B424</f>
-        <v>RER</v>
+      <c r="A431" t="s">
+        <v>199</v>
+      </c>
+      <c r="B431" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="C431" t="s">
+        <v>88</v>
+      </c>
+      <c r="E431" t="s">
+        <v>48</v>
       </c>
       <c r="F431" t="s">
-        <v>18</v>
-      </c>
-      <c r="G431" t="str">
-        <f>B426</f>
-        <v>cooling system</v>
+        <v>27</v>
+      </c>
+      <c r="G431" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>235</v>
+        <v>87</v>
       </c>
       <c r="B432" s="3">
-        <v>0.87</v>
+        <v>0.2</v>
       </c>
       <c r="C432" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="E432" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="F432" t="s">
         <v>27</v>
       </c>
       <c r="G432" t="s">
-        <v>242</v>
+        <v>89</v>
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="B433" s="3">
-        <v>3.7999999999999999E-2</v>
+        <v>2E-8</v>
       </c>
       <c r="C433" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E433" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="F433" t="s">
         <v>27</v>
       </c>
       <c r="G433" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A434" t="s">
-        <v>237</v>
-      </c>
-      <c r="B434" s="3">
-        <v>2.3E-2</v>
-      </c>
-      <c r="C434" t="s">
-        <v>9</v>
-      </c>
-      <c r="E434" t="s">
-        <v>48</v>
-      </c>
-      <c r="F434" t="s">
-        <v>27</v>
-      </c>
-      <c r="G434" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A435" t="s">
-        <v>238</v>
-      </c>
-      <c r="B435" s="3">
-        <v>9.6000000000000002E-4</v>
-      </c>
-      <c r="C435" t="s">
-        <v>9</v>
-      </c>
-      <c r="E435" t="s">
-        <v>48</v>
-      </c>
-      <c r="F435" t="s">
-        <v>27</v>
-      </c>
-      <c r="G435" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A436" t="s">
-        <v>239</v>
-      </c>
-      <c r="B436" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="C436" t="s">
-        <v>9</v>
-      </c>
-      <c r="E436" t="s">
-        <v>48</v>
-      </c>
-      <c r="F436" t="s">
-        <v>27</v>
-      </c>
-      <c r="G436" t="s">
-        <v>246</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A436" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>240</v>
-      </c>
-      <c r="B437" s="3">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="C437" t="s">
-        <v>9</v>
-      </c>
-      <c r="E437" t="s">
-        <v>48</v>
-      </c>
-      <c r="F437" t="s">
-        <v>27</v>
-      </c>
-      <c r="G437" t="s">
-        <v>241</v>
-      </c>
-      <c r="H437" s="6">
-        <f>B437*B283</f>
-        <v>6.2026168224299056E-3</v>
+        <v>3</v>
+      </c>
+      <c r="B437" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>87</v>
-      </c>
-      <c r="B438" s="3">
-        <v>0.22</v>
-      </c>
-      <c r="C438" t="s">
-        <v>88</v>
-      </c>
-      <c r="E438" t="s">
-        <v>63</v>
-      </c>
-      <c r="F438" t="s">
-        <v>27</v>
-      </c>
-      <c r="G438" t="s">
-        <v>89</v>
+        <v>4</v>
+      </c>
+      <c r="B438" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>199</v>
-      </c>
-      <c r="B439" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C439" t="s">
-        <v>88</v>
-      </c>
-      <c r="E439" t="s">
-        <v>48</v>
-      </c>
-      <c r="F439" t="s">
-        <v>27</v>
-      </c>
-      <c r="G439" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="442" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A442" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B442" s="1" t="s">
-        <v>235</v>
+        <v>6</v>
+      </c>
+      <c r="B439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>7</v>
+      </c>
+      <c r="B440" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>8</v>
+      </c>
+      <c r="B441" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>10</v>
+      </c>
+      <c r="B442" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A443" t="s">
+      <c r="A443" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B443" s="1"/>
+      <c r="C443" s="1"/>
+      <c r="D443" s="1"/>
+      <c r="E443" s="1"/>
+      <c r="F443" s="1"/>
+      <c r="G443" s="1"/>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A444" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D444" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E444" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F444" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G444" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H444" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B443" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A444" t="s">
-        <v>4</v>
-      </c>
-      <c r="B444" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A445" t="s">
-        <v>6</v>
+      <c r="A445" t="str">
+        <f>B436</f>
+        <v>cooling system production, for Li-O2 battery</v>
       </c>
       <c r="B445">
         <v>1</v>
       </c>
+      <c r="C445" t="str">
+        <f>B441</f>
+        <v>kilogram</v>
+      </c>
+      <c r="E445" t="str">
+        <f>B438</f>
+        <v>RER</v>
+      </c>
+      <c r="F445" t="s">
+        <v>18</v>
+      </c>
+      <c r="G445" t="str">
+        <f>B440</f>
+        <v>cooling system</v>
+      </c>
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>7</v>
-      </c>
-      <c r="B446" t="s">
+        <v>235</v>
+      </c>
+      <c r="B446" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="C446" t="s">
+        <v>9</v>
+      </c>
+      <c r="E446" t="s">
+        <v>48</v>
+      </c>
+      <c r="F446" t="s">
+        <v>27</v>
+      </c>
+      <c r="G446" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>8</v>
-      </c>
-      <c r="B447" t="s">
-        <v>9</v>
+        <v>236</v>
+      </c>
+      <c r="B447" s="3">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C447" t="s">
+        <v>9</v>
+      </c>
+      <c r="E447" t="s">
+        <v>48</v>
+      </c>
+      <c r="F447" t="s">
+        <v>27</v>
+      </c>
+      <c r="G447" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>10</v>
-      </c>
-      <c r="B448" t="s">
-        <v>16</v>
+        <v>237</v>
+      </c>
+      <c r="B448" s="3">
+        <v>2.3E-2</v>
+      </c>
+      <c r="C448" t="s">
+        <v>9</v>
+      </c>
+      <c r="E448" t="s">
+        <v>48</v>
+      </c>
+      <c r="F448" t="s">
+        <v>27</v>
+      </c>
+      <c r="G448" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A449" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B449" s="1"/>
-      <c r="C449" s="1"/>
-      <c r="D449" s="1"/>
-      <c r="E449" s="1"/>
-      <c r="F449" s="1"/>
-      <c r="G449" s="1"/>
+      <c r="A449" t="s">
+        <v>238</v>
+      </c>
+      <c r="B449" s="3">
+        <v>9.6000000000000002E-4</v>
+      </c>
+      <c r="C449" t="s">
+        <v>9</v>
+      </c>
+      <c r="E449" t="s">
+        <v>48</v>
+      </c>
+      <c r="F449" t="s">
+        <v>27</v>
+      </c>
+      <c r="G449" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A450" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B450" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C450" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D450" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E450" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F450" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G450" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H450" s="1" t="s">
-        <v>3</v>
+      <c r="A450" t="s">
+        <v>239</v>
+      </c>
+      <c r="B450" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C450" t="s">
+        <v>9</v>
+      </c>
+      <c r="E450" t="s">
+        <v>48</v>
+      </c>
+      <c r="F450" t="s">
+        <v>27</v>
+      </c>
+      <c r="G450" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A451" t="str">
-        <f>B442</f>
-        <v>radiator production, for Li-O2 battery</v>
-      </c>
-      <c r="B451">
-        <v>1</v>
-      </c>
-      <c r="C451" t="str">
-        <f>B447</f>
-        <v>kilogram</v>
-      </c>
-      <c r="E451" t="str">
-        <f>B444</f>
-        <v>RER</v>
+      <c r="A451" t="s">
+        <v>240</v>
+      </c>
+      <c r="B451" s="3">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="C451" t="s">
+        <v>9</v>
+      </c>
+      <c r="E451" t="s">
+        <v>48</v>
       </c>
       <c r="F451" t="s">
-        <v>18</v>
-      </c>
-      <c r="G451" t="str">
-        <f>B446</f>
-        <v>radiator</v>
+        <v>27</v>
+      </c>
+      <c r="G451" t="s">
+        <v>241</v>
+      </c>
+      <c r="H451" s="6">
+        <f>B451*B283</f>
+        <v>6.2026168224299056E-3</v>
       </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>217</v>
+        <v>87</v>
       </c>
       <c r="B452" s="3">
-        <v>1</v>
+        <v>0.22</v>
       </c>
       <c r="C452" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="E452" t="s">
         <v>63</v>
@@ -7766,883 +7856,883 @@
         <v>27</v>
       </c>
       <c r="G452" t="s">
-        <v>218</v>
+        <v>89</v>
       </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>111</v>
-      </c>
-      <c r="B453">
+        <v>199</v>
+      </c>
+      <c r="B453" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C453" t="s">
+        <v>88</v>
+      </c>
+      <c r="E453" t="s">
+        <v>48</v>
+      </c>
+      <c r="F453" t="s">
+        <v>27</v>
+      </c>
+      <c r="G453" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A456" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>3</v>
+      </c>
+      <c r="B457" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>4</v>
+      </c>
+      <c r="B458" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>6</v>
+      </c>
+      <c r="B459">
         <v>1</v>
-      </c>
-      <c r="C453" t="s">
-        <v>9</v>
-      </c>
-      <c r="E453" t="s">
-        <v>48</v>
-      </c>
-      <c r="F453" t="s">
-        <v>27</v>
-      </c>
-      <c r="G453" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A454" t="s">
-        <v>87</v>
-      </c>
-      <c r="B454" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="C454" t="s">
-        <v>88</v>
-      </c>
-      <c r="E454" t="s">
-        <v>63</v>
-      </c>
-      <c r="F454" t="s">
-        <v>27</v>
-      </c>
-      <c r="G454" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A455" t="s">
-        <v>199</v>
-      </c>
-      <c r="B455" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C455" t="s">
-        <v>88</v>
-      </c>
-      <c r="E455" t="s">
-        <v>48</v>
-      </c>
-      <c r="F455" t="s">
-        <v>27</v>
-      </c>
-      <c r="G455" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A456" t="s">
-        <v>114</v>
-      </c>
-      <c r="B456" s="3">
-        <v>1.5E-10</v>
-      </c>
-      <c r="C456" t="s">
-        <v>8</v>
-      </c>
-      <c r="E456" t="s">
-        <v>48</v>
-      </c>
-      <c r="F456" t="s">
-        <v>27</v>
-      </c>
-      <c r="G456" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="459" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A459" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B459" s="1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B460" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B461" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
+        <v>10</v>
+      </c>
+      <c r="B462" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A463" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B463" s="1"/>
+      <c r="C463" s="1"/>
+      <c r="D463" s="1"/>
+      <c r="E463" s="1"/>
+      <c r="F463" s="1"/>
+      <c r="G463" s="1"/>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A464" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D464" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E464" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F464" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G464" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H464" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A465" t="str">
+        <f>B456</f>
+        <v>radiator production, for Li-O2 battery</v>
+      </c>
+      <c r="B465">
+        <v>1</v>
+      </c>
+      <c r="C465" t="str">
+        <f>B461</f>
+        <v>kilogram</v>
+      </c>
+      <c r="E465" t="str">
+        <f>B458</f>
+        <v>RER</v>
+      </c>
+      <c r="F465" t="s">
+        <v>18</v>
+      </c>
+      <c r="G465" t="str">
+        <f>B460</f>
+        <v>radiator</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>217</v>
+      </c>
+      <c r="B466" s="3">
+        <v>1</v>
+      </c>
+      <c r="C466" t="s">
+        <v>9</v>
+      </c>
+      <c r="E466" t="s">
+        <v>63</v>
+      </c>
+      <c r="F466" t="s">
+        <v>27</v>
+      </c>
+      <c r="G466" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>111</v>
+      </c>
+      <c r="B467">
+        <v>1</v>
+      </c>
+      <c r="C467" t="s">
+        <v>9</v>
+      </c>
+      <c r="E467" t="s">
+        <v>48</v>
+      </c>
+      <c r="F467" t="s">
+        <v>27</v>
+      </c>
+      <c r="G467" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>87</v>
+      </c>
+      <c r="B468" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C468" t="s">
+        <v>88</v>
+      </c>
+      <c r="E468" t="s">
+        <v>63</v>
+      </c>
+      <c r="F468" t="s">
+        <v>27</v>
+      </c>
+      <c r="G468" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>199</v>
+      </c>
+      <c r="B469" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C469" t="s">
+        <v>88</v>
+      </c>
+      <c r="E469" t="s">
+        <v>48</v>
+      </c>
+      <c r="F469" t="s">
+        <v>27</v>
+      </c>
+      <c r="G469" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>114</v>
+      </c>
+      <c r="B470" s="3">
+        <v>1.5E-10</v>
+      </c>
+      <c r="C470" t="s">
+        <v>8</v>
+      </c>
+      <c r="E470" t="s">
+        <v>48</v>
+      </c>
+      <c r="F470" t="s">
+        <v>27</v>
+      </c>
+      <c r="G470" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A473" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>3</v>
+      </c>
+      <c r="B474" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>4</v>
+      </c>
+      <c r="B475" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
         <v>6</v>
       </c>
-      <c r="B462">
+      <c r="B476">
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A463" t="s">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
         <v>7</v>
       </c>
-      <c r="B463" t="s">
+      <c r="B477" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A464" t="s">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A478" t="s">
         <v>8</v>
       </c>
-      <c r="B464" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A465" t="s">
+      <c r="B478" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A479" t="s">
         <v>10</v>
       </c>
-      <c r="B465" t="s">
+      <c r="B479" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A466" s="1" t="s">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A480" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B466" s="1"/>
-      <c r="C466" s="1"/>
-      <c r="D466" s="1"/>
-      <c r="E466" s="1"/>
-      <c r="F466" s="1"/>
-      <c r="G466" s="1"/>
-    </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A467" s="1" t="s">
+      <c r="B480" s="1"/>
+      <c r="C480" s="1"/>
+      <c r="D480" s="1"/>
+      <c r="E480" s="1"/>
+      <c r="F480" s="1"/>
+      <c r="G480" s="1"/>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A481" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B467" s="1" t="s">
+      <c r="B481" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C467" s="1" t="s">
+      <c r="C481" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D467" s="1" t="s">
+      <c r="D481" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E467" s="1" t="s">
+      <c r="E481" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F467" s="1" t="s">
+      <c r="F481" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G467" s="1" t="s">
+      <c r="G481" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H467" s="1" t="s">
+      <c r="H481" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A468" t="str">
-        <f>B459</f>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A482" t="str">
+        <f>B473</f>
         <v>manifolds production, for Li-O2 battery</v>
       </c>
-      <c r="B468">
+      <c r="B482">
         <v>1</v>
       </c>
-      <c r="C468" t="str">
-        <f>B464</f>
+      <c r="C482" t="str">
+        <f>B478</f>
         <v>kilogram</v>
       </c>
-      <c r="E468" t="str">
-        <f>B461</f>
+      <c r="E482" t="str">
+        <f>B475</f>
         <v>RER</v>
       </c>
-      <c r="F468" t="s">
+      <c r="F482" t="s">
         <v>18</v>
       </c>
-      <c r="G468" t="str">
-        <f>B463</f>
+      <c r="G482" t="str">
+        <f>B477</f>
         <v>manifolds</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A469" t="s">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
         <v>217</v>
       </c>
-      <c r="B469" s="3">
+      <c r="B483" s="3">
         <v>1</v>
       </c>
-      <c r="C469" t="s">
-        <v>9</v>
-      </c>
-      <c r="E469" t="s">
+      <c r="C483" t="s">
+        <v>9</v>
+      </c>
+      <c r="E483" t="s">
         <v>63</v>
       </c>
-      <c r="F469" t="s">
-        <v>27</v>
-      </c>
-      <c r="G469" t="s">
+      <c r="F483" t="s">
+        <v>27</v>
+      </c>
+      <c r="G483" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A470" t="s">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
         <v>230</v>
       </c>
-      <c r="B470" s="3">
+      <c r="B484" s="3">
         <v>1</v>
       </c>
-      <c r="C470" t="s">
-        <v>9</v>
-      </c>
-      <c r="E470" t="s">
-        <v>48</v>
-      </c>
-      <c r="F470" t="s">
-        <v>27</v>
-      </c>
-      <c r="G470" t="s">
+      <c r="C484" t="s">
+        <v>9</v>
+      </c>
+      <c r="E484" t="s">
+        <v>48</v>
+      </c>
+      <c r="F484" t="s">
+        <v>27</v>
+      </c>
+      <c r="G484" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A471" t="s">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
         <v>87</v>
       </c>
-      <c r="B471" s="3">
+      <c r="B485" s="3">
         <v>0.2</v>
       </c>
-      <c r="C471" t="s">
+      <c r="C485" t="s">
         <v>88</v>
       </c>
-      <c r="E471" t="s">
+      <c r="E485" t="s">
         <v>63</v>
       </c>
-      <c r="F471" t="s">
-        <v>27</v>
-      </c>
-      <c r="G471" t="s">
+      <c r="F485" t="s">
+        <v>27</v>
+      </c>
+      <c r="G485" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A472" t="s">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
         <v>199</v>
       </c>
-      <c r="B472" s="3">
+      <c r="B486" s="3">
         <v>0.1</v>
       </c>
-      <c r="C472" t="s">
+      <c r="C486" t="s">
         <v>88</v>
       </c>
-      <c r="E472" t="s">
-        <v>48</v>
-      </c>
-      <c r="F472" t="s">
-        <v>27</v>
-      </c>
-      <c r="G472" t="s">
+      <c r="E486" t="s">
+        <v>48</v>
+      </c>
+      <c r="F486" t="s">
+        <v>27</v>
+      </c>
+      <c r="G486" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A473" t="s">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
         <v>114</v>
       </c>
-      <c r="B473" s="3">
+      <c r="B487" s="3">
         <v>1.5E-10</v>
       </c>
-      <c r="C473" t="s">
+      <c r="C487" t="s">
         <v>8</v>
       </c>
-      <c r="E473" t="s">
-        <v>48</v>
-      </c>
-      <c r="F473" t="s">
-        <v>27</v>
-      </c>
-      <c r="G473" t="s">
+      <c r="E487" t="s">
+        <v>48</v>
+      </c>
+      <c r="F487" t="s">
+        <v>27</v>
+      </c>
+      <c r="G487" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="476" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A476" s="2" t="s">
+    <row r="490" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A490" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B476" s="1" t="s">
+      <c r="B490" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A477" t="s">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
         <v>3</v>
       </c>
-      <c r="B477" t="s">
+      <c r="B491" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A478" t="s">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
         <v>4</v>
       </c>
-      <c r="B478" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A479" t="s">
+      <c r="B492" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
         <v>6</v>
       </c>
-      <c r="B479">
+      <c r="B493">
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A480" t="s">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
         <v>7</v>
       </c>
-      <c r="B480" t="s">
+      <c r="B494" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A481" t="s">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
         <v>8</v>
       </c>
-      <c r="B481" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A482" t="s">
+      <c r="B495" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
         <v>10</v>
       </c>
-      <c r="B482" t="s">
+      <c r="B496" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A483" s="1" t="s">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A497" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B483" s="1"/>
-      <c r="C483" s="1"/>
-      <c r="D483" s="1"/>
-      <c r="E483" s="1"/>
-      <c r="F483" s="1"/>
-      <c r="G483" s="1"/>
-    </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A484" s="1" t="s">
+      <c r="B497" s="1"/>
+      <c r="C497" s="1"/>
+      <c r="D497" s="1"/>
+      <c r="E497" s="1"/>
+      <c r="F497" s="1"/>
+      <c r="G497" s="1"/>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A498" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B484" s="1" t="s">
+      <c r="B498" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C484" s="1" t="s">
+      <c r="C498" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D484" s="1" t="s">
+      <c r="D498" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E484" s="1" t="s">
+      <c r="E498" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F484" s="1" t="s">
+      <c r="F498" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G484" s="1" t="s">
+      <c r="G498" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A485" t="str">
-        <f>B476</f>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A499" t="str">
+        <f>B490</f>
         <v>clamps and fasteners production, for Li-O2 battery</v>
       </c>
-      <c r="B485">
+      <c r="B499">
         <v>1</v>
       </c>
-      <c r="C485" t="str">
-        <f>B481</f>
+      <c r="C499" t="str">
+        <f>B495</f>
         <v>kilogram</v>
       </c>
-      <c r="E485" t="str">
-        <f>B478</f>
+      <c r="E499" t="str">
+        <f>B492</f>
         <v>RER</v>
       </c>
-      <c r="F485" t="s">
+      <c r="F499" t="s">
         <v>18</v>
       </c>
-      <c r="G485" t="str">
-        <f>B480</f>
+      <c r="G499" t="str">
+        <f>B494</f>
         <v>clamps and fasteners</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A486" t="s">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
         <v>144</v>
       </c>
-      <c r="B486" s="3">
+      <c r="B500" s="3">
         <v>1</v>
       </c>
-      <c r="C486" t="s">
-        <v>9</v>
-      </c>
-      <c r="E486" t="s">
+      <c r="C500" t="s">
+        <v>9</v>
+      </c>
+      <c r="E500" t="s">
         <v>5</v>
       </c>
-      <c r="F486" t="s">
-        <v>27</v>
-      </c>
-      <c r="G486" t="s">
+      <c r="F500" t="s">
+        <v>27</v>
+      </c>
+      <c r="G500" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A487" t="s">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
         <v>210</v>
       </c>
-      <c r="B487" s="3">
+      <c r="B501" s="3">
         <v>1</v>
       </c>
-      <c r="C487" t="s">
-        <v>9</v>
-      </c>
-      <c r="E487" t="s">
-        <v>48</v>
-      </c>
-      <c r="F487" t="s">
-        <v>27</v>
-      </c>
-      <c r="G487" t="s">
+      <c r="C501" t="s">
+        <v>9</v>
+      </c>
+      <c r="E501" t="s">
+        <v>48</v>
+      </c>
+      <c r="F501" t="s">
+        <v>27</v>
+      </c>
+      <c r="G501" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A488" t="s">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A502" t="s">
         <v>87</v>
       </c>
-      <c r="B488" s="3">
+      <c r="B502" s="3">
         <v>0.2</v>
       </c>
-      <c r="C488" t="s">
+      <c r="C502" t="s">
         <v>88</v>
       </c>
-      <c r="E488" t="s">
+      <c r="E502" t="s">
         <v>63</v>
       </c>
-      <c r="F488" t="s">
-        <v>27</v>
-      </c>
-      <c r="G488" t="s">
+      <c r="F502" t="s">
+        <v>27</v>
+      </c>
+      <c r="G502" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A489" t="s">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
         <v>199</v>
       </c>
-      <c r="B489" s="3">
+      <c r="B503" s="3">
         <v>0.1</v>
       </c>
-      <c r="C489" t="s">
+      <c r="C503" t="s">
         <v>88</v>
       </c>
-      <c r="E489" t="s">
-        <v>48</v>
-      </c>
-      <c r="F489" t="s">
-        <v>27</v>
-      </c>
-      <c r="G489" t="s">
+      <c r="E503" t="s">
+        <v>48</v>
+      </c>
+      <c r="F503" t="s">
+        <v>27</v>
+      </c>
+      <c r="G503" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A490" t="s">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
         <v>85</v>
       </c>
-      <c r="B490" s="3">
+      <c r="B504" s="3">
         <v>4.6000000000000001E-10</v>
       </c>
-      <c r="C490" t="s">
+      <c r="C504" t="s">
         <v>8</v>
       </c>
-      <c r="E490" t="s">
+      <c r="E504" t="s">
         <v>5</v>
       </c>
-      <c r="F490" t="s">
-        <v>27</v>
-      </c>
-      <c r="G490" t="s">
+      <c r="F504" t="s">
+        <v>27</v>
+      </c>
+      <c r="G504" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="493" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A493" s="2" t="s">
+    <row r="507" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A507" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B493" s="1" t="s">
+      <c r="B507" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A494" t="s">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
         <v>3</v>
       </c>
-      <c r="B494" t="s">
+      <c r="B508" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A495" t="s">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
         <v>4</v>
       </c>
-      <c r="B495" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A496" t="s">
+      <c r="B509" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
         <v>6</v>
       </c>
-      <c r="B496">
+      <c r="B510">
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A497" t="s">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
         <v>7</v>
       </c>
-      <c r="B497" t="s">
+      <c r="B511" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A498" t="s">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
         <v>8</v>
       </c>
-      <c r="B498" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A499" t="s">
-        <v>10</v>
-      </c>
-      <c r="B499" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A500" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B500" s="1"/>
-      <c r="C500" s="1"/>
-      <c r="D500" s="1"/>
-      <c r="E500" s="1"/>
-      <c r="F500" s="1"/>
-      <c r="G500" s="1"/>
-    </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A501" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B501" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C501" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D501" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E501" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F501" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G501" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H501" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A502" t="str">
-        <f>B493</f>
-        <v>pipe fitting production, for Li-O2 battery</v>
-      </c>
-      <c r="B502">
-        <v>1</v>
-      </c>
-      <c r="C502" t="str">
-        <f>B498</f>
-        <v>kilogram</v>
-      </c>
-      <c r="E502" t="str">
-        <f>B495</f>
-        <v>RER</v>
-      </c>
-      <c r="F502" t="s">
-        <v>18</v>
-      </c>
-      <c r="G502" t="str">
-        <f>B497</f>
-        <v>pipe fitting</v>
-      </c>
-    </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A503" t="s">
-        <v>247</v>
-      </c>
-      <c r="B503" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="C503" t="s">
-        <v>9</v>
-      </c>
-      <c r="E503" t="s">
-        <v>48</v>
-      </c>
-      <c r="F503" t="s">
-        <v>27</v>
-      </c>
-      <c r="G503" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A504" t="s">
-        <v>221</v>
-      </c>
-      <c r="B504" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="C504" t="s">
-        <v>9</v>
-      </c>
-      <c r="E504" t="s">
-        <v>48</v>
-      </c>
-      <c r="F504" t="s">
-        <v>27</v>
-      </c>
-      <c r="G504" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A505" t="s">
-        <v>136</v>
-      </c>
-      <c r="B505" s="3">
-        <v>1</v>
-      </c>
-      <c r="C505" t="s">
-        <v>9</v>
-      </c>
-      <c r="E505" t="s">
-        <v>48</v>
-      </c>
-      <c r="F505" t="s">
-        <v>27</v>
-      </c>
-      <c r="G505" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A506" t="s">
-        <v>87</v>
-      </c>
-      <c r="B506" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="C506" t="s">
-        <v>88</v>
-      </c>
-      <c r="E506" t="s">
-        <v>63</v>
-      </c>
-      <c r="F506" t="s">
-        <v>27</v>
-      </c>
-      <c r="G506" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A507" t="s">
-        <v>199</v>
-      </c>
-      <c r="B507" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C507" t="s">
-        <v>88</v>
-      </c>
-      <c r="E507" t="s">
-        <v>48</v>
-      </c>
-      <c r="F507" t="s">
-        <v>27</v>
-      </c>
-      <c r="G507" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A508" t="s">
-        <v>137</v>
-      </c>
-      <c r="B508" s="3">
-        <v>7.4000000000000003E-10</v>
-      </c>
-      <c r="C508" t="s">
-        <v>8</v>
-      </c>
-      <c r="E508" t="s">
-        <v>48</v>
-      </c>
-      <c r="F508" t="s">
-        <v>27</v>
-      </c>
-      <c r="G508" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="511" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A511" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B511" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A512" t="s">
-        <v>3</v>
-      </c>
       <c r="B512" t="s">
-        <v>257</v>
+        <v>9</v>
       </c>
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
+        <v>10</v>
+      </c>
+      <c r="B513" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A514" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B514" s="1"/>
+      <c r="C514" s="1"/>
+      <c r="D514" s="1"/>
+      <c r="E514" s="1"/>
+      <c r="F514" s="1"/>
+      <c r="G514" s="1"/>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A515" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D515" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E515" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B513" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A514" t="s">
-        <v>6</v>
-      </c>
-      <c r="B514">
+      <c r="F515" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G515" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H515" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A516" t="str">
+        <f>B507</f>
+        <v>pipe fitting production, for Li-O2 battery</v>
+      </c>
+      <c r="B516">
         <v>1</v>
       </c>
-    </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A515" t="s">
-        <v>7</v>
-      </c>
-      <c r="B515" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A516" t="s">
-        <v>8</v>
-      </c>
-      <c r="B516" t="s">
-        <v>9</v>
+      <c r="C516" t="str">
+        <f>B512</f>
+        <v>kilogram</v>
+      </c>
+      <c r="E516" t="str">
+        <f>B509</f>
+        <v>RER</v>
+      </c>
+      <c r="F516" t="s">
+        <v>18</v>
+      </c>
+      <c r="G516" t="str">
+        <f>B511</f>
+        <v>pipe fitting</v>
       </c>
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>10</v>
-      </c>
-      <c r="B517" t="s">
-        <v>16</v>
+        <v>247</v>
+      </c>
+      <c r="B517" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C517" t="s">
+        <v>9</v>
+      </c>
+      <c r="E517" t="s">
+        <v>48</v>
+      </c>
+      <c r="F517" t="s">
+        <v>27</v>
+      </c>
+      <c r="G517" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A518" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B518" s="1"/>
-      <c r="C518" s="1"/>
-      <c r="D518" s="1"/>
-      <c r="E518" s="1"/>
-      <c r="F518" s="1"/>
-      <c r="G518" s="1"/>
+      <c r="A518" t="s">
+        <v>221</v>
+      </c>
+      <c r="B518" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C518" t="s">
+        <v>9</v>
+      </c>
+      <c r="E518" t="s">
+        <v>48</v>
+      </c>
+      <c r="F518" t="s">
+        <v>27</v>
+      </c>
+      <c r="G518" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A519" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B519" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C519" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D519" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E519" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F519" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G519" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H519" s="1" t="s">
-        <v>3</v>
+      <c r="A519" t="s">
+        <v>136</v>
+      </c>
+      <c r="B519" s="3">
+        <v>1</v>
+      </c>
+      <c r="C519" t="s">
+        <v>9</v>
+      </c>
+      <c r="E519" t="s">
+        <v>48</v>
+      </c>
+      <c r="F519" t="s">
+        <v>27</v>
+      </c>
+      <c r="G519" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A520" t="str">
-        <f>B511</f>
-        <v>thermal pad production, for Li-O2 battery</v>
-      </c>
-      <c r="B520">
-        <v>1</v>
-      </c>
-      <c r="C520" t="str">
-        <f>B516</f>
-        <v>kilogram</v>
-      </c>
-      <c r="E520" t="str">
-        <f>B513</f>
-        <v>RER</v>
+      <c r="A520" t="s">
+        <v>87</v>
+      </c>
+      <c r="B520" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C520" t="s">
+        <v>88</v>
+      </c>
+      <c r="E520" t="s">
+        <v>63</v>
       </c>
       <c r="F520" t="s">
-        <v>18</v>
-      </c>
-      <c r="G520" t="str">
-        <f>B515</f>
-        <v>thermal pad</v>
+        <v>27</v>
+      </c>
+      <c r="G520" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="B521" s="3">
         <v>0.1</v>
       </c>
       <c r="C521" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="E521" t="s">
         <v>48</v>
@@ -8651,126 +8741,283 @@
         <v>27</v>
       </c>
       <c r="G521" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>252</v>
+        <v>137</v>
       </c>
       <c r="B522" s="3">
-        <v>0.3</v>
+        <v>7.4000000000000003E-10</v>
       </c>
       <c r="C522" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E522" t="s">
-        <v>253</v>
+        <v>48</v>
       </c>
       <c r="F522" t="s">
         <v>27</v>
       </c>
       <c r="G522" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A523" t="s">
-        <v>163</v>
-      </c>
-      <c r="B523" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="C523" t="s">
-        <v>9</v>
-      </c>
-      <c r="E523" t="s">
-        <v>5</v>
-      </c>
-      <c r="F523" t="s">
-        <v>27</v>
-      </c>
-      <c r="G523" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A524" t="s">
-        <v>136</v>
-      </c>
-      <c r="B524" s="3">
-        <v>1</v>
-      </c>
-      <c r="C524" t="s">
-        <v>9</v>
-      </c>
-      <c r="E524" t="s">
-        <v>48</v>
-      </c>
-      <c r="F524" t="s">
-        <v>27</v>
-      </c>
-      <c r="G524" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A525" t="s">
-        <v>87</v>
-      </c>
-      <c r="B525" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="C525" t="s">
-        <v>88</v>
-      </c>
-      <c r="E525" t="s">
-        <v>63</v>
-      </c>
-      <c r="F525" t="s">
-        <v>27</v>
-      </c>
-      <c r="G525" t="s">
-        <v>89</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A525" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>199</v>
-      </c>
-      <c r="B526" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="C526" t="s">
-        <v>88</v>
-      </c>
-      <c r="E526" t="s">
-        <v>48</v>
-      </c>
-      <c r="F526" t="s">
-        <v>27</v>
-      </c>
-      <c r="G526" t="s">
-        <v>214</v>
+        <v>3</v>
+      </c>
+      <c r="B526" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
+        <v>4</v>
+      </c>
+      <c r="B527" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A528" t="s">
+        <v>6</v>
+      </c>
+      <c r="B528">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A529" t="s">
+        <v>7</v>
+      </c>
+      <c r="B529" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A530" t="s">
+        <v>8</v>
+      </c>
+      <c r="B530" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A531" t="s">
+        <v>10</v>
+      </c>
+      <c r="B531" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A532" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B532" s="1"/>
+      <c r="C532" s="1"/>
+      <c r="D532" s="1"/>
+      <c r="E532" s="1"/>
+      <c r="F532" s="1"/>
+      <c r="G532" s="1"/>
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A533" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D533" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E533" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F533" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G533" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H533" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A534" t="str">
+        <f>B525</f>
+        <v>thermal pad production, for Li-O2 battery</v>
+      </c>
+      <c r="B534">
+        <v>1</v>
+      </c>
+      <c r="C534" t="str">
+        <f>B530</f>
+        <v>kilogram</v>
+      </c>
+      <c r="E534" t="str">
+        <f>B527</f>
+        <v>RER</v>
+      </c>
+      <c r="F534" t="s">
+        <v>18</v>
+      </c>
+      <c r="G534" t="str">
+        <f>B529</f>
+        <v>thermal pad</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A535" t="s">
+        <v>249</v>
+      </c>
+      <c r="B535" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C535" t="s">
+        <v>9</v>
+      </c>
+      <c r="E535" t="s">
+        <v>48</v>
+      </c>
+      <c r="F535" t="s">
+        <v>27</v>
+      </c>
+      <c r="G535" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A536" t="s">
+        <v>252</v>
+      </c>
+      <c r="B536" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C536" t="s">
+        <v>9</v>
+      </c>
+      <c r="E536" t="s">
+        <v>253</v>
+      </c>
+      <c r="F536" t="s">
+        <v>27</v>
+      </c>
+      <c r="G536" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A537" t="s">
+        <v>163</v>
+      </c>
+      <c r="B537" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C537" t="s">
+        <v>9</v>
+      </c>
+      <c r="E537" t="s">
+        <v>5</v>
+      </c>
+      <c r="F537" t="s">
+        <v>27</v>
+      </c>
+      <c r="G537" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A538" t="s">
+        <v>136</v>
+      </c>
+      <c r="B538" s="3">
+        <v>1</v>
+      </c>
+      <c r="C538" t="s">
+        <v>9</v>
+      </c>
+      <c r="E538" t="s">
+        <v>48</v>
+      </c>
+      <c r="F538" t="s">
+        <v>27</v>
+      </c>
+      <c r="G538" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A539" t="s">
+        <v>87</v>
+      </c>
+      <c r="B539" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C539" t="s">
+        <v>88</v>
+      </c>
+      <c r="E539" t="s">
+        <v>63</v>
+      </c>
+      <c r="F539" t="s">
+        <v>27</v>
+      </c>
+      <c r="G539" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A540" t="s">
+        <v>199</v>
+      </c>
+      <c r="B540" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C540" t="s">
+        <v>88</v>
+      </c>
+      <c r="E540" t="s">
+        <v>48</v>
+      </c>
+      <c r="F540" t="s">
+        <v>27</v>
+      </c>
+      <c r="G540" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A541" t="s">
         <v>137</v>
       </c>
-      <c r="B527" s="3">
+      <c r="B541" s="3">
         <v>7.4000000000000003E-10</v>
       </c>
-      <c r="C527" t="s">
+      <c r="C541" t="s">
         <v>8</v>
       </c>
-      <c r="E527" t="s">
-        <v>48</v>
-      </c>
-      <c r="F527" t="s">
-        <v>27</v>
-      </c>
-      <c r="G527" t="s">
+      <c r="E541" t="s">
+        <v>48</v>
+      </c>
+      <c r="F541" t="s">
+        <v>27</v>
+      </c>
+      <c r="G541" t="s">
         <v>138</v>
       </c>
     </row>

--- a/premise/data/additional_inventories/lci-batteries-LiO2.xlsx
+++ b/premise/data/additional_inventories/lci-batteries-LiO2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67E30E1-E1F3-D040-82E5-3707D3E1CBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8154B7B2-593D-A24A-A242-B2014310BA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32880" yWindow="320" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Battery - LiO2" sheetId="1" r:id="rId1"/>
@@ -1265,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A300" sqref="A300"/>
+    <sheetView tabSelected="1" topLeftCell="A261" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H295" sqref="H295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5494,8 +5494,8 @@
         <v>27</v>
       </c>
       <c r="G296" t="str">
-        <f>B291</f>
-        <v>kilogram</v>
+        <f>B290</f>
+        <v>battery, Li-O2</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.2">

--- a/premise/data/additional_inventories/lci-batteries-LiO2.xlsx
+++ b/premise/data/additional_inventories/lci-batteries-LiO2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8154B7B2-593D-A24A-A242-B2014310BA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1B0080-1DCB-DF4F-A03B-09A6B5AC1CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="281">
   <si>
     <t>Database</t>
   </si>
@@ -848,9 +848,6 @@
     <t>Values taken from Fig 3</t>
   </si>
   <si>
-    <t>System: 63.5kWh Li-O2 || Mass: 267 kg || Battery energy density: 238 Wh/kg || System energy density: 198 Wh/kg || Battery lifetime: 305 kWh/kg (1.76 MJ/km x 2e5 km / 321 kg). Source: Originally from Wang, F., Deng, Y., &amp; Yuan, C. (2020). Life cycle assessment of lithium oxygen battery for electric vehicles. Journal of Cleaner Production, 264, 121339. https://doi.org/10.1016/j.jclepro.2020.121339</t>
-  </si>
-  <si>
     <t>battery cell</t>
   </si>
   <si>
@@ -876,6 +873,12 @@
   </si>
   <si>
     <t>transport, freight, lorry, unspecified</t>
+  </si>
+  <si>
+    <t>System: 63.5kWh Li-O2 || Mass (excl. O2 tanks): 267 kg || Battery energy density: 238 Wh/kg || System energy density (incl. O2 tanks): 198 Wh/kg || Battery lifetime: 305 kWh/kg (1.76 MJ/km x 2e5 km / 321 kg). Source: Originally from Wang, F., Deng, Y., &amp; Yuan, C. (2020). Life cycle assessment of lithium oxygen battery for electric vehicles. Journal of Cleaner Production, 264, 121339. https://doi.org/10.1016/j.jclepro.2020.121339</t>
+  </si>
+  <si>
+    <t>System: 63.5kWh Li-O2 || System mass (incl. O2 tanks: 322 kg || Battery Mass (excl. O2 tanks): 267 kg || Battery energy density: 238 Wh/kg || System energy density: 198 Wh/kg || Battery lifetime: 305 kWh/kg (1.76 MJ/km x 2e5 km / 321 kg). Source: Originally from Wang, F., Deng, Y., &amp; Yuan, C. (2020). Life cycle assessment of lithium oxygen battery for electric vehicles. Journal of Cleaner Production, 264, 121339. https://doi.org/10.1016/j.jclepro.2020.121339</t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1269,7 @@
   <dimension ref="A1:T541"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A261" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H295" sqref="H295"/>
+      <selection activeCell="B288" sqref="B288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1334,7 +1337,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -5103,7 +5106,7 @@
         <v>3</v>
       </c>
       <c r="B269" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
@@ -5226,7 +5229,7 @@
         <v>27</v>
       </c>
       <c r="G278" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H278" t="s">
         <v>269</v>
@@ -5363,7 +5366,7 @@
         <v>2</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.2">
@@ -5371,7 +5374,7 @@
         <v>3</v>
       </c>
       <c r="B287" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.2">
@@ -5500,7 +5503,7 @@
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B297">
         <v>0.30910727700000001</v>
@@ -5520,7 +5523,7 @@
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B298">
         <v>2.4627409999999999E-2</v>
@@ -5535,12 +5538,12 @@
         <v>27</v>
       </c>
       <c r="G298" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B299">
         <v>0.20877976500000001</v>
@@ -5555,12 +5558,12 @@
         <v>27</v>
       </c>
       <c r="G299" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B300">
         <v>0.59901584900000004</v>
@@ -5575,7 +5578,7 @@
         <v>27</v>
       </c>
       <c r="G300" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="301" spans="1:8" ht="16" x14ac:dyDescent="0.2">

--- a/premise/data/additional_inventories/lci-batteries-LiO2.xlsx
+++ b/premise/data/additional_inventories/lci-batteries-LiO2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10817"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1B0080-1DCB-DF4F-A03B-09A6B5AC1CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A44D40-4903-1D46-8935-660A807501ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38240" yWindow="-600" windowWidth="25800" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Battery - LiO2" sheetId="1" r:id="rId1"/>
@@ -1268,8 +1268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A261" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B288" sqref="B288"/>
+    <sheetView tabSelected="1" topLeftCell="A144" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A164" sqref="A164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3507,8 +3507,8 @@
         <v>118</v>
       </c>
       <c r="B164">
-        <f>0.234</f>
-        <v>0.23400000000000001</v>
+        <f>0.234*-1</f>
+        <v>-0.23400000000000001</v>
       </c>
       <c r="C164" t="s">
         <v>9</v>
@@ -3524,7 +3524,7 @@
       </c>
       <c r="H164">
         <f t="shared" si="0"/>
-        <v>2.4541919999999999</v>
+        <v>-2.4541919999999999</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
@@ -7129,7 +7129,8 @@
         <v>118</v>
       </c>
       <c r="B405" s="3">
-        <v>4.1000000000000002E-2</v>
+        <f>0.041*-1</f>
+        <v>-4.1000000000000002E-2</v>
       </c>
       <c r="C405" t="s">
         <v>9</v>
